--- a/命令树-G.xlsx
+++ b/命令树-G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\2025S_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D543ADA4-3055-4E61-8BD3-081348FA30C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AA9BB0-6937-45BA-B5A0-960EFFBA6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>设置接口与光保护板接口的对应关系，链路接口需配置</t>
   </si>
   <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] direction {C2I|I2C}</t>
-  </si>
-  <si>
     <t>设置端口连接方向</t>
   </si>
   <si>
@@ -1060,9 +1057,6 @@
   </si>
   <si>
     <t>设置bfd的端口 范围：49152~65535</t>
-  </si>
-  <si>
-    <t>&lt;id&gt; server-group &lt;id&gt; ip {&lt;ip-addr&gt;,&lt;ip-addr&gt;,...} mode {auto | manual_up | manual_down}</t>
   </si>
   <si>
     <t>设置分析服务器保活模式，默认up</t>
@@ -1775,6 +1769,14 @@
   </si>
   <si>
     <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] mtu &lt;1500~9000&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] direction {C2I|I2C}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id&gt; server-group &lt;id&gt; ip {&lt;ip-addr&gt;,&lt;ip-addr&gt;,...} mode {auto | manual_up | manual_down}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1782,7 +1784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1827,6 +1829,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1931,7 +1941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2050,6 +2060,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2541,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="104" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -2595,7 +2608,7 @@
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="39" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
@@ -2627,11 +2640,11 @@
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2639,10 +2652,10 @@
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2650,10 +2663,10 @@
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2661,10 +2674,10 @@
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2672,10 +2685,10 @@
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2683,10 +2696,10 @@
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="39" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2694,10 +2707,10 @@
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
       <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2705,10 +2718,10 @@
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2716,10 +2729,10 @@
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2727,10 +2740,10 @@
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2738,10 +2751,10 @@
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2749,10 +2762,10 @@
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2760,10 +2773,10 @@
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2771,10 +2784,10 @@
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2782,10 +2795,10 @@
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
       <c r="D21" s="39" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2793,10 +2806,10 @@
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2804,10 +2817,10 @@
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2815,10 +2828,10 @@
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,10 +2839,10 @@
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
       <c r="D25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2837,10 +2850,10 @@
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2848,10 +2861,10 @@
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
       <c r="D27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2859,10 +2872,10 @@
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2870,10 +2883,10 @@
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2881,49 +2894,49 @@
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
       <c r="B34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -2934,40 +2947,40 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="D36" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="33"/>
       <c r="B37" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="33"/>
       <c r="B38" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="13"/>
     </row>
@@ -2978,10 +2991,10 @@
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2989,10 +3002,10 @@
       <c r="B40" s="33"/>
       <c r="C40" s="28"/>
       <c r="D40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3000,10 +3013,10 @@
       <c r="B41" s="33"/>
       <c r="C41" s="28"/>
       <c r="D41" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3011,10 +3024,10 @@
       <c r="B42" s="33"/>
       <c r="C42" s="28"/>
       <c r="D42" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3022,10 +3035,10 @@
       <c r="B43" s="33"/>
       <c r="C43" s="28"/>
       <c r="D43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3033,10 +3046,10 @@
       <c r="B44" s="33"/>
       <c r="C44" s="28"/>
       <c r="D44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3044,7 +3057,7 @@
       <c r="B45" s="33"/>
       <c r="C45" s="28"/>
       <c r="D45" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" s="13"/>
     </row>
@@ -3053,7 +3066,7 @@
       <c r="B46" s="33"/>
       <c r="C46" s="28"/>
       <c r="D46" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="13"/>
     </row>
@@ -3062,7 +3075,7 @@
       <c r="B47" s="33"/>
       <c r="C47" s="28"/>
       <c r="D47" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47" s="13"/>
     </row>
@@ -3071,21 +3084,21 @@
       <c r="B48" s="33"/>
       <c r="C48" s="28"/>
       <c r="D48" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="33"/>
       <c r="B49" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3093,23 +3106,23 @@
       <c r="B50" s="34"/>
       <c r="C50" s="28"/>
       <c r="D50" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="E52" s="13"/>
     </row>
@@ -3118,7 +3131,7 @@
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
       <c r="D53" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" s="13"/>
     </row>
@@ -3127,7 +3140,7 @@
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54" s="13"/>
     </row>
@@ -3136,7 +3149,7 @@
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
       <c r="D55" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55" s="13"/>
     </row>
@@ -3145,17 +3158,17 @@
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -3164,7 +3177,7 @@
       <c r="A58" s="27"/>
       <c r="B58" s="13"/>
       <c r="C58" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -3172,45 +3185,45 @@
     <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="28" t="s">
+      <c r="D60" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="E60" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="28"/>
       <c r="D61" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
       <c r="B62" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="28"/>
       <c r="D62" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3220,67 +3233,67 @@
       </c>
       <c r="C63" s="28"/>
       <c r="D63" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="28"/>
       <c r="B64" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="28" t="s">
+      <c r="D66" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
       <c r="B67" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="28"/>
       <c r="D67" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -3288,10 +3301,10 @@
       <c r="B69" s="34"/>
       <c r="C69" s="28"/>
       <c r="D69" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -3299,10 +3312,10 @@
       <c r="B70" s="14"/>
       <c r="C70" s="28"/>
       <c r="D70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -3312,10 +3325,10 @@
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3323,27 +3336,27 @@
       <c r="B72" s="34"/>
       <c r="C72" s="28"/>
       <c r="D72" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D74" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3351,10 +3364,10 @@
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3362,10 +3375,10 @@
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3373,7 +3386,7 @@
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E77" s="13"/>
     </row>
@@ -3387,11 +3400,11 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="28"/>
       <c r="D79" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="13"/>
     </row>
@@ -3400,25 +3413,25 @@
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B82" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="28" t="s">
+      <c r="D82" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="E82" s="13"/>
     </row>
@@ -3427,31 +3440,31 @@
       <c r="B83" s="34"/>
       <c r="C83" s="28"/>
       <c r="D83" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" s="28"/>
       <c r="D84" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="28"/>
       <c r="B85" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C85" s="28"/>
       <c r="D85" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E85" s="13"/>
     </row>
@@ -3460,10 +3473,10 @@
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3473,7 +3486,7 @@
       </c>
       <c r="C87" s="28"/>
       <c r="D87" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E87" s="13"/>
     </row>
@@ -3482,103 +3495,103 @@
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="28"/>
       <c r="B89" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" s="28"/>
       <c r="D89" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" s="28" t="s">
+      <c r="D91" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="28"/>
       <c r="B92" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C92" s="28"/>
       <c r="D92" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="28"/>
       <c r="B93" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" s="28"/>
       <c r="D93" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E93" s="13"/>
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="C95" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="D95" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="28"/>
       <c r="D96" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="28"/>
       <c r="B97" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C97" s="28"/>
       <c r="D97" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3586,7 +3599,7 @@
       <c r="B98" s="27"/>
       <c r="C98" s="28"/>
       <c r="D98" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E98" s="9"/>
     </row>
@@ -3595,7 +3608,7 @@
       <c r="B99" s="27"/>
       <c r="C99" s="28"/>
       <c r="D99" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E99" s="9"/>
     </row>
@@ -3613,10 +3626,10 @@
       </c>
       <c r="C101" s="28"/>
       <c r="D101" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3624,10 +3637,10 @@
       <c r="B102" s="27"/>
       <c r="C102" s="28"/>
       <c r="D102" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E102" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3635,7 +3648,7 @@
       <c r="B103" s="27"/>
       <c r="C103" s="28"/>
       <c r="D103" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E103" s="13"/>
     </row>
@@ -3649,14 +3662,14 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="28"/>
       <c r="B105" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C105" s="28"/>
       <c r="D105" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3664,10 +3677,10 @@
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3675,10 +3688,10 @@
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3686,43 +3699,43 @@
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="28"/>
       <c r="B109" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C109" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="E109" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B111" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" s="27" t="s">
+      <c r="D111" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="E111" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3730,10 +3743,10 @@
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
       <c r="D112" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3741,34 +3754,34 @@
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
       <c r="D113" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="27"/>
       <c r="B114" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="27"/>
       <c r="B115" s="27"/>
       <c r="C115" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3779,19 +3792,19 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C117" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B117" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C117" s="27" t="s">
+      <c r="D117" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="E117" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3799,10 +3812,10 @@
       <c r="B118" s="27"/>
       <c r="C118" s="27"/>
       <c r="D118" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3810,10 +3823,10 @@
       <c r="B119" s="27"/>
       <c r="C119" s="27"/>
       <c r="D119" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E119" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3821,23 +3834,23 @@
       <c r="B120" s="27"/>
       <c r="C120" s="27"/>
       <c r="D120" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="27"/>
       <c r="B121" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3848,27 +3861,27 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="C123" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="27"/>
       <c r="B124" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C124" s="27"/>
       <c r="D124" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E124" s="13"/>
     </row>
@@ -3879,18 +3892,18 @@
       </c>
       <c r="C125" s="27"/>
       <c r="D125" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="27"/>
       <c r="B126" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C126" s="27"/>
       <c r="D126" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E126" s="13"/>
     </row>
@@ -3899,7 +3912,7 @@
       <c r="B127" s="27"/>
       <c r="C127" s="27"/>
       <c r="D127" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E127" s="13"/>
     </row>
@@ -3908,36 +3921,36 @@
       <c r="B128" s="27"/>
       <c r="C128" s="27"/>
       <c r="D128" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="C130" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="E130" s="13"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="36"/>
       <c r="B131" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="E131" s="13"/>
     </row>
@@ -3949,16 +3962,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="E133" s="13"/>
     </row>
@@ -3967,18 +3980,18 @@
       <c r="B134" s="27"/>
       <c r="C134" s="27"/>
       <c r="D134" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="27"/>
       <c r="B135" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C135" s="27"/>
       <c r="D135" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E135" s="13"/>
     </row>
@@ -3987,18 +4000,18 @@
       <c r="B136" s="27"/>
       <c r="C136" s="27"/>
       <c r="D136" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="27"/>
       <c r="B137" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C137" s="27"/>
       <c r="D137" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E137" s="13"/>
     </row>
@@ -4009,7 +4022,7 @@
       </c>
       <c r="C138" s="27"/>
       <c r="D138" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E138" s="13"/>
     </row>
@@ -4018,14 +4031,14 @@
       <c r="B139" s="27"/>
       <c r="C139" s="27"/>
       <c r="D139" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E139" s="13"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="27"/>
       <c r="B140" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C140" s="27"/>
       <c r="D140" s="13"/>
@@ -4034,16 +4047,16 @@
     <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D142" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="E142" s="13"/>
     </row>
@@ -4052,7 +4065,7 @@
       <c r="B143" s="27"/>
       <c r="C143" s="27"/>
       <c r="D143" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E143" s="13"/>
     </row>
@@ -4061,18 +4074,18 @@
       <c r="B144" s="27"/>
       <c r="C144" s="27"/>
       <c r="D144" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E144" s="13"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="27"/>
       <c r="B145" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C145" s="27"/>
       <c r="D145" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E145" s="13"/>
     </row>
@@ -4081,7 +4094,7 @@
       <c r="B146" s="27"/>
       <c r="C146" s="27"/>
       <c r="D146" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E146" s="13"/>
     </row>
@@ -4090,7 +4103,7 @@
       <c r="B147" s="27"/>
       <c r="C147" s="27"/>
       <c r="D147" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E147" s="13"/>
     </row>
@@ -4101,7 +4114,7 @@
       </c>
       <c r="C148" s="27"/>
       <c r="D148" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E148" s="13"/>
     </row>
@@ -4110,7 +4123,7 @@
       <c r="B149" s="27"/>
       <c r="C149" s="27"/>
       <c r="D149" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E149" s="13"/>
     </row>
@@ -4119,7 +4132,7 @@
       <c r="B150" s="27"/>
       <c r="C150" s="27"/>
       <c r="D150" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E150" s="13"/>
     </row>
@@ -4128,7 +4141,7 @@
       <c r="B151" s="27"/>
       <c r="C151" s="27"/>
       <c r="D151" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E151" s="13"/>
     </row>
@@ -4137,18 +4150,18 @@
       <c r="B152" s="27"/>
       <c r="C152" s="27"/>
       <c r="D152" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E152" s="13"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="27"/>
       <c r="B153" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C153" s="27"/>
       <c r="D153" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E153" s="13"/>
     </row>
@@ -4157,7 +4170,7 @@
       <c r="B154" s="27"/>
       <c r="C154" s="27"/>
       <c r="D154" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E154" s="13"/>
     </row>
@@ -4166,23 +4179,23 @@
       <c r="B155" s="27"/>
       <c r="C155" s="27"/>
       <c r="D155" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E155" s="13"/>
     </row>
     <row r="156" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A157" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C157" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="B157" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C157" s="27" t="s">
+      <c r="D157" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="E157" s="13"/>
     </row>
@@ -4191,7 +4204,7 @@
       <c r="B158" s="27"/>
       <c r="C158" s="27"/>
       <c r="D158" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E158" s="13"/>
     </row>
@@ -4200,7 +4213,7 @@
       <c r="B159" s="27"/>
       <c r="C159" s="27"/>
       <c r="D159" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E159" s="13"/>
     </row>
@@ -4209,7 +4222,7 @@
       <c r="B160" s="27"/>
       <c r="C160" s="27"/>
       <c r="D160" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E160" s="13"/>
     </row>
@@ -4218,7 +4231,7 @@
       <c r="B161" s="27"/>
       <c r="C161" s="27"/>
       <c r="D161" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E161" s="13"/>
     </row>
@@ -4227,7 +4240,7 @@
       <c r="B162" s="27"/>
       <c r="C162" s="27"/>
       <c r="D162" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E162" s="13"/>
     </row>
@@ -4236,7 +4249,7 @@
       <c r="B163" s="27"/>
       <c r="C163" s="27"/>
       <c r="D163" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E163" s="13"/>
     </row>
@@ -4245,7 +4258,7 @@
       <c r="B164" s="27"/>
       <c r="C164" s="27"/>
       <c r="D164" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E164" s="13"/>
     </row>
@@ -4254,7 +4267,7 @@
       <c r="B165" s="27"/>
       <c r="C165" s="27"/>
       <c r="D165" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E165" s="13"/>
     </row>
@@ -4263,7 +4276,7 @@
       <c r="B166" s="27"/>
       <c r="C166" s="27"/>
       <c r="D166" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E166" s="13"/>
     </row>
@@ -4272,7 +4285,7 @@
       <c r="B167" s="27"/>
       <c r="C167" s="27"/>
       <c r="D167" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E167" s="13"/>
     </row>
@@ -4281,7 +4294,7 @@
       <c r="B168" s="27"/>
       <c r="C168" s="27"/>
       <c r="D168" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E168" s="13"/>
     </row>
@@ -4290,7 +4303,7 @@
       <c r="B169" s="27"/>
       <c r="C169" s="27"/>
       <c r="D169" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E169" s="13"/>
     </row>
@@ -4299,7 +4312,7 @@
       <c r="B170" s="27"/>
       <c r="C170" s="27"/>
       <c r="D170" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E170" s="13"/>
     </row>
@@ -4308,7 +4321,7 @@
       <c r="B171" s="27"/>
       <c r="C171" s="27"/>
       <c r="D171" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E171" s="13"/>
     </row>
@@ -4317,7 +4330,7 @@
       <c r="B172" s="27"/>
       <c r="C172" s="27"/>
       <c r="D172" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E172" s="13"/>
     </row>
@@ -4326,7 +4339,7 @@
       <c r="B173" s="27"/>
       <c r="C173" s="27"/>
       <c r="D173" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E173" s="13"/>
     </row>
@@ -4335,7 +4348,7 @@
       <c r="B174" s="27"/>
       <c r="C174" s="27"/>
       <c r="D174" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E174" s="13"/>
     </row>
@@ -4344,7 +4357,7 @@
       <c r="B175" s="27"/>
       <c r="C175" s="27"/>
       <c r="D175" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E175" s="13"/>
     </row>
@@ -4353,7 +4366,7 @@
       <c r="B176" s="27"/>
       <c r="C176" s="27"/>
       <c r="D176" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E176" s="13"/>
     </row>
@@ -4362,7 +4375,7 @@
       <c r="B177" s="27"/>
       <c r="C177" s="27"/>
       <c r="D177" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E177" s="13"/>
     </row>
@@ -4371,7 +4384,7 @@
       <c r="B178" s="27"/>
       <c r="C178" s="27"/>
       <c r="D178" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E178" s="13"/>
     </row>
@@ -4380,18 +4393,18 @@
       <c r="B179" s="27"/>
       <c r="C179" s="27"/>
       <c r="D179" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E179" s="13"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="27"/>
       <c r="B180" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C180" s="27"/>
       <c r="D180" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E180" s="13"/>
     </row>
@@ -4400,7 +4413,7 @@
       <c r="B181" s="27"/>
       <c r="C181" s="27"/>
       <c r="D181" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E181" s="13"/>
     </row>
@@ -4409,7 +4422,7 @@
       <c r="B182" s="27"/>
       <c r="C182" s="27"/>
       <c r="D182" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E182" s="13"/>
     </row>
@@ -4418,7 +4431,7 @@
       <c r="B183" s="27"/>
       <c r="C183" s="27"/>
       <c r="D183" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E183" s="13"/>
     </row>
@@ -4427,7 +4440,7 @@
       <c r="B184" s="27"/>
       <c r="C184" s="27"/>
       <c r="D184" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E184" s="13"/>
     </row>
@@ -4438,7 +4451,7 @@
       </c>
       <c r="C185" s="27"/>
       <c r="D185" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E185" s="13"/>
     </row>
@@ -4447,7 +4460,7 @@
       <c r="B186" s="27"/>
       <c r="C186" s="27"/>
       <c r="D186" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E186" s="13"/>
     </row>
@@ -4456,7 +4469,7 @@
       <c r="B187" s="27"/>
       <c r="C187" s="27"/>
       <c r="D187" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E187" s="13"/>
     </row>
@@ -4465,7 +4478,7 @@
       <c r="B188" s="27"/>
       <c r="C188" s="27"/>
       <c r="D188" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E188" s="13"/>
     </row>
@@ -4474,7 +4487,7 @@
       <c r="B189" s="27"/>
       <c r="C189" s="27"/>
       <c r="D189" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E189" s="13"/>
     </row>
@@ -4483,7 +4496,7 @@
       <c r="B190" s="27"/>
       <c r="C190" s="27"/>
       <c r="D190" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E190" s="13"/>
     </row>
@@ -4492,7 +4505,7 @@
       <c r="B191" s="27"/>
       <c r="C191" s="27"/>
       <c r="D191" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E191" s="13"/>
     </row>
@@ -4501,7 +4514,7 @@
       <c r="B192" s="27"/>
       <c r="C192" s="27"/>
       <c r="D192" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E192" s="13"/>
     </row>
@@ -4510,7 +4523,7 @@
       <c r="B193" s="27"/>
       <c r="C193" s="27"/>
       <c r="D193" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E193" s="13"/>
     </row>
@@ -4519,18 +4532,18 @@
       <c r="B194" s="27"/>
       <c r="C194" s="27"/>
       <c r="D194" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E194" s="13"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="27"/>
       <c r="B195" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C195" s="27"/>
       <c r="D195" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E195" s="13"/>
     </row>
@@ -4539,7 +4552,7 @@
       <c r="B196" s="27"/>
       <c r="C196" s="27"/>
       <c r="D196" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E196" s="13"/>
     </row>
@@ -4548,7 +4561,7 @@
       <c r="B197" s="27"/>
       <c r="C197" s="27"/>
       <c r="D197" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E197" s="13"/>
     </row>
@@ -4557,7 +4570,7 @@
       <c r="B198" s="27"/>
       <c r="C198" s="27"/>
       <c r="D198" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E198" s="13"/>
     </row>
@@ -4566,7 +4579,7 @@
       <c r="B199" s="27"/>
       <c r="C199" s="27"/>
       <c r="D199" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E199" s="13"/>
     </row>
@@ -4575,7 +4588,7 @@
       <c r="B200" s="27"/>
       <c r="C200" s="27"/>
       <c r="D200" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E200" s="13"/>
     </row>
@@ -4584,7 +4597,7 @@
       <c r="B201" s="27"/>
       <c r="C201" s="27"/>
       <c r="D201" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E201" s="13"/>
     </row>
@@ -4593,7 +4606,7 @@
       <c r="B202" s="27"/>
       <c r="C202" s="27"/>
       <c r="D202" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E202" s="13"/>
     </row>
@@ -4602,7 +4615,7 @@
       <c r="B203" s="27"/>
       <c r="C203" s="27"/>
       <c r="D203" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E203" s="13"/>
     </row>
@@ -4613,38 +4626,38 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C205" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C205" s="28" t="s">
+      <c r="D205" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="E205" s="13"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="27"/>
       <c r="B206" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C206" s="28"/>
       <c r="D206" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E206" s="13"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="27"/>
       <c r="B207" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C207" s="28"/>
       <c r="D207" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E207" s="13"/>
     </row>
@@ -4653,7 +4666,7 @@
       <c r="B208" s="27"/>
       <c r="C208" s="28"/>
       <c r="D208" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E208" s="13"/>
     </row>
@@ -4662,7 +4675,7 @@
       <c r="B209" s="27"/>
       <c r="C209" s="28"/>
       <c r="D209" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E209" s="13"/>
     </row>
@@ -4671,7 +4684,7 @@
       <c r="B210" s="27"/>
       <c r="C210" s="28"/>
       <c r="D210" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E210" s="13"/>
     </row>
@@ -4680,7 +4693,7 @@
       <c r="B211" s="27"/>
       <c r="C211" s="28"/>
       <c r="D211" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E211" s="13"/>
     </row>
@@ -4689,7 +4702,7 @@
       <c r="B212" s="27"/>
       <c r="C212" s="28"/>
       <c r="D212" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E212" s="13"/>
     </row>
@@ -4698,7 +4711,7 @@
       <c r="B213" s="27"/>
       <c r="C213" s="28"/>
       <c r="D213" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E213" s="13"/>
     </row>
@@ -4707,7 +4720,7 @@
       <c r="B214" s="27"/>
       <c r="C214" s="28"/>
       <c r="D214" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E214" s="13"/>
     </row>
@@ -4716,18 +4729,18 @@
       <c r="B215" s="27"/>
       <c r="C215" s="28"/>
       <c r="D215" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E215" s="13"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="27"/>
       <c r="B216" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C216" s="28"/>
       <c r="D216" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E216" s="13"/>
     </row>
@@ -4736,7 +4749,7 @@
       <c r="B217" s="27"/>
       <c r="C217" s="28"/>
       <c r="D217" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E217" s="13"/>
     </row>
@@ -4745,7 +4758,7 @@
       <c r="B218" s="27"/>
       <c r="C218" s="28"/>
       <c r="D218" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E218" s="13"/>
     </row>
@@ -4754,7 +4767,7 @@
       <c r="B219" s="27"/>
       <c r="C219" s="28"/>
       <c r="D219" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E219" s="13"/>
     </row>
@@ -4763,7 +4776,7 @@
       <c r="B220" s="27"/>
       <c r="C220" s="28"/>
       <c r="D220" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E220" s="13"/>
     </row>
@@ -4772,7 +4785,7 @@
       <c r="B221" s="27"/>
       <c r="C221" s="28"/>
       <c r="D221" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E221" s="13"/>
     </row>
@@ -4783,17 +4796,17 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C223" s="32"/>
       <c r="D223" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E223" s="9" t="s">
         <v>299</v>
-      </c>
-      <c r="E223" s="9" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -4801,10 +4814,10 @@
       <c r="B224" s="27"/>
       <c r="C224" s="33"/>
       <c r="D224" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E224" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -4812,68 +4825,68 @@
       <c r="B225" s="27"/>
       <c r="C225" s="33"/>
       <c r="D225" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E225" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C226" s="33"/>
       <c r="D226" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="28"/>
       <c r="B227" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C227" s="33"/>
       <c r="D227" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E227" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="E227" s="9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="28"/>
       <c r="B228" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C228" s="33"/>
       <c r="D228" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E228" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="E228" s="9" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="28"/>
       <c r="B229" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C229" s="34"/>
       <c r="D229" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E229" s="9" t="s">
         <v>310</v>
-      </c>
-      <c r="E229" s="9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="28"/>
       <c r="B230" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C230" s="28"/>
       <c r="D230" s="28"/>
@@ -4882,11 +4895,11 @@
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="28"/>
       <c r="B231" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C231" s="27"/>
       <c r="D231" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E231" s="13"/>
     </row>
@@ -4897,10 +4910,10 @@
       </c>
       <c r="C232" s="12"/>
       <c r="D232" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E232" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="E232" s="9" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -4913,11 +4926,11 @@
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="28"/>
       <c r="B234" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C234" s="27"/>
       <c r="D234" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E234" s="13"/>
     </row>
@@ -4928,10 +4941,10 @@
       </c>
       <c r="C235" s="32"/>
       <c r="D235" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E235" s="19" t="s">
         <v>319</v>
-      </c>
-      <c r="E235" s="19" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -4939,7 +4952,7 @@
       <c r="B236" s="27"/>
       <c r="C236" s="34"/>
       <c r="D236" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E236" s="8"/>
     </row>
@@ -4953,11 +4966,11 @@
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="28"/>
       <c r="B238" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C238" s="27"/>
       <c r="D238" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E238" s="13"/>
     </row>
@@ -4968,10 +4981,10 @@
       </c>
       <c r="C239" s="12"/>
       <c r="D239" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E239" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="E239" s="13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -4986,7 +4999,7 @@
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
       <c r="D241" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E241" s="13"/>
     </row>
@@ -4995,10 +5008,10 @@
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
       <c r="D242" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E242" s="19" t="s">
         <v>325</v>
-      </c>
-      <c r="E242" s="19" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -5006,10 +5019,10 @@
       <c r="B243" s="28"/>
       <c r="C243" s="28"/>
       <c r="D243" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E243" s="19" t="s">
         <v>327</v>
-      </c>
-      <c r="E243" s="19" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -5017,10 +5030,10 @@
       <c r="B244" s="28"/>
       <c r="C244" s="28"/>
       <c r="D244" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="E244" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="E244" s="20" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -5028,10 +5041,10 @@
       <c r="B245" s="28"/>
       <c r="C245" s="28"/>
       <c r="D245" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="E245" s="20" t="s">
         <v>331</v>
-      </c>
-      <c r="E245" s="20" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -5039,21 +5052,21 @@
       <c r="B246" s="28"/>
       <c r="C246" s="28"/>
       <c r="D246" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E246" s="13"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="28"/>
       <c r="B247" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C247" s="28"/>
       <c r="D247" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E247" s="13" t="s">
         <v>334</v>
-      </c>
-      <c r="E247" s="13" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -5063,10 +5076,10 @@
       </c>
       <c r="C248" s="28"/>
       <c r="D248" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E248" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="E248" s="13" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -5074,7 +5087,7 @@
       <c r="B249" s="28"/>
       <c r="C249" s="28"/>
       <c r="D249" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E249" s="13"/>
     </row>
@@ -5083,10 +5096,10 @@
       <c r="B250" s="28"/>
       <c r="C250" s="28"/>
       <c r="D250" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E250" s="13" t="s">
         <v>339</v>
-      </c>
-      <c r="E250" s="13" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -5094,21 +5107,21 @@
       <c r="B251" s="28"/>
       <c r="C251" s="28"/>
       <c r="D251" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E251" s="13" t="s">
         <v>341</v>
-      </c>
-      <c r="E251" s="13" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="28"/>
       <c r="B252" s="28"/>
       <c r="C252" s="28"/>
-      <c r="D252" s="13" t="s">
-        <v>343</v>
+      <c r="D252" s="40" t="s">
+        <v>578</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -5123,7 +5136,7 @@
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
       <c r="D254" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E254" s="9"/>
     </row>
@@ -5132,10 +5145,10 @@
       <c r="B255" s="28"/>
       <c r="C255" s="28"/>
       <c r="D255" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -5150,7 +5163,7 @@
       <c r="B257" s="28"/>
       <c r="C257" s="28"/>
       <c r="D257" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E257" s="13"/>
     </row>
@@ -5159,10 +5172,10 @@
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
       <c r="D258" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -5170,7 +5183,7 @@
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
       <c r="D259" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E259" s="13"/>
     </row>
@@ -5181,10 +5194,10 @@
       </c>
       <c r="C260" s="28"/>
       <c r="D260" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -5192,10 +5205,10 @@
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
       <c r="D261" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E261" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -5203,10 +5216,10 @@
       <c r="B262" s="28"/>
       <c r="C262" s="28"/>
       <c r="D262" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E262" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -5221,7 +5234,7 @@
       <c r="B264" s="28"/>
       <c r="C264" s="28"/>
       <c r="D264" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E264" s="13"/>
     </row>
@@ -5230,10 +5243,10 @@
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
       <c r="D265" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -5241,7 +5254,7 @@
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
       <c r="D266" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E266" s="13"/>
     </row>
@@ -5250,10 +5263,10 @@
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
       <c r="D267" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
@@ -5261,10 +5274,10 @@
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
       <c r="D268" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -5272,10 +5285,10 @@
       <c r="B269" s="28"/>
       <c r="C269" s="28"/>
       <c r="D269" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -5283,7 +5296,7 @@
       <c r="B270" s="28"/>
       <c r="C270" s="28"/>
       <c r="D270" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E270" s="13"/>
     </row>
@@ -5292,10 +5305,10 @@
       <c r="B271" s="28"/>
       <c r="C271" s="28"/>
       <c r="D271" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -5310,10 +5323,10 @@
       <c r="B273" s="28"/>
       <c r="C273" s="28"/>
       <c r="D273" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -5321,10 +5334,10 @@
       <c r="B274" s="28"/>
       <c r="C274" s="28"/>
       <c r="D274" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -5332,10 +5345,10 @@
       <c r="B275" s="28"/>
       <c r="C275" s="28"/>
       <c r="D275" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -5343,10 +5356,10 @@
       <c r="B276" s="28"/>
       <c r="C276" s="28"/>
       <c r="D276" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -5359,11 +5372,11 @@
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="28"/>
       <c r="B278" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C278" s="28"/>
       <c r="D278" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E278" s="13"/>
     </row>
@@ -5372,7 +5385,7 @@
       <c r="B279" s="27"/>
       <c r="C279" s="28"/>
       <c r="D279" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E279" s="13"/>
     </row>
@@ -5381,7 +5394,7 @@
       <c r="B280" s="27"/>
       <c r="C280" s="28"/>
       <c r="D280" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E280" s="13"/>
     </row>
@@ -5390,7 +5403,7 @@
       <c r="B281" s="27"/>
       <c r="C281" s="28"/>
       <c r="D281" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E281" s="13"/>
     </row>
@@ -5399,7 +5412,7 @@
       <c r="B282" s="27"/>
       <c r="C282" s="28"/>
       <c r="D282" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E282" s="13"/>
     </row>
@@ -5408,20 +5421,20 @@
       <c r="B283" s="27"/>
       <c r="C283" s="28"/>
       <c r="D283" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E283" s="13"/>
     </row>
     <row r="284" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
@@ -5430,10 +5443,10 @@
       <c r="A286" s="27"/>
       <c r="B286" s="27"/>
       <c r="C286" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E286" s="13"/>
     </row>
@@ -5441,10 +5454,10 @@
       <c r="A287" s="27"/>
       <c r="B287" s="27"/>
       <c r="C287" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E287" s="13"/>
     </row>
@@ -5452,10 +5465,10 @@
       <c r="A288" s="27"/>
       <c r="B288" s="27"/>
       <c r="C288" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E288" s="13"/>
     </row>
@@ -5466,13 +5479,13 @@
     </row>
     <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D290" s="13"/>
       <c r="E290" s="13"/>
@@ -5484,16 +5497,16 @@
     </row>
     <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B292" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C292" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D292" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E292" s="13"/>
     </row>
@@ -5502,10 +5515,10 @@
       <c r="B293" s="33"/>
       <c r="C293" s="33"/>
       <c r="D293" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E293" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="44.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5513,10 +5526,10 @@
       <c r="B294" s="33"/>
       <c r="C294" s="33"/>
       <c r="D294" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E294" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -5524,10 +5537,10 @@
       <c r="B295" s="33"/>
       <c r="C295" s="33"/>
       <c r="D295" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E295" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -5542,10 +5555,10 @@
       <c r="B297" s="33"/>
       <c r="C297" s="33"/>
       <c r="D297" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E297" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -5560,10 +5573,10 @@
       <c r="B299" s="33"/>
       <c r="C299" s="33"/>
       <c r="D299" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E299" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -5571,10 +5584,10 @@
       <c r="B300" s="33"/>
       <c r="C300" s="33"/>
       <c r="D300" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E300" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -5582,10 +5595,10 @@
       <c r="B301" s="33"/>
       <c r="C301" s="33"/>
       <c r="D301" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E301" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -5593,10 +5606,10 @@
       <c r="B302" s="33"/>
       <c r="C302" s="33"/>
       <c r="D302" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -5611,10 +5624,10 @@
       <c r="B304" s="33"/>
       <c r="C304" s="33"/>
       <c r="D304" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -5622,10 +5635,10 @@
       <c r="B305" s="33"/>
       <c r="C305" s="33"/>
       <c r="D305" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -5633,10 +5646,10 @@
       <c r="B306" s="33"/>
       <c r="C306" s="33"/>
       <c r="D306" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -5651,10 +5664,10 @@
       <c r="B308" s="33"/>
       <c r="C308" s="33"/>
       <c r="D308" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -5669,10 +5682,10 @@
       <c r="B310" s="33"/>
       <c r="C310" s="33"/>
       <c r="D310" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -5687,7 +5700,7 @@
       <c r="B312" s="33"/>
       <c r="C312" s="33"/>
       <c r="D312" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E312" s="13"/>
     </row>
@@ -5696,10 +5709,10 @@
       <c r="B313" s="33"/>
       <c r="C313" s="33"/>
       <c r="D313" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -5707,13 +5720,13 @@
       <c r="B314" s="33"/>
       <c r="C314" s="33"/>
       <c r="D314" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="E314" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F314" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="E314" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F314" s="23" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -5728,7 +5741,7 @@
       <c r="B316" s="33"/>
       <c r="C316" s="33"/>
       <c r="D316" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E316" s="13"/>
     </row>
@@ -5737,10 +5750,10 @@
       <c r="B317" s="33"/>
       <c r="C317" s="33"/>
       <c r="D317" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -5748,10 +5761,10 @@
       <c r="B318" s="33"/>
       <c r="C318" s="33"/>
       <c r="D318" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -5766,7 +5779,7 @@
       <c r="B320" s="33"/>
       <c r="C320" s="33"/>
       <c r="D320" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E320" s="24"/>
     </row>
@@ -5775,10 +5788,10 @@
       <c r="B321" s="33"/>
       <c r="C321" s="33"/>
       <c r="D321" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E321" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -5793,7 +5806,7 @@
       <c r="B323" s="33"/>
       <c r="C323" s="33"/>
       <c r="D323" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E323" s="13"/>
     </row>
@@ -5802,7 +5815,7 @@
       <c r="B324" s="33"/>
       <c r="C324" s="33"/>
       <c r="D324" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E324" s="13"/>
     </row>
@@ -5818,13 +5831,13 @@
       <c r="B326" s="33"/>
       <c r="C326" s="33"/>
       <c r="D326" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E326" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="F326" s="26" t="s">
         <v>437</v>
-      </c>
-      <c r="E326" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="F326" s="26" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -5832,10 +5845,10 @@
       <c r="B327" s="33"/>
       <c r="C327" s="33"/>
       <c r="D327" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E327" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -5843,10 +5856,10 @@
       <c r="B328" s="33"/>
       <c r="C328" s="33"/>
       <c r="D328" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E328" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -5854,10 +5867,10 @@
       <c r="B329" s="33"/>
       <c r="C329" s="33"/>
       <c r="D329" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E329" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -5865,10 +5878,10 @@
       <c r="B330" s="33"/>
       <c r="C330" s="33"/>
       <c r="D330" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E330" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -5876,10 +5889,10 @@
       <c r="B331" s="33"/>
       <c r="C331" s="33"/>
       <c r="D331" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -5894,10 +5907,10 @@
       <c r="B333" s="33"/>
       <c r="C333" s="33"/>
       <c r="D333" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E333" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -5905,10 +5918,10 @@
       <c r="B334" s="33"/>
       <c r="C334" s="33"/>
       <c r="D334" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -5916,10 +5929,10 @@
       <c r="B335" s="33"/>
       <c r="C335" s="33"/>
       <c r="D335" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E335" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -5927,10 +5940,10 @@
       <c r="B336" s="33"/>
       <c r="C336" s="33"/>
       <c r="D336" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E336" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -5938,10 +5951,10 @@
       <c r="B337" s="33"/>
       <c r="C337" s="33"/>
       <c r="D337" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -5949,10 +5962,10 @@
       <c r="B338" s="33"/>
       <c r="C338" s="33"/>
       <c r="D338" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -5960,10 +5973,10 @@
       <c r="B339" s="33"/>
       <c r="C339" s="33"/>
       <c r="D339" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E339" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -5971,10 +5984,10 @@
       <c r="B340" s="33"/>
       <c r="C340" s="33"/>
       <c r="D340" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E340" s="15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -5989,10 +6002,10 @@
       <c r="B342" s="33"/>
       <c r="C342" s="33"/>
       <c r="D342" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -6007,10 +6020,10 @@
       <c r="B344" s="33"/>
       <c r="C344" s="33"/>
       <c r="D344" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -6027,10 +6040,10 @@
       </c>
       <c r="C346" s="33"/>
       <c r="D346" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -6043,14 +6056,14 @@
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="28"/>
       <c r="B348" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C348" s="33"/>
       <c r="D348" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E348" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -6058,10 +6071,10 @@
       <c r="B349" s="27"/>
       <c r="C349" s="33"/>
       <c r="D349" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -6069,7 +6082,7 @@
       <c r="B350" s="27"/>
       <c r="C350" s="33"/>
       <c r="D350" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -6077,10 +6090,10 @@
       <c r="B351" s="27"/>
       <c r="C351" s="33"/>
       <c r="D351" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -6088,7 +6101,7 @@
       <c r="B352" s="27"/>
       <c r="C352" s="33"/>
       <c r="D352" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E352" s="13"/>
     </row>
@@ -6097,7 +6110,7 @@
       <c r="B353" s="27"/>
       <c r="C353" s="33"/>
       <c r="D353" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E353" s="13"/>
     </row>
@@ -6106,7 +6119,7 @@
       <c r="B354" s="27"/>
       <c r="C354" s="33"/>
       <c r="D354" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E354" s="13"/>
     </row>
@@ -6115,7 +6128,7 @@
       <c r="B355" s="27"/>
       <c r="C355" s="33"/>
       <c r="D355" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E355" s="13"/>
     </row>
@@ -6124,10 +6137,10 @@
       <c r="B356" s="27"/>
       <c r="C356" s="33"/>
       <c r="D356" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6135,10 +6148,10 @@
       <c r="B357" s="27"/>
       <c r="C357" s="33"/>
       <c r="D357" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6146,7 +6159,7 @@
       <c r="B358" s="27"/>
       <c r="C358" s="33"/>
       <c r="D358" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E358" s="9"/>
     </row>
@@ -6155,7 +6168,7 @@
       <c r="B359" s="27"/>
       <c r="C359" s="33"/>
       <c r="D359" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E359" s="9"/>
     </row>
@@ -6171,10 +6184,10 @@
       <c r="B361" s="27"/>
       <c r="C361" s="33"/>
       <c r="D361" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -6182,10 +6195,10 @@
       <c r="B362" s="27"/>
       <c r="C362" s="33"/>
       <c r="D362" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E362" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -6200,7 +6213,7 @@
       <c r="B364" s="27"/>
       <c r="C364" s="33"/>
       <c r="D364" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E364" s="13"/>
     </row>
@@ -6209,10 +6222,10 @@
       <c r="B365" s="27"/>
       <c r="C365" s="33"/>
       <c r="D365" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E365" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -6220,10 +6233,10 @@
       <c r="B366" s="27"/>
       <c r="C366" s="33"/>
       <c r="D366" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E366" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -6231,7 +6244,7 @@
       <c r="B367" s="27"/>
       <c r="C367" s="33"/>
       <c r="D367" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E367" s="13"/>
     </row>
@@ -6247,10 +6260,10 @@
       <c r="B369" s="27"/>
       <c r="C369" s="33"/>
       <c r="D369" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -6258,10 +6271,10 @@
       <c r="B370" s="27"/>
       <c r="C370" s="33"/>
       <c r="D370" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E370" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -6269,10 +6282,10 @@
       <c r="B371" s="27"/>
       <c r="C371" s="33"/>
       <c r="D371" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -6287,7 +6300,7 @@
       <c r="B373" s="27"/>
       <c r="C373" s="33"/>
       <c r="D373" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E373" s="13"/>
     </row>
@@ -6296,7 +6309,7 @@
       <c r="B374" s="27"/>
       <c r="C374" s="33"/>
       <c r="D374" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E374" s="13"/>
     </row>
@@ -6305,10 +6318,10 @@
       <c r="B375" s="27"/>
       <c r="C375" s="33"/>
       <c r="D375" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E375" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -6316,7 +6329,7 @@
       <c r="B376" s="27"/>
       <c r="C376" s="33"/>
       <c r="D376" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E376" s="13"/>
     </row>
@@ -6325,7 +6338,7 @@
       <c r="B377" s="27"/>
       <c r="C377" s="34"/>
       <c r="D377" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E377" s="13"/>
     </row>
@@ -6334,37 +6347,37 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C380" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="27"/>
       <c r="B381" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C381" s="27"/>
       <c r="D381" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E381" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -6374,10 +6387,10 @@
       </c>
       <c r="C382" s="27"/>
       <c r="D382" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -6385,10 +6398,10 @@
       <c r="B383" s="36"/>
       <c r="C383" s="27"/>
       <c r="D383" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E383" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -6404,13 +6417,13 @@
         <v>6</v>
       </c>
       <c r="C385" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="E385" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="D385" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="E385" s="9" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -6418,10 +6431,10 @@
       <c r="B386" s="37"/>
       <c r="C386" s="27"/>
       <c r="D386" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E386" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -6429,10 +6442,10 @@
       <c r="B387" s="36"/>
       <c r="C387" s="27"/>
       <c r="D387" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -6445,14 +6458,14 @@
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="27"/>
       <c r="B389" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C389" s="8"/>
       <c r="D389" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -6462,19 +6475,19 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="35" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -6487,11 +6500,11 @@
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="37"/>
       <c r="B393" s="35" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C393" s="32"/>
       <c r="D393" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E393" s="13"/>
     </row>
@@ -6500,7 +6513,7 @@
       <c r="B394" s="36"/>
       <c r="C394" s="34"/>
       <c r="D394" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E394" s="13"/>
     </row>
@@ -6509,16 +6522,16 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="27" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C396" s="27" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E396" s="13"/>
     </row>
@@ -6529,7 +6542,7 @@
       </c>
       <c r="C397" s="27"/>
       <c r="D397" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E397" s="13"/>
     </row>
@@ -6538,7 +6551,7 @@
       <c r="B398" s="27"/>
       <c r="C398" s="27"/>
       <c r="D398" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E398" s="13"/>
     </row>
@@ -6547,7 +6560,7 @@
       <c r="B399" s="27"/>
       <c r="C399" s="27"/>
       <c r="D399" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E399" s="13"/>
     </row>
@@ -6556,7 +6569,7 @@
       <c r="B400" s="27"/>
       <c r="C400" s="27"/>
       <c r="D400" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E400" s="13"/>
     </row>
@@ -6565,14 +6578,14 @@
       <c r="B401" s="27"/>
       <c r="C401" s="27"/>
       <c r="D401" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E401" s="13"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="27"/>
       <c r="B402" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C402" s="27"/>
       <c r="D402" s="13"/>
@@ -6583,16 +6596,16 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="B404" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C404" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="D404" s="9" t="s">
         <v>533</v>
-      </c>
-      <c r="B404" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C404" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="D404" s="9" t="s">
-        <v>535</v>
       </c>
       <c r="E404" s="13"/>
     </row>
@@ -6601,18 +6614,18 @@
       <c r="B405" s="27"/>
       <c r="C405" s="27"/>
       <c r="D405" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E405" s="13"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="27"/>
       <c r="B406" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C406" s="27"/>
       <c r="D406" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E406" s="13"/>
     </row>
@@ -6621,18 +6634,18 @@
       <c r="B407" s="27"/>
       <c r="C407" s="27"/>
       <c r="D407" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E407" s="13"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="27"/>
       <c r="B408" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C408" s="27"/>
       <c r="D408" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E408" s="13"/>
     </row>
@@ -6642,10 +6655,10 @@
         <v>6</v>
       </c>
       <c r="C409" s="27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E409" s="13"/>
     </row>
@@ -6654,7 +6667,7 @@
       <c r="B410" s="27"/>
       <c r="C410" s="27"/>
       <c r="D410" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E410" s="13"/>
     </row>
@@ -6663,7 +6676,7 @@
       <c r="B411" s="27"/>
       <c r="C411" s="27"/>
       <c r="D411" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E411" s="13"/>
     </row>
@@ -6672,18 +6685,18 @@
       <c r="B412" s="27"/>
       <c r="C412" s="27"/>
       <c r="D412" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E412" s="13"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="27"/>
       <c r="B413" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C413" s="27"/>
       <c r="D413" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E413" s="13"/>
     </row>
@@ -6692,16 +6705,16 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B415" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C415" s="28" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E415" s="13"/>
     </row>
@@ -6710,7 +6723,7 @@
       <c r="B416" s="27"/>
       <c r="C416" s="28"/>
       <c r="D416" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E416" s="13"/>
     </row>
@@ -6719,7 +6732,7 @@
       <c r="B417" s="27"/>
       <c r="C417" s="28"/>
       <c r="D417" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E417" s="13"/>
     </row>
@@ -6728,7 +6741,7 @@
       <c r="B418" s="27"/>
       <c r="C418" s="28"/>
       <c r="D418" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E418" s="13"/>
     </row>
@@ -6737,7 +6750,7 @@
       <c r="B419" s="27"/>
       <c r="C419" s="28"/>
       <c r="D419" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E419" s="13"/>
     </row>
@@ -6746,14 +6759,14 @@
       <c r="B420" s="27"/>
       <c r="C420" s="28"/>
       <c r="D420" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E420" s="13"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="27"/>
       <c r="B421" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C421" s="28"/>
       <c r="D421" s="13"/>
@@ -6764,7 +6777,7 @@
       <c r="B422" s="27"/>
       <c r="C422" s="28"/>
       <c r="D422" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E422" s="13"/>
     </row>
@@ -6773,14 +6786,14 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="B424" s="27" t="s">
         <v>522</v>
-      </c>
-      <c r="B424" s="27" t="s">
-        <v>524</v>
       </c>
       <c r="C424" s="27"/>
       <c r="D424" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E424" s="13"/>
     </row>
@@ -6789,31 +6802,31 @@
       <c r="B425" s="27"/>
       <c r="C425" s="27"/>
       <c r="D425" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E425" s="13"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="27"/>
       <c r="B426" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D426" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E426" s="13"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="27"/>
       <c r="B427" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C427" s="8"/>
       <c r="D427" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E427" s="13"/>
     </row>
@@ -6823,10 +6836,10 @@
         <v>6</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E428" s="13"/>
     </row>
@@ -6835,7 +6848,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="35" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -6845,7 +6858,7 @@
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="37"/>
       <c r="B431" s="29" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C431" s="29"/>
       <c r="D431" s="29"/>
@@ -6854,7 +6867,7 @@
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="36"/>
       <c r="B432" s="29" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C432" s="30"/>
       <c r="D432" s="30"/>
@@ -6865,7 +6878,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="35" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
@@ -6878,13 +6891,13 @@
         <v>6</v>
       </c>
       <c r="C435" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="D435" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="E435" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="D435" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E435" s="9" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -6892,10 +6905,10 @@
       <c r="B436" s="37"/>
       <c r="C436" s="37"/>
       <c r="D436" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E436" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -6903,10 +6916,10 @@
       <c r="B437" s="37"/>
       <c r="C437" s="37"/>
       <c r="D437" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E437" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -6914,10 +6927,10 @@
       <c r="B438" s="37"/>
       <c r="C438" s="37"/>
       <c r="D438" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E438" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -6925,35 +6938,35 @@
       <c r="B439" s="36"/>
       <c r="C439" s="36"/>
       <c r="D439" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E439" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="440" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C441" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D441" s="13"/>
       <c r="E441" s="13"/>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D442" s="12"/>
       <c r="E442" s="12"/>

--- a/命令树-G.xlsx
+++ b/命令树-G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\2025S_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AA9BB0-6937-45BA-B5A0-960EFFBA6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443CD677-8066-4B3B-91EC-1931EEF9837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="576">
   <si>
     <t>描述</t>
   </si>
@@ -81,15 +81,9 @@
     <t>设置端口连接方向</t>
   </si>
   <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] speed {100G|40G|25G|10G|1G}</t>
-  </si>
-  <si>
     <t>设置端口速率</t>
   </si>
   <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] duplex {full|half}</t>
-  </si>
-  <si>
     <t>设置端口双工模式</t>
   </si>
   <si>
@@ -330,9 +324,6 @@
     <t>{protect-policy | inner-switch-channel-abnormal | scm-offline-abnormal | scm-offline-abnormal | startup-self-testing-stage | optical-link-abnormal | service-board-optical-abnoraml | service-board-abnormal | output-input-traffic-deviate-abnormal} hold-time &lt;time&gt;</t>
   </si>
   <si>
-    <t>{protect-policy | inner-switch-channel-abnormal | scm-offline-abnormal | scm-offline-abnormal | startup-self-testing-stage | optical-link-abnormal | service-board-optical-abnoraml | service-board-abnormal | output-input-traffic-deviate-abnormal} ignore {enable | disable}</t>
-  </si>
-  <si>
     <t>{protect-policy | inner-switch-channel-abnormal | scm-offline-abnormal | scm-offline-abnormal | startup-self-testing-stage | optical-link-abnormal | service-board-optical-abnoraml | service-board-abnormal | output-input-traffic-deviate-abnormal} threshold &lt;thres&gt;</t>
   </si>
   <si>
@@ -924,9 +915,6 @@
     <t>count by service &lt;id&gt;</t>
   </si>
   <si>
-    <t>业务配置</t>
-  </si>
-  <si>
     <t>&lt;id&gt; action drop</t>
   </si>
   <si>
@@ -939,9 +927,6 @@
     <t>创建透传业务，可信链路组名可以缺省不配置，可信链路组方向相反</t>
   </si>
   <si>
-    <t>&lt;id&gt; action {discard | redirect} redirect-group &lt;id&gt; [server-group &lt;id&gt; loopback &lt;id&gt;]</t>
-  </si>
-  <si>
     <t>创建丢弃/重定向业务</t>
   </si>
   <si>
@@ -969,24 +954,12 @@
     <t>更改动作</t>
   </si>
   <si>
-    <t>*-&gt;pass</t>
-  </si>
-  <si>
-    <t>删除 所有的 组信息 和 bfd 保活</t>
-  </si>
-  <si>
     <t>&lt;id&gt; action-pass [&lt;trusted-name&gt; &lt;trusted-name&gt;]</t>
   </si>
   <si>
     <t>修改动作为 pass</t>
   </si>
   <si>
-    <t>pass-&gt;discard/redirect</t>
-  </si>
-  <si>
-    <t>删除 可信组 信息</t>
-  </si>
-  <si>
     <t>&lt;id&gt; action {discard | redirect}</t>
   </si>
   <si>
@@ -994,12 +967,6 @@
   </si>
   <si>
     <t>&lt;id&gt; action {discard | redirect} redirect-group &lt;id&gt; server-group &lt;id&gt; loopback &lt;id&gt;</t>
-  </si>
-  <si>
-    <t>discard &lt;-&gt; redirect</t>
-  </si>
-  <si>
-    <t>组信息 不动 只修改 动作</t>
   </si>
   <si>
     <t>基本属性</t>
@@ -1772,11 +1739,43 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] direction {C2I|I2C}</t>
+    <t>&lt;id&gt; server-group &lt;id&gt; ip {&lt;ip-addr&gt;,&lt;ip-addr&gt;,...} mode {auto | manual_up | manual_down}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;id&gt; server-group &lt;id&gt; ip {&lt;ip-addr&gt;,&lt;ip-addr&gt;,...} mode {auto | manual_up | manual_down}</t>
+    <t>业务配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id&gt; action {discard | redirect} redirect-group &lt;id&gt; [server-group &lt;id&gt; loopback &lt;id&gt;]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{protect-policy | inner-switch-channel-abnormal | scm-offline-abnormal | scm-offline-abnormal | startup-self-testing-stage | optical-link-abnormal | service-board-optical-abnoraml | service-board-abnormal | output-input-traffic-deviate-abnormal} ignore {enable | disable}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新语法: 明确规定&lt;A|B|C&gt;选项. {A|B|C}是枚举</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] direction &lt;C2I|I2C&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] speed &lt;100G|40G|25G|10G|1G&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] duplex &lt;full|half&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1941,7 +1940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2023,17 +2022,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2047,22 +2061,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2554,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="104" workbookViewId="0">
-      <selection activeCell="D249" sqref="D249"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -2585,15 +2605,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="47" t="s">
+        <v>572</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2604,20 +2628,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="39" t="s">
-        <v>574</v>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="28" t="s">
+        <v>563</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2626,9 +2650,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2637,306 +2661,306 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="39" t="s">
-        <v>577</v>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="28" t="s">
+        <v>573</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="39" t="s">
-        <v>576</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="6" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="6" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="6" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="6" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="6" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="6" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="6" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="6" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="39" t="s">
-        <v>575</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="6" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="6" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="6" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="6" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="6" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="6" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="6" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
-        <v>62</v>
+      <c r="A33" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
+      <c r="B34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="C34" s="35"/>
+      <c r="D34" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -2946,842 +2970,842 @@
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="E36" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="13" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="28"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="12" t="s">
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="9" t="s">
+      <c r="E39" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="9" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="9" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="9" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E42" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="9" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="9" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E44" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="9" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="9" t="s">
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="9" t="s">
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="9" t="s">
+      <c r="E49" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="33"/>
-      <c r="B49" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="9" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="27" t="s">
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="15" t="s">
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="13"/>
       <c r="C58" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="28" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="32"/>
+      <c r="B61" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="D61" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="E61" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="13" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="32"/>
+      <c r="B62" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
-      <c r="B61" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="13" t="s">
+      <c r="C62" s="32"/>
+      <c r="D62" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E62" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
-      <c r="B62" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="28"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="C64" s="32"/>
       <c r="D64" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="32"/>
+      <c r="B67" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="28" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="32"/>
+      <c r="B68" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="D68" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="13" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="32"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
-      <c r="B67" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="13" t="s">
+      <c r="E69" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
-      <c r="B68" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" s="13" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="32"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="13" t="s">
+      <c r="E70" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E69" s="13" t="s">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
+      <c r="B71" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="D71" s="13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="9" t="s">
+      <c r="E71" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="9" t="s">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="32"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
-      <c r="B71" s="32" t="s">
+      <c r="E72" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="9" t="s">
+      <c r="C74" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E74" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D74" s="13" t="s">
+      <c r="E75" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="13" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="13" t="s">
+      <c r="E76" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="28"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="28"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="32"/>
       <c r="D79" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
       <c r="D80" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="32"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B82" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="28" t="s">
+      <c r="E83" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="9" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="32"/>
+      <c r="B84" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="32"/>
+      <c r="B85" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="32"/>
+      <c r="D85" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="13"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="9" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="32"/>
+      <c r="B87" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="D87" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="13" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
-      <c r="B84" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" s="13" t="s">
+      <c r="E88" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="28"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="C89" s="32"/>
       <c r="D89" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="28" t="s">
-        <v>145</v>
+      <c r="A91" s="32" t="s">
+        <v>142</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>146</v>
+        <v>66</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="C92" s="32"/>
       <c r="D92" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="28"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="28"/>
+        <v>105</v>
+      </c>
+      <c r="C93" s="32"/>
       <c r="D93" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E93" s="13"/>
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E95" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B95" s="12" t="s">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="32"/>
+      <c r="B96" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="E96" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D95" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="13" t="s">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="32"/>
+      <c r="B97" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="32"/>
+      <c r="D97" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
-      <c r="B96" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="13" t="s">
+      <c r="E97" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E96" s="13" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="32"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="28"/>
-      <c r="B97" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="9" t="s">
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="32"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E97" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="28"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E98" s="9"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="28"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="28"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
-      <c r="B101" s="27" t="s">
+      <c r="A101" s="32"/>
+      <c r="B101" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="32"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E102" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E101" s="9" t="s">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="32"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="28"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="28"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="13" t="s">
-        <v>162</v>
-      </c>
       <c r="E103" s="13"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="28"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="28"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="32"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" s="28"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="32"/>
       <c r="D105" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E105" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E107" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="9" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="13" t="s">
+      <c r="E108" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E107" s="9" t="s">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="32"/>
+      <c r="B109" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="28"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="13" t="s">
+      <c r="D109" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E109" s="9" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="28"/>
-      <c r="B109" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="27" t="s">
+      <c r="A111" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="27" t="s">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="E112" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E111" s="9" t="s">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="9" t="s">
+      <c r="E113" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E112" s="9" t="s">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="33"/>
+      <c r="B114" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="27"/>
-      <c r="B114" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3791,66 +3815,66 @@
       <c r="D116" s="16"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E117" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B117" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C117" s="27" t="s">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="E118" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E117" s="13" t="s">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="9" t="s">
+      <c r="E119" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E118" s="9" t="s">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="9" t="s">
+      <c r="E120" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E119" s="9" t="s">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="33"/>
+      <c r="B121" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="27"/>
-      <c r="B121" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3860,97 +3884,97 @@
       <c r="D122" s="16"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="27" t="s">
+      <c r="A123" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E123" s="13"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="33"/>
+      <c r="B124" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="C124" s="33"/>
+      <c r="D124" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C123" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E123" s="13"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="27"/>
-      <c r="B124" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C124" s="27"/>
-      <c r="D124" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="27"/>
+      <c r="A125" s="33"/>
       <c r="B125" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="27"/>
+      <c r="C125" s="33"/>
       <c r="D125" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" s="13"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="33"/>
+      <c r="B126" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="33"/>
+      <c r="D126" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E126" s="13"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E127" s="13"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E125" s="13"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C126" s="27"/>
-      <c r="D126" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E126" s="13"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E127" s="13"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="35" t="s">
+      <c r="A130" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E130" s="13"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="35"/>
+      <c r="B131" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="C131" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E130" s="13"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="36"/>
-      <c r="B131" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="E131" s="13"/>
     </row>
@@ -3961,661 +3985,661 @@
       <c r="D132" s="16"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E133" s="13"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="33"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E134" s="13"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="33"/>
+      <c r="B135" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C135" s="33"/>
+      <c r="D135" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B133" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D133" s="9" t="s">
+      <c r="E135" s="13"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="33"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E133" s="13"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="9" t="s">
+      <c r="E136" s="13"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="33"/>
+      <c r="B137" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="33"/>
+      <c r="D137" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E134" s="13"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C135" s="27"/>
-      <c r="D135" s="13" t="s">
+      <c r="E137" s="13"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="33"/>
+      <c r="B138" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="33"/>
+      <c r="D138" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E138" s="13"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="33"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E135" s="13"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E136" s="13"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="27"/>
-      <c r="B137" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C137" s="27"/>
-      <c r="D137" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E137" s="13"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="27"/>
-      <c r="D138" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E138" s="13"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="E139" s="13"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="27"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C140" s="27"/>
+        <v>63</v>
+      </c>
+      <c r="C140" s="33"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
     </row>
     <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="27" t="s">
+      <c r="A142" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E142" s="13"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="33"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E143" s="13"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="33"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B142" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D142" s="9" t="s">
+      <c r="E144" s="13"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="33"/>
+      <c r="B145" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C145" s="33"/>
+      <c r="D145" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E142" s="13"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="9" t="s">
+      <c r="E145" s="13"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="33"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E146" s="13"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="33"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E143" s="13"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="9" t="s">
+      <c r="E147" s="13"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="33"/>
+      <c r="B148" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="33"/>
+      <c r="D148" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E144" s="13"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C145" s="27"/>
-      <c r="D145" s="9" t="s">
+      <c r="E148" s="13"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="33"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E145" s="13"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E146" s="13"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="9" t="s">
+      <c r="E149" s="13"/>
+    </row>
+    <row r="150" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A150" s="33"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E147" s="13"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="27"/>
-      <c r="D148" s="9" t="s">
+      <c r="E150" s="13"/>
+    </row>
+    <row r="151" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A151" s="33"/>
+      <c r="B151" s="33"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E148" s="13"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="9" t="s">
+      <c r="E151" s="13"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="33"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E149" s="13"/>
-    </row>
-    <row r="150" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="15" t="s">
+      <c r="E152" s="13"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="33"/>
+      <c r="B153" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C153" s="33"/>
+      <c r="D153" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E150" s="13"/>
-    </row>
-    <row r="151" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="15" t="s">
+      <c r="E153" s="13"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="33"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E151" s="13"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="9" t="s">
+      <c r="E154" s="13"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="33"/>
+      <c r="B155" s="33"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="E152" s="13"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="27"/>
-      <c r="B153" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C153" s="27"/>
-      <c r="D153" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E153" s="13"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="27"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="27"/>
-      <c r="D154" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E154" s="13"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="E155" s="13"/>
     </row>
     <row r="156" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A157" s="27" t="s">
+      <c r="A157" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E157" s="13"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="33"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B157" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C157" s="27" t="s">
+      <c r="E158" s="13"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="33"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D157" s="15" t="s">
+      <c r="E159" s="13"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="33"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E157" s="13"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="27"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
-      <c r="D158" s="15" t="s">
+      <c r="E160" s="13"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="33"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E158" s="13"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="27"/>
-      <c r="D159" s="9" t="s">
+      <c r="E161" s="13"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="33"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E159" s="13"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="27"/>
-      <c r="D160" s="9" t="s">
+      <c r="E162" s="13"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="33"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E160" s="13"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="27"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
-      <c r="D161" s="9" t="s">
+      <c r="E163" s="13"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="33"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E161" s="13"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="27"/>
-      <c r="B162" s="27"/>
-      <c r="C162" s="27"/>
-      <c r="D162" s="9" t="s">
+      <c r="E164" s="13"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="33"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E162" s="13"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="27"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="27"/>
-      <c r="D163" s="9" t="s">
+      <c r="E165" s="13"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="33"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E163" s="13"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="27"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="27"/>
-      <c r="D164" s="9" t="s">
+      <c r="E166" s="13"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="33"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E164" s="13"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="27"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
-      <c r="D165" s="9" t="s">
+      <c r="E167" s="13"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="33"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="E165" s="13"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="27"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="27"/>
-      <c r="D166" s="9" t="s">
+      <c r="E168" s="13"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="33"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E166" s="13"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="27"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="27"/>
-      <c r="D167" s="9" t="s">
+      <c r="E169" s="13"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="33"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E167" s="13"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="27"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="27"/>
-      <c r="D168" s="9" t="s">
+      <c r="E170" s="13"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="33"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E168" s="13"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="27"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="9" t="s">
+      <c r="E171" s="13"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="33"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E169" s="13"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="27"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="27"/>
-      <c r="D170" s="9" t="s">
+      <c r="E172" s="13"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="33"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E170" s="13"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="27"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="27"/>
-      <c r="D171" s="9" t="s">
+      <c r="E173" s="13"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="33"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E171" s="13"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="9" t="s">
+      <c r="E174" s="13"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="33"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E172" s="13"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="27"/>
-      <c r="B173" s="27"/>
-      <c r="C173" s="27"/>
-      <c r="D173" s="9" t="s">
+      <c r="E175" s="13"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="33"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E173" s="13"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="27"/>
-      <c r="B174" s="27"/>
-      <c r="C174" s="27"/>
-      <c r="D174" s="9" t="s">
+      <c r="E176" s="13"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="33"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="33"/>
+      <c r="D177" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E174" s="13"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="27"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="27"/>
-      <c r="D175" s="9" t="s">
+      <c r="E177" s="13"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="33"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E175" s="13"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="27"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="27"/>
-      <c r="D176" s="9" t="s">
+      <c r="E178" s="13"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="33"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E176" s="13"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="27"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="9" t="s">
+      <c r="E179" s="13"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="33"/>
+      <c r="B180" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C180" s="33"/>
+      <c r="D180" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E177" s="13"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="27"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="9" t="s">
+      <c r="E180" s="13"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="33"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E178" s="13"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="27"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="9" t="s">
+      <c r="E181" s="13"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="33"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E179" s="13"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="27"/>
-      <c r="B180" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C180" s="27"/>
-      <c r="D180" s="9" t="s">
+      <c r="E182" s="13"/>
+    </row>
+    <row r="183" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A183" s="33"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E180" s="13"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="27"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="27"/>
-      <c r="D181" s="9" t="s">
+      <c r="E183" s="13"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="33"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E181" s="13"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="27"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="27"/>
-      <c r="D182" s="9" t="s">
+      <c r="E184" s="13"/>
+    </row>
+    <row r="185" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A185" s="33"/>
+      <c r="B185" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="33"/>
+      <c r="D185" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="E182" s="13"/>
-    </row>
-    <row r="183" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A183" s="27"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="15" t="s">
+      <c r="E185" s="13"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="33"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E183" s="13"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="27"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="9" t="s">
+      <c r="E186" s="13"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="33"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E184" s="13"/>
-    </row>
-    <row r="185" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A185" s="27"/>
-      <c r="B185" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="27"/>
-      <c r="D185" s="15" t="s">
+      <c r="E187" s="13"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="33"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E185" s="13"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="27"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="9" t="s">
+      <c r="E188" s="13"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="33"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E186" s="13"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="27"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="9" t="s">
+      <c r="E189" s="13"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="33"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E187" s="13"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="27"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="27"/>
-      <c r="D188" s="9" t="s">
+      <c r="E190" s="13"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="33"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E188" s="13"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="27"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="27"/>
-      <c r="D189" s="9" t="s">
+      <c r="E191" s="13"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="33"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E189" s="13"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="27"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
-      <c r="D190" s="9" t="s">
+      <c r="E192" s="13"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="33"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E190" s="13"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="27"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="27"/>
-      <c r="D191" s="9" t="s">
+      <c r="E193" s="13"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="33"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="33"/>
+      <c r="D194" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E191" s="13"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="27"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="27"/>
-      <c r="D192" s="9" t="s">
+      <c r="E194" s="13"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="33"/>
+      <c r="B195" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C195" s="33"/>
+      <c r="D195" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="E192" s="13"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="27"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
-      <c r="D193" s="9" t="s">
+      <c r="E195" s="13"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="33"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E193" s="13"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="27"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="27"/>
-      <c r="D194" s="9" t="s">
+      <c r="E196" s="13"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="33"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E194" s="13"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="27"/>
-      <c r="B195" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C195" s="27"/>
-      <c r="D195" s="13" t="s">
+      <c r="E197" s="13"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="33"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E195" s="13"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
-      <c r="D196" s="13" t="s">
+      <c r="E198" s="13"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="33"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E196" s="13"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="27"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
-      <c r="D197" s="13" t="s">
+      <c r="E199" s="13"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="33"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E197" s="13"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="27"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="27"/>
-      <c r="D198" s="13" t="s">
+      <c r="E200" s="13"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="33"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E198" s="13"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="27"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="13" t="s">
+      <c r="E201" s="13"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="33"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="E199" s="13"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="27"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="9" t="s">
+      <c r="E202" s="13"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="33"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="E200" s="13"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="27"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E201" s="13"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E202" s="13"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="27"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="13" t="s">
-        <v>279</v>
       </c>
       <c r="E203" s="13"/>
     </row>
@@ -4625,167 +4649,167 @@
       <c r="C204" s="10"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="27" t="s">
+      <c r="A205" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C205" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E205" s="13"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="33"/>
+      <c r="B206" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206" s="32"/>
+      <c r="D206" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E206" s="13"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="33"/>
+      <c r="B207" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C207" s="32"/>
+      <c r="D207" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E207" s="13"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="33"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C205" s="28" t="s">
+      <c r="E208" s="13"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="33"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="E209" s="13"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="33"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E205" s="13"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="27"/>
-      <c r="B206" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C206" s="28"/>
-      <c r="D206" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E206" s="13"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="27"/>
-      <c r="B207" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C207" s="28"/>
-      <c r="D207" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E207" s="13"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="27"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="9" t="s">
+      <c r="E210" s="13"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="33"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E208" s="13"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="27"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="9" t="s">
+      <c r="E211" s="13"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="33"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E209" s="13"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="27"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="9" t="s">
+      <c r="E212" s="13"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="33"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E210" s="13"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="27"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="9" t="s">
+      <c r="E213" s="13"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="33"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E211" s="13"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="27"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="9" t="s">
+      <c r="E214" s="13"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="33"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E212" s="13"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="27"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="9" t="s">
+      <c r="E215" s="13"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="33"/>
+      <c r="B216" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C216" s="32"/>
+      <c r="D216" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E213" s="13"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="27"/>
-      <c r="B214" s="27"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="9" t="s">
+      <c r="E216" s="13"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="33"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E214" s="13"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="27"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="9" t="s">
+      <c r="E217" s="13"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="33"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E215" s="13"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="27"/>
-      <c r="B216" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C216" s="28"/>
-      <c r="D216" s="9" t="s">
+      <c r="E218" s="13"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="33"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E216" s="13"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="27"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="9" t="s">
+      <c r="E219" s="13"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="33"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E217" s="13"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="27"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="28"/>
-      <c r="D218" s="9" t="s">
+      <c r="E220" s="13"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="33"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="E218" s="13"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="27"/>
-      <c r="B219" s="27"/>
-      <c r="C219" s="28"/>
-      <c r="D219" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E219" s="13"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E220" s="13"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="27"/>
-      <c r="B221" s="27"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="E221" s="13"/>
     </row>
@@ -4795,680 +4819,678 @@
       <c r="C222" s="10"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="28" t="s">
+      <c r="A223" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="B223" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C223" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="32"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="38"/>
+      <c r="D224" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E224" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B223" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C223" s="32"/>
-      <c r="D223" s="17" t="s">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="32"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="38"/>
+      <c r="D225" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="E225" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E223" s="9" t="s">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="32"/>
+      <c r="B226" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C226" s="38"/>
+      <c r="D226" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E226" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="28"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="33"/>
-      <c r="D224" s="17" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="32"/>
+      <c r="B227" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C227" s="38"/>
+      <c r="D227" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="E224" s="13" t="s">
+      <c r="E227" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="28"/>
-      <c r="B225" s="27"/>
-      <c r="C225" s="33"/>
-      <c r="D225" s="17" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="32"/>
+      <c r="B228" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C228" s="38"/>
+      <c r="D228" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="E225" s="13" t="s">
+      <c r="E228" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="28"/>
-      <c r="B226" s="8" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="32"/>
+      <c r="B229" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C226" s="33"/>
-      <c r="D226" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E226" s="13" t="s">
+      <c r="C229" s="39"/>
+      <c r="D229" s="17" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="28"/>
-      <c r="B227" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C227" s="33"/>
-      <c r="D227" s="18" t="s">
+      <c r="E229" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E227" s="9" t="s">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="32"/>
+      <c r="B230" s="33" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="28"/>
-      <c r="B228" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C228" s="33"/>
-      <c r="D228" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="E228" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="28"/>
-      <c r="B229" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C229" s="34"/>
-      <c r="D229" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="E229" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="28"/>
-      <c r="B230" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
+      <c r="C230" s="32"/>
+      <c r="D230" s="32"/>
       <c r="E230" s="13"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="28"/>
-      <c r="B231" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="C231" s="27"/>
-      <c r="D231" s="17" t="s">
-        <v>313</v>
-      </c>
+      <c r="A231" s="32"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="17"/>
       <c r="E231" s="13"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="28"/>
+      <c r="A232" s="32"/>
       <c r="B232" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C232" s="12"/>
+      <c r="C232" s="30" t="s">
+        <v>570</v>
+      </c>
       <c r="D232" s="18" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="28"/>
+      <c r="A233" s="32"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
       <c r="D233" s="17"/>
       <c r="E233" s="13"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="28"/>
-      <c r="B234" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="C234" s="27"/>
-      <c r="D234" s="17" t="s">
-        <v>317</v>
-      </c>
+      <c r="A234" s="32"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="33"/>
+      <c r="D234" s="17"/>
       <c r="E234" s="13"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="28"/>
-      <c r="B235" s="27" t="s">
+      <c r="A235" s="32"/>
+      <c r="B235" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C235" s="32"/>
+      <c r="C235" s="42" t="s">
+        <v>570</v>
+      </c>
       <c r="D235" s="17" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="28"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="34"/>
+      <c r="A236" s="32"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="39"/>
       <c r="D236" s="17" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E236" s="8"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="28"/>
+      <c r="A237" s="32"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
       <c r="D237" s="17"/>
       <c r="E237" s="13"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="28"/>
-      <c r="B238" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="C238" s="27"/>
-      <c r="D238" s="17" t="s">
-        <v>322</v>
-      </c>
+      <c r="A238" s="32"/>
+      <c r="B238" s="45"/>
+      <c r="C238" s="33"/>
+      <c r="D238" s="17"/>
       <c r="E238" s="13"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="28"/>
+      <c r="A239" s="32"/>
       <c r="B239" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C239" s="12"/>
+      <c r="C239" s="30" t="s">
+        <v>570</v>
+      </c>
       <c r="D239" s="17" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="28"/>
-      <c r="B240" s="28"/>
-      <c r="C240" s="28"/>
+      <c r="A240" s="32"/>
+      <c r="B240" s="32"/>
+      <c r="C240" s="40" t="s">
+        <v>570</v>
+      </c>
       <c r="D240" s="13"/>
       <c r="E240" s="13"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="28"/>
-      <c r="B241" s="28"/>
-      <c r="C241" s="28"/>
+      <c r="A241" s="32"/>
+      <c r="B241" s="32"/>
+      <c r="C241" s="32"/>
       <c r="D241" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E241" s="13"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="32"/>
+      <c r="B242" s="32"/>
+      <c r="C242" s="32"/>
+      <c r="D242" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E242" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="32"/>
+      <c r="B243" s="32"/>
+      <c r="C243" s="32"/>
+      <c r="D243" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E243" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="32"/>
+      <c r="B244" s="32"/>
+      <c r="C244" s="32"/>
+      <c r="D244" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E244" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="32"/>
+      <c r="B245" s="32"/>
+      <c r="C245" s="32"/>
+      <c r="D245" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E245" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="32"/>
+      <c r="B246" s="32"/>
+      <c r="C246" s="32"/>
+      <c r="D246" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E246" s="13"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="32"/>
+      <c r="B247" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C247" s="32"/>
+      <c r="D247" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E247" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="E241" s="13"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="28"/>
-      <c r="B242" s="28"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="19" t="s">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="32"/>
+      <c r="B248" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" s="32"/>
+      <c r="D248" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="E242" s="19" t="s">
+      <c r="E248" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="28"/>
-      <c r="B243" s="28"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="19" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="32"/>
+      <c r="B249" s="32"/>
+      <c r="C249" s="32"/>
+      <c r="D249" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E243" s="19" t="s">
+      <c r="E249" s="13"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="32"/>
+      <c r="B250" s="32"/>
+      <c r="C250" s="32"/>
+      <c r="D250" s="13" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="28"/>
-      <c r="B244" s="28"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="19" t="s">
+      <c r="E250" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E244" s="20" t="s">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="32"/>
+      <c r="B251" s="32"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="13" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="28"/>
-      <c r="B245" s="28"/>
-      <c r="C245" s="28"/>
-      <c r="D245" s="19" t="s">
+      <c r="E251" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="E245" s="20" t="s">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="32"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="E252" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="28"/>
-      <c r="B246" s="28"/>
-      <c r="C246" s="28"/>
-      <c r="D246" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E246" s="13"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="28"/>
-      <c r="B247" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C247" s="28"/>
-      <c r="D247" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E247" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="28"/>
-      <c r="B248" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C248" s="28"/>
-      <c r="D248" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E248" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="28"/>
-      <c r="B249" s="28"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E249" s="13"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="28"/>
-      <c r="B250" s="28"/>
-      <c r="C250" s="28"/>
-      <c r="D250" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E250" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="28"/>
-      <c r="B251" s="28"/>
-      <c r="C251" s="28"/>
-      <c r="D251" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E251" s="13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="28"/>
-      <c r="B252" s="28"/>
-      <c r="C252" s="28"/>
-      <c r="D252" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="E252" s="13" t="s">
-        <v>342</v>
-      </c>
-    </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="28"/>
-      <c r="B253" s="28"/>
-      <c r="C253" s="28"/>
+      <c r="A253" s="32"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="32"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="28"/>
-      <c r="B254" s="28"/>
-      <c r="C254" s="28"/>
+      <c r="A254" s="32"/>
+      <c r="B254" s="32"/>
+      <c r="C254" s="32"/>
       <c r="D254" s="9" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E254" s="9"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="28"/>
-      <c r="B255" s="28"/>
-      <c r="C255" s="28"/>
+      <c r="A255" s="32"/>
+      <c r="B255" s="32"/>
+      <c r="C255" s="32"/>
       <c r="D255" s="9" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="28"/>
-      <c r="B256" s="28"/>
-      <c r="C256" s="28"/>
+      <c r="A256" s="32"/>
+      <c r="B256" s="32"/>
+      <c r="C256" s="32"/>
       <c r="D256" s="13"/>
       <c r="E256" s="13"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="28"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="28"/>
+      <c r="A257" s="32"/>
+      <c r="B257" s="32"/>
+      <c r="C257" s="32"/>
       <c r="D257" s="13" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E257" s="13"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="28"/>
-      <c r="B258" s="28"/>
-      <c r="C258" s="28"/>
+      <c r="A258" s="32"/>
+      <c r="B258" s="32"/>
+      <c r="C258" s="32"/>
       <c r="D258" s="13" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="28"/>
-      <c r="B259" s="28"/>
-      <c r="C259" s="28"/>
+      <c r="A259" s="32"/>
+      <c r="B259" s="32"/>
+      <c r="C259" s="32"/>
       <c r="D259" s="13" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E259" s="13"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="28"/>
-      <c r="B260" s="28" t="s">
+      <c r="A260" s="32"/>
+      <c r="B260" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C260" s="28"/>
+      <c r="C260" s="32"/>
       <c r="D260" s="13" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="28"/>
-      <c r="B261" s="28"/>
-      <c r="C261" s="28"/>
+      <c r="A261" s="32"/>
+      <c r="B261" s="32"/>
+      <c r="C261" s="32"/>
       <c r="D261" s="19" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E261" s="20" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="28"/>
-      <c r="B262" s="28"/>
-      <c r="C262" s="28"/>
+      <c r="A262" s="32"/>
+      <c r="B262" s="32"/>
+      <c r="C262" s="32"/>
       <c r="D262" s="19" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E262" s="19" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="28"/>
-      <c r="B263" s="28"/>
-      <c r="C263" s="28"/>
+      <c r="A263" s="32"/>
+      <c r="B263" s="32"/>
+      <c r="C263" s="32"/>
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="28"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="28"/>
+      <c r="A264" s="32"/>
+      <c r="B264" s="32"/>
+      <c r="C264" s="32"/>
       <c r="D264" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E264" s="13"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="32"/>
+      <c r="B265" s="32"/>
+      <c r="C265" s="32"/>
+      <c r="D265" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="32"/>
+      <c r="B266" s="32"/>
+      <c r="C266" s="32"/>
+      <c r="D266" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E266" s="13"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="32"/>
+      <c r="B267" s="32"/>
+      <c r="C267" s="32"/>
+      <c r="D267" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A268" s="32"/>
+      <c r="B268" s="32"/>
+      <c r="C268" s="32"/>
+      <c r="D268" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="32"/>
+      <c r="B269" s="32"/>
+      <c r="C269" s="32"/>
+      <c r="D269" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="32"/>
+      <c r="B270" s="32"/>
+      <c r="C270" s="32"/>
+      <c r="D270" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="E270" s="13"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="32"/>
+      <c r="B271" s="32"/>
+      <c r="C271" s="32"/>
+      <c r="D271" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E264" s="13"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="28"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="13" t="s">
+      <c r="E271" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="E265" s="13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="28"/>
-      <c r="B266" s="28"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="E266" s="13"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="28"/>
-      <c r="B267" s="28"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E267" s="13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A268" s="28"/>
-      <c r="B268" s="28"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E268" s="13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="28"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E269" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="28"/>
-      <c r="B270" s="28"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="E270" s="13"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="28"/>
-      <c r="B271" s="28"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="E271" s="13" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="28"/>
-      <c r="B272" s="28"/>
-      <c r="C272" s="28"/>
+      <c r="A272" s="32"/>
+      <c r="B272" s="32"/>
+      <c r="C272" s="32"/>
       <c r="D272" s="13"/>
       <c r="E272" s="13"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="28"/>
-      <c r="B273" s="28"/>
-      <c r="C273" s="28"/>
+      <c r="A273" s="32"/>
+      <c r="B273" s="32"/>
+      <c r="C273" s="32"/>
       <c r="D273" s="13" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="28"/>
-      <c r="B274" s="28"/>
-      <c r="C274" s="28"/>
+      <c r="A274" s="32"/>
+      <c r="B274" s="32"/>
+      <c r="C274" s="32"/>
       <c r="D274" s="9" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="28"/>
-      <c r="B275" s="28"/>
-      <c r="C275" s="28"/>
+      <c r="A275" s="32"/>
+      <c r="B275" s="32"/>
+      <c r="C275" s="32"/>
       <c r="D275" s="13" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="28"/>
-      <c r="B276" s="28"/>
-      <c r="C276" s="28"/>
+      <c r="A276" s="32"/>
+      <c r="B276" s="32"/>
+      <c r="C276" s="32"/>
       <c r="D276" s="13" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="28"/>
-      <c r="B277" s="28"/>
-      <c r="C277" s="28"/>
+      <c r="A277" s="32"/>
+      <c r="B277" s="32"/>
+      <c r="C277" s="32"/>
       <c r="D277" s="13"/>
       <c r="E277" s="13"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="28"/>
-      <c r="B278" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C278" s="28"/>
+      <c r="A278" s="32"/>
+      <c r="B278" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C278" s="32"/>
       <c r="D278" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E278" s="13"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="28"/>
-      <c r="B279" s="27"/>
-      <c r="C279" s="28"/>
+      <c r="A279" s="32"/>
+      <c r="B279" s="33"/>
+      <c r="C279" s="32"/>
       <c r="D279" s="9" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E279" s="13"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="28"/>
-      <c r="B280" s="27"/>
-      <c r="C280" s="28"/>
+      <c r="A280" s="32"/>
+      <c r="B280" s="33"/>
+      <c r="C280" s="32"/>
       <c r="D280" s="9" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E280" s="13"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="28"/>
-      <c r="B281" s="27"/>
-      <c r="C281" s="28"/>
+      <c r="A281" s="32"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="32"/>
       <c r="D281" s="9" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E281" s="13"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="28"/>
-      <c r="B282" s="27"/>
-      <c r="C282" s="28"/>
+      <c r="A282" s="32"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="32"/>
       <c r="D282" s="9" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E282" s="13"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="28"/>
-      <c r="B283" s="27"/>
-      <c r="C283" s="28"/>
+      <c r="A283" s="32"/>
+      <c r="B283" s="33"/>
+      <c r="C283" s="32"/>
       <c r="D283" s="9" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E283" s="13"/>
     </row>
     <row r="284" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="B285" s="27" t="s">
-        <v>383</v>
+      <c r="A285" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B285" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
     </row>
     <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="27"/>
-      <c r="B286" s="27"/>
+      <c r="A286" s="33"/>
+      <c r="B286" s="33"/>
       <c r="C286" s="8" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E286" s="13"/>
     </row>
     <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="27"/>
-      <c r="B287" s="27"/>
+      <c r="A287" s="33"/>
+      <c r="B287" s="33"/>
       <c r="C287" s="8" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E287" s="13"/>
     </row>
     <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="27"/>
-      <c r="B288" s="27"/>
+      <c r="A288" s="33"/>
+      <c r="B288" s="33"/>
       <c r="C288" s="8" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E288" s="13"/>
     </row>
@@ -5479,13 +5501,13 @@
     </row>
     <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D290" s="13"/>
       <c r="E290" s="13"/>
@@ -5496,849 +5518,849 @@
       <c r="C291" s="10"/>
     </row>
     <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="B292" s="32" t="s">
+      <c r="A292" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="B292" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C292" s="32" t="s">
-        <v>392</v>
+      <c r="C292" s="37" t="s">
+        <v>381</v>
       </c>
       <c r="D292" s="13" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E292" s="13"/>
     </row>
     <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="28"/>
-      <c r="B293" s="33"/>
-      <c r="C293" s="33"/>
+      <c r="A293" s="32"/>
+      <c r="B293" s="38"/>
+      <c r="C293" s="38"/>
       <c r="D293" s="13" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E293" s="13" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="44.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="28"/>
-      <c r="B294" s="33"/>
-      <c r="C294" s="33"/>
+      <c r="A294" s="32"/>
+      <c r="B294" s="38"/>
+      <c r="C294" s="38"/>
       <c r="D294" s="20" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E294" s="20" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="28"/>
-      <c r="B295" s="33"/>
-      <c r="C295" s="33"/>
+      <c r="A295" s="32"/>
+      <c r="B295" s="38"/>
+      <c r="C295" s="38"/>
       <c r="D295" s="13" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E295" s="13" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="28"/>
-      <c r="B296" s="33"/>
-      <c r="C296" s="33"/>
+      <c r="A296" s="32"/>
+      <c r="B296" s="38"/>
+      <c r="C296" s="38"/>
       <c r="D296" s="13"/>
       <c r="E296" s="13"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="28"/>
-      <c r="B297" s="33"/>
-      <c r="C297" s="33"/>
+      <c r="A297" s="32"/>
+      <c r="B297" s="38"/>
+      <c r="C297" s="38"/>
       <c r="D297" s="13" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E297" s="13" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="28"/>
-      <c r="B298" s="33"/>
-      <c r="C298" s="33"/>
+      <c r="A298" s="32"/>
+      <c r="B298" s="38"/>
+      <c r="C298" s="38"/>
       <c r="D298" s="13"/>
       <c r="E298" s="13"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="28"/>
-      <c r="B299" s="33"/>
-      <c r="C299" s="33"/>
+      <c r="A299" s="32"/>
+      <c r="B299" s="38"/>
+      <c r="C299" s="38"/>
       <c r="D299" s="13" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E299" s="13" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="28"/>
-      <c r="B300" s="33"/>
-      <c r="C300" s="33"/>
+      <c r="A300" s="32"/>
+      <c r="B300" s="38"/>
+      <c r="C300" s="38"/>
       <c r="D300" s="13" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E300" s="13" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="28"/>
-      <c r="B301" s="33"/>
-      <c r="C301" s="33"/>
+      <c r="A301" s="32"/>
+      <c r="B301" s="38"/>
+      <c r="C301" s="38"/>
       <c r="D301" s="13" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E301" s="13" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="28"/>
-      <c r="B302" s="33"/>
-      <c r="C302" s="33"/>
+      <c r="A302" s="32"/>
+      <c r="B302" s="38"/>
+      <c r="C302" s="38"/>
       <c r="D302" s="9" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="28"/>
-      <c r="B303" s="33"/>
-      <c r="C303" s="33"/>
+      <c r="A303" s="32"/>
+      <c r="B303" s="38"/>
+      <c r="C303" s="38"/>
       <c r="D303" s="13"/>
       <c r="E303" s="13"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="28"/>
-      <c r="B304" s="33"/>
-      <c r="C304" s="33"/>
+      <c r="A304" s="32"/>
+      <c r="B304" s="38"/>
+      <c r="C304" s="38"/>
       <c r="D304" s="13" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="28"/>
-      <c r="B305" s="33"/>
-      <c r="C305" s="33"/>
+      <c r="A305" s="32"/>
+      <c r="B305" s="38"/>
+      <c r="C305" s="38"/>
       <c r="D305" s="9" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="28"/>
-      <c r="B306" s="33"/>
-      <c r="C306" s="33"/>
+      <c r="A306" s="32"/>
+      <c r="B306" s="38"/>
+      <c r="C306" s="38"/>
       <c r="D306" s="13" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="28"/>
-      <c r="B307" s="33"/>
-      <c r="C307" s="33"/>
+      <c r="A307" s="32"/>
+      <c r="B307" s="38"/>
+      <c r="C307" s="38"/>
       <c r="D307" s="13"/>
       <c r="E307" s="13"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="28"/>
-      <c r="B308" s="33"/>
-      <c r="C308" s="33"/>
+      <c r="A308" s="32"/>
+      <c r="B308" s="38"/>
+      <c r="C308" s="38"/>
       <c r="D308" s="13" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="28"/>
-      <c r="B309" s="33"/>
-      <c r="C309" s="33"/>
+      <c r="A309" s="32"/>
+      <c r="B309" s="38"/>
+      <c r="C309" s="38"/>
       <c r="D309" s="13"/>
       <c r="E309" s="13"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="28"/>
-      <c r="B310" s="33"/>
-      <c r="C310" s="33"/>
+      <c r="A310" s="32"/>
+      <c r="B310" s="38"/>
+      <c r="C310" s="38"/>
       <c r="D310" s="9" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="28"/>
-      <c r="B311" s="33"/>
-      <c r="C311" s="33"/>
+      <c r="A311" s="32"/>
+      <c r="B311" s="38"/>
+      <c r="C311" s="38"/>
       <c r="D311" s="13"/>
       <c r="E311" s="13"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="28"/>
-      <c r="B312" s="33"/>
-      <c r="C312" s="33"/>
+      <c r="A312" s="32"/>
+      <c r="B312" s="38"/>
+      <c r="C312" s="38"/>
       <c r="D312" s="13" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E312" s="13"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="28"/>
-      <c r="B313" s="33"/>
-      <c r="C313" s="33"/>
+      <c r="A313" s="32"/>
+      <c r="B313" s="38"/>
+      <c r="C313" s="38"/>
       <c r="D313" s="22" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="28"/>
-      <c r="B314" s="33"/>
-      <c r="C314" s="33"/>
+      <c r="A314" s="32"/>
+      <c r="B314" s="38"/>
+      <c r="C314" s="38"/>
       <c r="D314" s="22" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="F314" s="23" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="28"/>
-      <c r="B315" s="33"/>
-      <c r="C315" s="33"/>
+      <c r="A315" s="32"/>
+      <c r="B315" s="38"/>
+      <c r="C315" s="38"/>
       <c r="D315" s="13"/>
       <c r="E315" s="13"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="28"/>
-      <c r="B316" s="33"/>
-      <c r="C316" s="33"/>
+      <c r="A316" s="32"/>
+      <c r="B316" s="38"/>
+      <c r="C316" s="38"/>
       <c r="D316" s="9" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E316" s="13"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="28"/>
-      <c r="B317" s="33"/>
-      <c r="C317" s="33"/>
+      <c r="A317" s="32"/>
+      <c r="B317" s="38"/>
+      <c r="C317" s="38"/>
       <c r="D317" s="9" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="28"/>
-      <c r="B318" s="33"/>
-      <c r="C318" s="33"/>
+      <c r="A318" s="32"/>
+      <c r="B318" s="38"/>
+      <c r="C318" s="38"/>
       <c r="D318" s="9" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="28"/>
-      <c r="B319" s="33"/>
-      <c r="C319" s="33"/>
+      <c r="A319" s="32"/>
+      <c r="B319" s="38"/>
+      <c r="C319" s="38"/>
       <c r="D319" s="9"/>
       <c r="E319" s="13"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="28"/>
-      <c r="B320" s="33"/>
-      <c r="C320" s="33"/>
+      <c r="A320" s="32"/>
+      <c r="B320" s="38"/>
+      <c r="C320" s="38"/>
       <c r="D320" s="18" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E320" s="24"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" s="28"/>
-      <c r="B321" s="33"/>
-      <c r="C321" s="33"/>
+      <c r="A321" s="32"/>
+      <c r="B321" s="38"/>
+      <c r="C321" s="38"/>
       <c r="D321" s="18" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E321" s="18" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="28"/>
-      <c r="B322" s="33"/>
-      <c r="C322" s="33"/>
+      <c r="A322" s="32"/>
+      <c r="B322" s="38"/>
+      <c r="C322" s="38"/>
       <c r="D322" s="9"/>
       <c r="E322" s="13"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="28"/>
-      <c r="B323" s="33"/>
-      <c r="C323" s="33"/>
+      <c r="A323" s="32"/>
+      <c r="B323" s="38"/>
+      <c r="C323" s="38"/>
       <c r="D323" s="9" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="E323" s="13"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="28"/>
-      <c r="B324" s="33"/>
-      <c r="C324" s="33"/>
+      <c r="A324" s="32"/>
+      <c r="B324" s="38"/>
+      <c r="C324" s="38"/>
       <c r="D324" s="9" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="E324" s="13"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" s="28"/>
-      <c r="B325" s="33"/>
-      <c r="C325" s="33"/>
+      <c r="A325" s="32"/>
+      <c r="B325" s="38"/>
+      <c r="C325" s="38"/>
       <c r="D325" s="13"/>
       <c r="E325" s="13"/>
     </row>
     <row r="326" spans="1:6" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A326" s="28"/>
-      <c r="B326" s="33"/>
-      <c r="C326" s="33"/>
+      <c r="A326" s="32"/>
+      <c r="B326" s="38"/>
+      <c r="C326" s="38"/>
       <c r="D326" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E326" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F326" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="32"/>
+      <c r="B327" s="38"/>
+      <c r="C327" s="38"/>
+      <c r="D327" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="E327" s="15" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="32"/>
+      <c r="B328" s="38"/>
+      <c r="C328" s="38"/>
+      <c r="D328" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="E328" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="32"/>
+      <c r="B329" s="38"/>
+      <c r="C329" s="38"/>
+      <c r="D329" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E329" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="32"/>
+      <c r="B330" s="38"/>
+      <c r="C330" s="38"/>
+      <c r="D330" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="E330" s="25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="32"/>
+      <c r="B331" s="38"/>
+      <c r="C331" s="38"/>
+      <c r="D331" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E326" s="15" t="s">
+      <c r="E331" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="F326" s="26" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" s="28"/>
-      <c r="B327" s="33"/>
-      <c r="C327" s="33"/>
-      <c r="D327" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="E327" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="28"/>
-      <c r="B328" s="33"/>
-      <c r="C328" s="33"/>
-      <c r="D328" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="E328" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A329" s="28"/>
-      <c r="B329" s="33"/>
-      <c r="C329" s="33"/>
-      <c r="D329" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E329" s="15" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="28"/>
-      <c r="B330" s="33"/>
-      <c r="C330" s="33"/>
-      <c r="D330" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="E330" s="25" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331" s="28"/>
-      <c r="B331" s="33"/>
-      <c r="C331" s="33"/>
-      <c r="D331" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="E331" s="9" t="s">
-        <v>447</v>
-      </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" s="28"/>
-      <c r="B332" s="33"/>
-      <c r="C332" s="33"/>
+      <c r="A332" s="32"/>
+      <c r="B332" s="38"/>
+      <c r="C332" s="38"/>
       <c r="D332" s="13"/>
       <c r="E332" s="13"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="28"/>
-      <c r="B333" s="33"/>
-      <c r="C333" s="33"/>
+      <c r="A333" s="32"/>
+      <c r="B333" s="38"/>
+      <c r="C333" s="38"/>
       <c r="D333" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E333" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="32"/>
+      <c r="B334" s="38"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E334" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="32"/>
+      <c r="B335" s="38"/>
+      <c r="C335" s="38"/>
+      <c r="D335" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E335" s="15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="32"/>
+      <c r="B336" s="38"/>
+      <c r="C336" s="38"/>
+      <c r="D336" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E336" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="32"/>
+      <c r="B337" s="38"/>
+      <c r="C337" s="38"/>
+      <c r="D337" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="E337" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="32"/>
+      <c r="B338" s="38"/>
+      <c r="C338" s="38"/>
+      <c r="D338" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E338" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="32"/>
+      <c r="B339" s="38"/>
+      <c r="C339" s="38"/>
+      <c r="D339" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="E333" s="15" t="s">
+      <c r="E339" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="28"/>
-      <c r="B334" s="33"/>
-      <c r="C334" s="33"/>
-      <c r="D334" s="13" t="s">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="32"/>
+      <c r="B340" s="38"/>
+      <c r="C340" s="38"/>
+      <c r="D340" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="E334" s="9" t="s">
+      <c r="E340" s="15" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" s="28"/>
-      <c r="B335" s="33"/>
-      <c r="C335" s="33"/>
-      <c r="D335" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="E335" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="28"/>
-      <c r="B336" s="33"/>
-      <c r="C336" s="33"/>
-      <c r="D336" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="E336" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="28"/>
-      <c r="B337" s="33"/>
-      <c r="C337" s="33"/>
-      <c r="D337" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="E337" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="28"/>
-      <c r="B338" s="33"/>
-      <c r="C338" s="33"/>
-      <c r="D338" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="E338" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="28"/>
-      <c r="B339" s="33"/>
-      <c r="C339" s="33"/>
-      <c r="D339" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="E339" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="28"/>
-      <c r="B340" s="33"/>
-      <c r="C340" s="33"/>
-      <c r="D340" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="E340" s="15" t="s">
-        <v>462</v>
-      </c>
-    </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="28"/>
-      <c r="B341" s="33"/>
-      <c r="C341" s="33"/>
+      <c r="A341" s="32"/>
+      <c r="B341" s="38"/>
+      <c r="C341" s="38"/>
       <c r="D341" s="13"/>
       <c r="E341" s="13"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="28"/>
-      <c r="B342" s="33"/>
-      <c r="C342" s="33"/>
+      <c r="A342" s="32"/>
+      <c r="B342" s="38"/>
+      <c r="C342" s="38"/>
       <c r="D342" s="13" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="28"/>
-      <c r="B343" s="33"/>
-      <c r="C343" s="33"/>
+      <c r="A343" s="32"/>
+      <c r="B343" s="38"/>
+      <c r="C343" s="38"/>
       <c r="D343" s="13"/>
       <c r="E343" s="13"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="28"/>
-      <c r="B344" s="33"/>
-      <c r="C344" s="33"/>
+      <c r="A344" s="32"/>
+      <c r="B344" s="38"/>
+      <c r="C344" s="38"/>
       <c r="D344" s="9" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="28"/>
-      <c r="B345" s="34"/>
-      <c r="C345" s="33"/>
+      <c r="A345" s="32"/>
+      <c r="B345" s="39"/>
+      <c r="C345" s="38"/>
       <c r="D345" s="13"/>
       <c r="E345" s="13"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="28"/>
-      <c r="B346" s="37" t="s">
+      <c r="A346" s="32"/>
+      <c r="B346" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C346" s="33"/>
+      <c r="C346" s="38"/>
       <c r="D346" s="9" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="28"/>
-      <c r="B347" s="36"/>
-      <c r="C347" s="33"/>
+      <c r="A347" s="32"/>
+      <c r="B347" s="35"/>
+      <c r="C347" s="38"/>
       <c r="D347" s="9"/>
       <c r="E347" s="9"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="28"/>
-      <c r="B348" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C348" s="33"/>
+      <c r="A348" s="32"/>
+      <c r="B348" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C348" s="38"/>
       <c r="D348" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E348" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="32"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="38"/>
+      <c r="D349" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="E349" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="32"/>
+      <c r="B350" s="33"/>
+      <c r="C350" s="38"/>
+      <c r="D350" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="32"/>
+      <c r="B351" s="33"/>
+      <c r="C351" s="38"/>
+      <c r="D351" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="E351" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="32"/>
+      <c r="B352" s="33"/>
+      <c r="C352" s="38"/>
+      <c r="D352" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E352" s="13"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="32"/>
+      <c r="B353" s="33"/>
+      <c r="C353" s="38"/>
+      <c r="D353" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E353" s="13"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="32"/>
+      <c r="B354" s="33"/>
+      <c r="C354" s="38"/>
+      <c r="D354" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E354" s="13"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="32"/>
+      <c r="B355" s="33"/>
+      <c r="C355" s="38"/>
+      <c r="D355" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E355" s="13"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="32"/>
+      <c r="B356" s="33"/>
+      <c r="C356" s="38"/>
+      <c r="D356" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E356" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="E348" s="9" t="s">
+    </row>
+    <row r="357" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="32"/>
+      <c r="B357" s="33"/>
+      <c r="C357" s="38"/>
+      <c r="D357" s="15" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="28"/>
-      <c r="B349" s="27"/>
-      <c r="C349" s="33"/>
-      <c r="D349" s="9" t="s">
+      <c r="E357" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E349" s="9" t="s">
+    </row>
+    <row r="358" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="32"/>
+      <c r="B358" s="33"/>
+      <c r="C358" s="38"/>
+      <c r="D358" s="15" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="28"/>
-      <c r="B350" s="27"/>
-      <c r="C350" s="33"/>
-      <c r="D350" s="9" t="s">
+      <c r="E358" s="9"/>
+    </row>
+    <row r="359" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="32"/>
+      <c r="B359" s="33"/>
+      <c r="C359" s="38"/>
+      <c r="D359" s="15" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="28"/>
-      <c r="B351" s="27"/>
-      <c r="C351" s="33"/>
-      <c r="D351" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E351" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="28"/>
-      <c r="B352" s="27"/>
-      <c r="C352" s="33"/>
-      <c r="D352" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="E352" s="13"/>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="28"/>
-      <c r="B353" s="27"/>
-      <c r="C353" s="33"/>
-      <c r="D353" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="E353" s="13"/>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="28"/>
-      <c r="B354" s="27"/>
-      <c r="C354" s="33"/>
-      <c r="D354" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E354" s="13"/>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" s="28"/>
-      <c r="B355" s="27"/>
-      <c r="C355" s="33"/>
-      <c r="D355" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="E355" s="13"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="28"/>
-      <c r="B356" s="27"/>
-      <c r="C356" s="33"/>
-      <c r="D356" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="E356" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="28"/>
-      <c r="B357" s="27"/>
-      <c r="C357" s="33"/>
-      <c r="D357" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="E357" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="28"/>
-      <c r="B358" s="27"/>
-      <c r="C358" s="33"/>
-      <c r="D358" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="E358" s="9"/>
-    </row>
-    <row r="359" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="28"/>
-      <c r="B359" s="27"/>
-      <c r="C359" s="33"/>
-      <c r="D359" s="15" t="s">
-        <v>484</v>
-      </c>
       <c r="E359" s="9"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="28"/>
-      <c r="B360" s="27"/>
-      <c r="C360" s="33"/>
+      <c r="A360" s="32"/>
+      <c r="B360" s="33"/>
+      <c r="C360" s="38"/>
       <c r="D360" s="9"/>
       <c r="E360" s="9"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="28"/>
-      <c r="B361" s="27"/>
-      <c r="C361" s="33"/>
+      <c r="A361" s="32"/>
+      <c r="B361" s="33"/>
+      <c r="C361" s="38"/>
       <c r="D361" s="9" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="28"/>
-      <c r="B362" s="27"/>
-      <c r="C362" s="33"/>
+      <c r="A362" s="32"/>
+      <c r="B362" s="33"/>
+      <c r="C362" s="38"/>
       <c r="D362" s="9" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="E362" s="9" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="28"/>
-      <c r="B363" s="27"/>
-      <c r="C363" s="33"/>
+      <c r="A363" s="32"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="38"/>
       <c r="D363" s="9"/>
       <c r="E363" s="13"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="28"/>
-      <c r="B364" s="27"/>
-      <c r="C364" s="33"/>
+      <c r="A364" s="32"/>
+      <c r="B364" s="33"/>
+      <c r="C364" s="38"/>
       <c r="D364" s="9" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E364" s="13"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="28"/>
-      <c r="B365" s="27"/>
-      <c r="C365" s="33"/>
+      <c r="A365" s="32"/>
+      <c r="B365" s="33"/>
+      <c r="C365" s="38"/>
       <c r="D365" s="9" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="E365" s="9" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" s="28"/>
-      <c r="B366" s="27"/>
-      <c r="C366" s="33"/>
+      <c r="A366" s="32"/>
+      <c r="B366" s="33"/>
+      <c r="C366" s="38"/>
       <c r="D366" s="9" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="E366" s="9" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" s="28"/>
-      <c r="B367" s="27"/>
-      <c r="C367" s="33"/>
+      <c r="A367" s="32"/>
+      <c r="B367" s="33"/>
+      <c r="C367" s="38"/>
       <c r="D367" s="9" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="E367" s="13"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" s="28"/>
-      <c r="B368" s="27"/>
-      <c r="C368" s="33"/>
+      <c r="A368" s="32"/>
+      <c r="B368" s="33"/>
+      <c r="C368" s="38"/>
       <c r="D368" s="9"/>
       <c r="E368" s="9"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" s="28"/>
-      <c r="B369" s="27"/>
-      <c r="C369" s="33"/>
+      <c r="A369" s="32"/>
+      <c r="B369" s="33"/>
+      <c r="C369" s="38"/>
       <c r="D369" s="9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" s="28"/>
-      <c r="B370" s="27"/>
-      <c r="C370" s="33"/>
+      <c r="A370" s="32"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="38"/>
       <c r="D370" s="9" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="E370" s="13" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" s="28"/>
-      <c r="B371" s="27"/>
-      <c r="C371" s="33"/>
+      <c r="A371" s="32"/>
+      <c r="B371" s="33"/>
+      <c r="C371" s="38"/>
       <c r="D371" s="9" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" s="28"/>
-      <c r="B372" s="27"/>
-      <c r="C372" s="33"/>
+      <c r="A372" s="32"/>
+      <c r="B372" s="33"/>
+      <c r="C372" s="38"/>
       <c r="D372" s="9"/>
       <c r="E372" s="13"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A373" s="28"/>
-      <c r="B373" s="27"/>
-      <c r="C373" s="33"/>
+      <c r="A373" s="32"/>
+      <c r="B373" s="33"/>
+      <c r="C373" s="38"/>
       <c r="D373" s="9" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E373" s="13"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A374" s="28"/>
-      <c r="B374" s="27"/>
-      <c r="C374" s="33"/>
+      <c r="A374" s="32"/>
+      <c r="B374" s="33"/>
+      <c r="C374" s="38"/>
       <c r="D374" s="9" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E374" s="13"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A375" s="28"/>
-      <c r="B375" s="27"/>
-      <c r="C375" s="33"/>
+      <c r="A375" s="32"/>
+      <c r="B375" s="33"/>
+      <c r="C375" s="38"/>
       <c r="D375" s="9" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="E375" s="9" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A376" s="28"/>
-      <c r="B376" s="27"/>
-      <c r="C376" s="33"/>
+      <c r="A376" s="32"/>
+      <c r="B376" s="33"/>
+      <c r="C376" s="38"/>
       <c r="D376" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E376" s="13"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A377" s="28"/>
-      <c r="B377" s="27"/>
-      <c r="C377" s="34"/>
+      <c r="A377" s="32"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="39"/>
       <c r="D377" s="9" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="E377" s="13"/>
     </row>
@@ -6347,125 +6369,125 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="23" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" s="27" t="s">
-        <v>471</v>
+      <c r="A380" s="33" t="s">
+        <v>460</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C380" s="27" t="s">
-        <v>471</v>
+        <v>194</v>
+      </c>
+      <c r="C380" s="33" t="s">
+        <v>460</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" s="27"/>
+      <c r="A381" s="33"/>
       <c r="B381" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C381" s="27"/>
+        <v>196</v>
+      </c>
+      <c r="C381" s="33"/>
       <c r="D381" s="9" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="E381" s="9" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A382" s="27"/>
-      <c r="B382" s="35" t="s">
+      <c r="A382" s="33"/>
+      <c r="B382" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C382" s="27"/>
+      <c r="C382" s="33"/>
       <c r="D382" s="9" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" s="27"/>
-      <c r="B383" s="36"/>
-      <c r="C383" s="27"/>
+      <c r="A383" s="33"/>
+      <c r="B383" s="35"/>
+      <c r="C383" s="33"/>
       <c r="D383" s="9" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="E383" s="9" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" s="27"/>
+      <c r="A384" s="33"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
       <c r="D384" s="9"/>
       <c r="E384" s="9"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385" s="27"/>
-      <c r="B385" s="35" t="s">
+      <c r="A385" s="33"/>
+      <c r="B385" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C385" s="27" t="s">
-        <v>512</v>
+      <c r="C385" s="33" t="s">
+        <v>501</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="E385" s="9" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386" s="27"/>
-      <c r="B386" s="37"/>
-      <c r="C386" s="27"/>
+      <c r="A386" s="33"/>
+      <c r="B386" s="41"/>
+      <c r="C386" s="33"/>
       <c r="D386" s="9" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="E386" s="9" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387" s="27"/>
-      <c r="B387" s="36"/>
-      <c r="C387" s="27"/>
+      <c r="A387" s="33"/>
+      <c r="B387" s="35"/>
+      <c r="C387" s="33"/>
       <c r="D387" s="9" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388" s="27"/>
+      <c r="A388" s="33"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
       <c r="D388" s="9"/>
       <c r="E388" s="9"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A389" s="27"/>
+      <c r="A389" s="33"/>
       <c r="B389" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C389" s="8"/>
       <c r="D389" s="9" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -6474,46 +6496,46 @@
       <c r="E390" s="23"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" s="35" t="s">
-        <v>520</v>
+      <c r="A391" s="34" t="s">
+        <v>509</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" s="37"/>
+      <c r="A392" s="41"/>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
       <c r="D392" s="13"/>
       <c r="E392" s="13"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393" s="37"/>
-      <c r="B393" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="C393" s="32"/>
+      <c r="A393" s="41"/>
+      <c r="B393" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="C393" s="37"/>
       <c r="D393" s="9" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="E393" s="13"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394" s="36"/>
-      <c r="B394" s="36"/>
-      <c r="C394" s="34"/>
+      <c r="A394" s="35"/>
+      <c r="B394" s="35"/>
+      <c r="C394" s="39"/>
       <c r="D394" s="9" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="E394" s="13"/>
     </row>
@@ -6521,73 +6543,73 @@
       <c r="A395" s="16"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A396" s="27" t="s">
-        <v>525</v>
+      <c r="A396" s="33" t="s">
+        <v>514</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C396" s="27" t="s">
-        <v>525</v>
+        <v>105</v>
+      </c>
+      <c r="C396" s="33" t="s">
+        <v>514</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E396" s="13"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A397" s="27"/>
-      <c r="B397" s="27" t="s">
+      <c r="A397" s="33"/>
+      <c r="B397" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C397" s="27"/>
+      <c r="C397" s="33"/>
       <c r="D397" s="9" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E397" s="13"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A398" s="27"/>
-      <c r="B398" s="27"/>
-      <c r="C398" s="27"/>
+      <c r="A398" s="33"/>
+      <c r="B398" s="33"/>
+      <c r="C398" s="33"/>
       <c r="D398" s="9" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E398" s="13"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A399" s="27"/>
-      <c r="B399" s="27"/>
-      <c r="C399" s="27"/>
+      <c r="A399" s="33"/>
+      <c r="B399" s="33"/>
+      <c r="C399" s="33"/>
       <c r="D399" s="9" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E399" s="13"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400" s="27"/>
-      <c r="B400" s="27"/>
-      <c r="C400" s="27"/>
+      <c r="A400" s="33"/>
+      <c r="B400" s="33"/>
+      <c r="C400" s="33"/>
       <c r="D400" s="9" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E400" s="13"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A401" s="27"/>
-      <c r="B401" s="27"/>
-      <c r="C401" s="27"/>
+      <c r="A401" s="33"/>
+      <c r="B401" s="33"/>
+      <c r="C401" s="33"/>
       <c r="D401" s="9" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E401" s="13"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A402" s="27"/>
+      <c r="A402" s="33"/>
       <c r="B402" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C402" s="27"/>
+        <v>63</v>
+      </c>
+      <c r="C402" s="33"/>
       <c r="D402" s="13"/>
       <c r="E402" s="13"/>
     </row>
@@ -6595,108 +6617,108 @@
       <c r="A403" s="11"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A404" s="27" t="s">
+      <c r="A404" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="B404" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C404" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E404" s="13"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="33"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="33"/>
+      <c r="D405" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E405" s="13"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="33"/>
+      <c r="B406" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C406" s="33"/>
+      <c r="D406" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E406" s="13"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="33"/>
+      <c r="B407" s="33"/>
+      <c r="C407" s="33"/>
+      <c r="D407" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E407" s="13"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="33"/>
+      <c r="B408" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C408" s="33"/>
+      <c r="D408" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E408" s="13"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="33"/>
+      <c r="B409" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E409" s="13"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="33"/>
+      <c r="B410" s="33"/>
+      <c r="C410" s="33"/>
+      <c r="D410" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="E410" s="13"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="33"/>
+      <c r="B411" s="33"/>
+      <c r="C411" s="33"/>
+      <c r="D411" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E411" s="13"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="33"/>
+      <c r="B412" s="33"/>
+      <c r="C412" s="33"/>
+      <c r="D412" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E412" s="13"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="33"/>
+      <c r="B413" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C413" s="33"/>
+      <c r="D413" s="9" t="s">
         <v>531</v>
-      </c>
-      <c r="B404" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C404" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="D404" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="E404" s="13"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405" s="27"/>
-      <c r="B405" s="27"/>
-      <c r="C405" s="27"/>
-      <c r="D405" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="E405" s="13"/>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406" s="27"/>
-      <c r="B406" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C406" s="27"/>
-      <c r="D406" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="E406" s="13"/>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A407" s="27"/>
-      <c r="B407" s="27"/>
-      <c r="C407" s="27"/>
-      <c r="D407" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="E407" s="13"/>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A408" s="27"/>
-      <c r="B408" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C408" s="27"/>
-      <c r="D408" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="E408" s="13"/>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A409" s="27"/>
-      <c r="B409" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C409" s="27" t="s">
-        <v>531</v>
-      </c>
-      <c r="D409" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="E409" s="13"/>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A410" s="27"/>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
-      <c r="D410" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="E410" s="13"/>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A411" s="27"/>
-      <c r="B411" s="27"/>
-      <c r="C411" s="27"/>
-      <c r="D411" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="E411" s="13"/>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412" s="27"/>
-      <c r="B412" s="27"/>
-      <c r="C412" s="27"/>
-      <c r="D412" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="E412" s="13"/>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413" s="27"/>
-      <c r="B413" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C413" s="27"/>
-      <c r="D413" s="9" t="s">
-        <v>542</v>
       </c>
       <c r="E413" s="13"/>
     </row>
@@ -6704,80 +6726,80 @@
       <c r="A414" s="11"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="B415" s="27" t="s">
+      <c r="A415" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="B415" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C415" s="28" t="s">
-        <v>543</v>
+      <c r="C415" s="32" t="s">
+        <v>532</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="E415" s="13"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" s="27"/>
-      <c r="B416" s="27"/>
-      <c r="C416" s="28"/>
+      <c r="A416" s="33"/>
+      <c r="B416" s="33"/>
+      <c r="C416" s="32"/>
       <c r="D416" s="9" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="E416" s="13"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A417" s="27"/>
-      <c r="B417" s="27"/>
-      <c r="C417" s="28"/>
+      <c r="A417" s="33"/>
+      <c r="B417" s="33"/>
+      <c r="C417" s="32"/>
       <c r="D417" s="9" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="E417" s="13"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A418" s="27"/>
-      <c r="B418" s="27"/>
-      <c r="C418" s="28"/>
+      <c r="A418" s="33"/>
+      <c r="B418" s="33"/>
+      <c r="C418" s="32"/>
       <c r="D418" s="9" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E418" s="13"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A419" s="27"/>
-      <c r="B419" s="27"/>
-      <c r="C419" s="28"/>
+      <c r="A419" s="33"/>
+      <c r="B419" s="33"/>
+      <c r="C419" s="32"/>
       <c r="D419" s="9" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E419" s="13"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A420" s="27"/>
-      <c r="B420" s="27"/>
-      <c r="C420" s="28"/>
+      <c r="A420" s="33"/>
+      <c r="B420" s="33"/>
+      <c r="C420" s="32"/>
       <c r="D420" s="9" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="E420" s="13"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A421" s="27"/>
-      <c r="B421" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C421" s="28"/>
+      <c r="A421" s="33"/>
+      <c r="B421" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C421" s="32"/>
       <c r="D421" s="13"/>
       <c r="E421" s="13"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A422" s="27"/>
-      <c r="B422" s="27"/>
-      <c r="C422" s="28"/>
+      <c r="A422" s="33"/>
+      <c r="B422" s="33"/>
+      <c r="C422" s="32"/>
       <c r="D422" s="9" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E422" s="13"/>
     </row>
@@ -6785,61 +6807,61 @@
       <c r="A423" s="11"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A424" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="B424" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="C424" s="27"/>
+      <c r="A424" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="B424" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="C424" s="33"/>
       <c r="D424" s="9" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E424" s="13"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" s="27"/>
-      <c r="B425" s="27"/>
-      <c r="C425" s="27"/>
+      <c r="A425" s="33"/>
+      <c r="B425" s="33"/>
+      <c r="C425" s="33"/>
       <c r="D425" s="9" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="E425" s="13"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A426" s="27"/>
+      <c r="A426" s="33"/>
       <c r="B426" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D426" s="9" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E426" s="13"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A427" s="27"/>
+      <c r="A427" s="33"/>
       <c r="B427" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C427" s="8"/>
       <c r="D427" s="9" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E427" s="13"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A428" s="27"/>
+      <c r="A428" s="33"/>
       <c r="B428" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E428" s="13"/>
     </row>
@@ -6847,8 +6869,8 @@
       <c r="A429" s="11"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A430" s="35" t="s">
-        <v>554</v>
+      <c r="A430" s="34" t="s">
+        <v>543</v>
       </c>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -6856,29 +6878,29 @@
       <c r="E430" s="13"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A431" s="37"/>
-      <c r="B431" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="C431" s="29"/>
-      <c r="D431" s="29"/>
-      <c r="E431" s="29"/>
+      <c r="A431" s="41"/>
+      <c r="B431" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="C431" s="43"/>
+      <c r="D431" s="43"/>
+      <c r="E431" s="43"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A432" s="36"/>
-      <c r="B432" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="C432" s="30"/>
-      <c r="D432" s="30"/>
-      <c r="E432" s="30"/>
+      <c r="A432" s="35"/>
+      <c r="B432" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="C432" s="44"/>
+      <c r="D432" s="44"/>
+      <c r="E432" s="44"/>
     </row>
     <row r="433" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="16"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A434" s="35" t="s">
-        <v>557</v>
+      <c r="A434" s="34" t="s">
+        <v>546</v>
       </c>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
@@ -6886,87 +6908,87 @@
       <c r="E434" s="13"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A435" s="37"/>
-      <c r="B435" s="35" t="s">
+      <c r="A435" s="41"/>
+      <c r="B435" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C435" s="35" t="s">
-        <v>558</v>
+      <c r="C435" s="34" t="s">
+        <v>547</v>
       </c>
       <c r="D435" s="9" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="E435" s="9" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A436" s="37"/>
-      <c r="B436" s="37"/>
-      <c r="C436" s="37"/>
+      <c r="A436" s="41"/>
+      <c r="B436" s="41"/>
+      <c r="C436" s="41"/>
       <c r="D436" s="9" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E436" s="9" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A437" s="37"/>
-      <c r="B437" s="37"/>
-      <c r="C437" s="37"/>
+      <c r="A437" s="41"/>
+      <c r="B437" s="41"/>
+      <c r="C437" s="41"/>
       <c r="D437" s="9" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="E437" s="15" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A438" s="37"/>
-      <c r="B438" s="37"/>
-      <c r="C438" s="37"/>
+      <c r="A438" s="41"/>
+      <c r="B438" s="41"/>
+      <c r="C438" s="41"/>
       <c r="D438" s="9" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E438" s="9" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A439" s="36"/>
-      <c r="B439" s="36"/>
-      <c r="C439" s="36"/>
+      <c r="A439" s="35"/>
+      <c r="B439" s="35"/>
+      <c r="C439" s="35"/>
       <c r="D439" s="9" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="E439" s="9" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="440" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="8" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C441" s="12" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D441" s="13"/>
       <c r="E441" s="13"/>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D442" s="12"/>
       <c r="E442" s="12"/>
@@ -6983,6 +7005,8 @@
     <mergeCell ref="C415:C422"/>
     <mergeCell ref="C424:C425"/>
     <mergeCell ref="C435:C439"/>
+    <mergeCell ref="B431:E431"/>
+    <mergeCell ref="B432:E432"/>
     <mergeCell ref="B421:B422"/>
     <mergeCell ref="B424:B425"/>
     <mergeCell ref="B435:B439"/>
@@ -7025,6 +7049,10 @@
     <mergeCell ref="B285:B288"/>
     <mergeCell ref="B292:B345"/>
     <mergeCell ref="B346:B347"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B238:C238"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B152"/>
     <mergeCell ref="B153:B155"/>
@@ -7067,12 +7095,6 @@
     <mergeCell ref="A404:A413"/>
     <mergeCell ref="A415:A422"/>
     <mergeCell ref="A424:A428"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B431:E431"/>
-    <mergeCell ref="B432:E432"/>
     <mergeCell ref="A3:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A36:A50"/>

--- a/命令树-G.xlsx
+++ b/命令树-G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\2025S_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE11662-727E-491F-AD38-A04E84258670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB754FA9-B9F7-4784-B35E-572BCDF1FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="586">
   <si>
     <t>描述</t>
   </si>
@@ -75,9 +75,6 @@
     <t>管理口的ip地址配置，以及重定向接口工作在L2模式时，需配置ip地址，对接用</t>
   </si>
   <si>
-    <t>&lt;intf name&gt; olp &lt;intf name&gt;</t>
-  </si>
-  <si>
     <t>设置接口与光保护板接口的对应关系，链路接口需配置</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>设置端口流控开关</t>
   </si>
   <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] mtu &lt;1500~9000&gt;</t>
-  </si>
-  <si>
     <t>端口mtu大小设置</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>端口模式自协商开关</t>
   </si>
   <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] ipg &lt;8~40&gt;</t>
-  </si>
-  <si>
     <t>frm gap取值范围8~40字节，缺省12字节</t>
   </si>
   <si>
@@ -123,18 +114,9 @@
     <t>rx only 模式时，把光模块的发送关闭</t>
   </si>
   <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] optical-module power-typical &lt;value&gt;</t>
-  </si>
-  <si>
     <t>设置光模块接收光功率典型值</t>
   </si>
   <si>
-    <t>设置接口的LLDP 收发使能，优先级比全局高</t>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] mac &lt;mac addr&gt;</t>
-  </si>
-  <si>
     <t>配置管理口及三层重定向接口的mac地址</t>
   </si>
   <si>
@@ -196,9 +178,6 @@
   </si>
   <si>
     <t>link-group</t>
-  </si>
-  <si>
-    <t>i2c-port-intf &lt;intfA&gt; c2i-port-intf &lt;intfB&gt;</t>
   </si>
   <si>
     <t>创建链路组，链路组端口在同一槽位上 且 方向相反。默认C2I=0、I2C=1</t>
@@ -904,9 +883,6 @@
     <t>设置规则老化时间，单位s，范围：1~31536000，默认1800</t>
   </si>
   <si>
-    <t>&lt;id&gt; flex-template &lt;P | DP ..| DIP_PREFIX&gt; type &lt;v4 | v6 | both&gt; &lt;disable | enable&gt;</t>
-  </si>
-  <si>
     <t>设置规则模板是否生效</t>
   </si>
   <si>
@@ -1390,59 +1366,7 @@
     <t>statistics-drop</t>
   </si>
   <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] direction &lt;C2I|I2C&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] speed &lt;100G|40G|25G|10G|1G&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] duplex &lt;full|half&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] storm-ctrl {broadcast|unicast|multicast} &lt;speed value&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] flow-ctrl &lt;enable|disable&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>端口广播抑制速率设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] speed auto-negotiation &lt;enable|disable&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] mode auto-negotiation &lt;enable|disable&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] loopback &lt;local|remote&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] fec mode &lt;auto|none|rs-fec&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] shutdown &lt;enable|disable&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] fiber-mode &lt;tx-only|rx-only|both&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] lldp [tx &lt;enable|disable&gt;] [rx &lt;enable|disable&gt;]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;intf name&gt; [, &lt;intf name&gt;] [~ &lt;intf name&gt;] mac learning &lt;om|off&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1677,10 +1601,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>service &lt;id&gt; tcpflag &lt;tcpflag&gt; &lt;l2Len&gt; &lt;enable | disable&gt; &lt;dynamic | static&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>service &lt;id&gt; v4flex &lt;sip&gt; &lt;dip&gt; &lt;prot&gt; &lt;sp&gt; &lt;dp&gt; &lt;enable | disable&gt; &lt;dynamic | static&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1797,10 +1717,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;id&gt; server-group &lt;id&gt; ip {&lt;ip-addr&gt;,&lt;ip-addr&gt;,...} mode &lt;auto | manual_up | manual_down&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;id&gt; trusted-switch &lt;disable | enable&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1910,6 +1826,114 @@
   </si>
   <si>
     <t>## 组信息 不动 只修改 动作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>service &lt;id&gt; tcpflag &lt;tcpflag&gt; [&lt;l2Len&gt;] &lt;enable | disable&gt; &lt;dynamic | static&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id&gt; flex-template &lt;P | DP | DIP_PREFIX&gt; type &lt;v4 | v6 | both&gt; &lt;disable | enable&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id&gt; server-group &lt;id&gt; ip &lt;ip-addr-list&gt;... mode &lt;auto | manual_up | manual_down&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt; olp &lt;intf name&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置接口的LLDP 收发使能，优先级比全局高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>new: 设置指定接口的收发使能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id&gt; i2c-port-intf &lt;intfA&gt; c2i-port-intf &lt;intfB&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... direction &lt;C2I|I2C&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... speed &lt;100G|40G|25G|10G|1G&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... duplex &lt;full|half&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... flow-ctrl &lt;enable|disable&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... storm-ctrl {broadcast|unicast|multicast} &lt;speed value&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... mtu &lt;1500~9000&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... speed auto-negotiation &lt;enable|disable&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... mode auto-negotiation &lt;enable|disable&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... ipg &lt;8~40&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... loopback &lt;local|remote&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;...fec mode &lt;auto|none|rs-fec&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... shutdown &lt;enable|disable&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... fiber-mode &lt;tx-only|rx-only|both&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... optical-module power-typical &lt;value&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... lldp [tx &lt;enable|disable&gt;] [rx &lt;enable|disable&gt;]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... mac &lt;mac addr&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... mac learning &lt;om|off&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;intf name&gt;... rx &lt;enable|disable&gt; tx &lt;enable|disable&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2073,7 +2097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2226,6 +2250,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2714,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F442"/>
+  <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -2752,10 +2797,10 @@
       <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="55" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2767,8 +2812,8 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2778,8 +2823,8 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2789,385 +2834,387 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="26" t="s">
-        <v>452</v>
+        <v>568</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="26" t="s">
-        <v>453</v>
+        <v>569</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="26" t="s">
-        <v>454</v>
+        <v>570</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="26" t="s">
-        <v>456</v>
+        <v>571</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="27" t="s">
-        <v>455</v>
+        <v>572</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
+      <c r="B12" s="56"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="26" t="s">
-        <v>458</v>
+        <v>574</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="26" t="s">
-        <v>459</v>
+        <v>575</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="6" t="s">
-        <v>24</v>
+      <c r="B15" s="56"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="26" t="s">
+        <v>576</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="26" t="s">
-        <v>460</v>
+        <v>577</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="26" t="s">
-        <v>461</v>
+        <v>578</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="26" t="s">
-        <v>462</v>
+        <v>579</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="26" t="s">
-        <v>463</v>
+        <v>580</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="6" t="s">
-        <v>30</v>
+      <c r="B20" s="56"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="26" t="s">
+        <v>581</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>32</v>
+        <v>582</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="6" t="s">
-        <v>33</v>
+      <c r="B22" s="56"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="26" t="s">
+        <v>583</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="26" t="s">
-        <v>465</v>
+        <v>584</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="26" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="26" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="26" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="26" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="6" t="s">
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="B37" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="C37" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="40" t="s">
+      <c r="D37" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
-      <c r="B37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
       <c r="B38" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C38" s="39"/>
-      <c r="D38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="12"/>
+      <c r="D38" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
-      <c r="B39" s="37" t="s">
-        <v>6</v>
+      <c r="B39" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C39" s="39"/>
-      <c r="D39" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="D39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
+      <c r="B40" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="C40" s="39"/>
-      <c r="D40" s="8" t="s">
-        <v>62</v>
+      <c r="D40" s="28" t="s">
+        <v>447</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3175,10 +3222,10 @@
       <c r="B41" s="45"/>
       <c r="C41" s="39"/>
       <c r="D41" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3186,10 +3233,10 @@
       <c r="B42" s="45"/>
       <c r="C42" s="39"/>
       <c r="D42" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3197,10 +3244,10 @@
       <c r="B43" s="45"/>
       <c r="C43" s="39"/>
       <c r="D43" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3208,27 +3255,29 @@
       <c r="B44" s="45"/>
       <c r="C44" s="39"/>
       <c r="D44" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="E45" s="12"/>
+      <c r="D45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
       <c r="B46" s="45"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="8" t="s">
-        <v>72</v>
+      <c r="D46" s="28" t="s">
+        <v>526</v>
       </c>
       <c r="E46" s="12"/>
     </row>
@@ -3236,8 +3285,8 @@
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
       <c r="C47" s="39"/>
-      <c r="D47" s="28" t="s">
-        <v>549</v>
+      <c r="D47" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E47" s="12"/>
     </row>
@@ -3245,55 +3294,55 @@
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="39"/>
-      <c r="D48" s="8" t="s">
-        <v>73</v>
+      <c r="D48" s="28" t="s">
+        <v>527</v>
       </c>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
-      <c r="B49" s="37" t="s">
-        <v>50</v>
-      </c>
+      <c r="B49" s="45"/>
       <c r="C49" s="39"/>
       <c r="D49" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="C50" s="39"/>
-      <c r="D50" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="36" t="s">
+      <c r="D50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
+      <c r="C53" s="36" t="s">
+        <v>71</v>
+      </c>
       <c r="D53" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E53" s="12"/>
     </row>
@@ -3302,7 +3351,7 @@
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E54" s="12"/>
     </row>
@@ -3310,8 +3359,8 @@
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="29" t="s">
-        <v>546</v>
+      <c r="D55" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="E55" s="12"/>
     </row>
@@ -3319,217 +3368,215 @@
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
-      <c r="D56" s="14" t="s">
-        <v>82</v>
+      <c r="D56" s="29" t="s">
+        <v>524</v>
       </c>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A57" s="36"/>
-      <c r="B57" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="12"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="36"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="8" t="s">
-        <v>83</v>
+      <c r="B58" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="36"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
+      <c r="A61" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="B61" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="D61" s="12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="12" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C62" s="39"/>
       <c r="D62" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="12" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C63" s="39"/>
-      <c r="D63" s="30" t="s">
-        <v>547</v>
+      <c r="D63" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="12" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C64" s="39"/>
-      <c r="D64" s="12" t="s">
-        <v>74</v>
+      <c r="D64" s="30" t="s">
+        <v>525</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="39"/>
+      <c r="B65" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="39"/>
+      <c r="D65" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="39"/>
+      <c r="A67" s="39" t="s">
+        <v>88</v>
+      </c>
       <c r="B67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="D67" s="12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
-      <c r="B68" s="37" t="s">
-        <v>90</v>
+      <c r="B68" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
-      <c r="B69" s="38"/>
+      <c r="B69" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="C69" s="39"/>
       <c r="D69" s="12" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
-      <c r="B70" s="13"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="39"/>
-      <c r="D70" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>102</v>
+      <c r="D70" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
-      <c r="B71" s="37" t="s">
-        <v>6</v>
-      </c>
+      <c r="B71" s="13"/>
       <c r="C71" s="39"/>
-      <c r="D71" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>104</v>
+      <c r="D71" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
-      <c r="B72" s="38"/>
+      <c r="B72" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="C72" s="39"/>
-      <c r="D72" s="8" t="s">
-        <v>105</v>
+      <c r="D72" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B74" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="39"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
+      <c r="C75" s="36" t="s">
+        <v>89</v>
+      </c>
       <c r="D75" s="12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3537,10 +3584,10 @@
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
       <c r="D76" s="12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3548,229 +3595,231 @@
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E77" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="39"/>
-      <c r="B78" s="12"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="39"/>
-      <c r="D78" s="12"/>
+      <c r="D78" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="39"/>
-      <c r="B79" s="39" t="s">
-        <v>50</v>
-      </c>
+      <c r="B79" s="12"/>
       <c r="C79" s="39"/>
-      <c r="D79" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="D79" s="12"/>
       <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
+      <c r="B80" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="C80" s="39"/>
       <c r="D80" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E82" s="12"/>
-    </row>
+        <v>67</v>
+      </c>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="39"/>
+      <c r="A83" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="D83" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="39"/>
-      <c r="B84" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="B84" s="38"/>
       <c r="C84" s="39"/>
-      <c r="D84" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E84" s="12"/>
+      <c r="D84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
-      <c r="B85" s="39" t="s">
-        <v>90</v>
+      <c r="B85" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C85" s="39"/>
-      <c r="D85" s="8" t="s">
-        <v>118</v>
+      <c r="D85" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
+      <c r="B86" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="C86" s="39"/>
       <c r="D86" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="39"/>
-      <c r="B87" s="39" t="s">
-        <v>6</v>
-      </c>
+      <c r="B87" s="39"/>
       <c r="C87" s="39"/>
-      <c r="D87" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87" s="12"/>
+      <c r="D87" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
+      <c r="B88" s="39" t="s">
+        <v>6</v>
+      </c>
       <c r="C88" s="39"/>
       <c r="D88" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>124</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
-      <c r="B89" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="B89" s="39"/>
       <c r="C89" s="39"/>
       <c r="D89" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E89" s="12"/>
-    </row>
-    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="E91" s="12"/>
-    </row>
+        <v>116</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="39"/>
+      <c r="B90" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="39"/>
+      <c r="D90" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="39"/>
+      <c r="A92" s="39" t="s">
+        <v>118</v>
+      </c>
       <c r="B92" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="12" t="s">
-        <v>74</v>
+        <v>47</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>544</v>
       </c>
       <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="39"/>
       <c r="B93" s="11" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C93" s="39"/>
-      <c r="D93" s="30" t="s">
-        <v>567</v>
+      <c r="D93" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="39"/>
+      <c r="B94" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="39"/>
+      <c r="D94" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="39"/>
+      <c r="A96" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="B96" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="D96" s="12" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="39"/>
-      <c r="B97" s="36" t="s">
-        <v>59</v>
+      <c r="B97" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C97" s="39"/>
-      <c r="D97" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>134</v>
+      <c r="D97" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="39"/>
-      <c r="B98" s="36"/>
+      <c r="B98" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="C98" s="39"/>
       <c r="D98" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="39"/>
       <c r="B99" s="36"/>
       <c r="C99" s="39"/>
       <c r="D99" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E99" s="8"/>
     </row>
@@ -3778,31 +3827,29 @@
       <c r="A100" s="39"/>
       <c r="B100" s="36"/>
       <c r="C100" s="39"/>
-      <c r="D100" s="8"/>
+      <c r="D100" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="39"/>
-      <c r="B101" s="36" t="s">
-        <v>6</v>
-      </c>
+      <c r="B101" s="36"/>
       <c r="C101" s="39"/>
-      <c r="D101" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="39"/>
-      <c r="B102" s="36"/>
+      <c r="B102" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="C102" s="39"/>
-      <c r="D102" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>140</v>
+      <c r="D102" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3810,39 +3857,39 @@
       <c r="B103" s="36"/>
       <c r="C103" s="39"/>
       <c r="D103" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" s="12"/>
+        <v>132</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="39"/>
       <c r="B104" s="36"/>
       <c r="C104" s="39"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="39"/>
-      <c r="B105" s="39" t="s">
-        <v>50</v>
-      </c>
+      <c r="B105" s="36"/>
       <c r="C105" s="39"/>
-      <c r="D105" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>142</v>
-      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
+      <c r="B106" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="C106" s="39"/>
-      <c r="D106" s="12" t="s">
-        <v>74</v>
+      <c r="D106" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3850,10 +3897,10 @@
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
       <c r="D107" s="12" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3861,54 +3908,54 @@
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
       <c r="D108" s="12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="39"/>
-      <c r="B109" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>149</v>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B111" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="39"/>
+      <c r="B110" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="36"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
+      <c r="A112" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>145</v>
+      </c>
       <c r="D112" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3916,68 +3963,68 @@
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
       <c r="D113" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="36"/>
-      <c r="B114" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D114" s="8"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E114" s="8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="36"/>
-      <c r="B115" s="36"/>
+      <c r="B115" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="C115" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="15"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B117" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C117" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="15"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="36"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
+      <c r="A118" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>157</v>
+      </c>
       <c r="D118" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3985,10 +4032,10 @@
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
       <c r="D119" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3996,85 +4043,87 @@
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
       <c r="D120" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="36"/>
-      <c r="B121" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D121" s="8"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="E121" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="15"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C123" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E123" s="12"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="36"/>
+      <c r="B122" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="15"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="36"/>
+      <c r="A124" s="36" t="s">
+        <v>168</v>
+      </c>
       <c r="B124" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C124" s="36"/>
+        <v>169</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>168</v>
+      </c>
       <c r="D124" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E124" s="12"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="36"/>
       <c r="B125" s="7" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="C125" s="36"/>
       <c r="D125" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E125" s="12"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="36"/>
-      <c r="B126" s="36" t="s">
-        <v>50</v>
+      <c r="B126" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C126" s="36"/>
       <c r="D126" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E126" s="12"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="36"/>
-      <c r="B127" s="36"/>
+      <c r="B127" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="C127" s="36"/>
       <c r="D127" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E127" s="12"/>
     </row>
@@ -4083,151 +4132,151 @@
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
       <c r="D128" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="36"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="42"/>
+      <c r="B132" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" s="12"/>
+    </row>
+    <row r="133" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="15"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="E128" s="12"/>
-    </row>
-    <row r="129" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E130" s="12"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="42"/>
-      <c r="B131" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E131" s="12"/>
-    </row>
-    <row r="132" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="15"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B133" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E133" s="12"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="36"/>
-      <c r="B134" s="36"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="E134" s="12"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="36"/>
-      <c r="B135" s="36" t="s">
-        <v>178</v>
-      </c>
+      <c r="B135" s="36"/>
       <c r="C135" s="36"/>
-      <c r="D135" s="12" t="s">
-        <v>192</v>
+      <c r="D135" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="E135" s="12"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="36"/>
-      <c r="B136" s="36"/>
+      <c r="B136" s="36" t="s">
+        <v>171</v>
+      </c>
       <c r="C136" s="36"/>
-      <c r="D136" s="8" t="s">
-        <v>193</v>
+      <c r="D136" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="E136" s="12"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="36"/>
-      <c r="B137" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="B137" s="36"/>
       <c r="C137" s="36"/>
       <c r="D137" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E137" s="12"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="36"/>
-      <c r="B138" s="36" t="s">
-        <v>6</v>
+      <c r="B138" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C138" s="36"/>
-      <c r="D138" s="12" t="s">
-        <v>194</v>
+      <c r="D138" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="E138" s="12"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="36"/>
-      <c r="B139" s="36"/>
+      <c r="B139" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="C139" s="36"/>
-      <c r="D139" s="8" t="s">
-        <v>195</v>
+      <c r="D139" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="36"/>
-      <c r="B140" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="B140" s="36"/>
       <c r="C140" s="36"/>
-      <c r="D140" s="12"/>
+      <c r="D140" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="E140" s="12"/>
     </row>
-    <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B142" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C142" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E142" s="12"/>
-    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="36"/>
+      <c r="B141" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" s="36"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="36"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
+      <c r="A143" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>189</v>
+      </c>
       <c r="D143" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E143" s="12"/>
     </row>
@@ -4236,27 +4285,27 @@
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
       <c r="D144" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E144" s="12"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="36"/>
-      <c r="B145" s="36" t="s">
-        <v>178</v>
-      </c>
+      <c r="B145" s="36"/>
       <c r="C145" s="36"/>
       <c r="D145" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E145" s="12"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="36"/>
-      <c r="B146" s="36"/>
+      <c r="B146" s="36" t="s">
+        <v>171</v>
+      </c>
       <c r="C146" s="36"/>
       <c r="D146" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E146" s="12"/>
     </row>
@@ -4265,36 +4314,36 @@
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
       <c r="D147" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E147" s="12"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="36"/>
-      <c r="B148" s="36" t="s">
-        <v>6</v>
-      </c>
+      <c r="B148" s="36"/>
       <c r="C148" s="36"/>
       <c r="D148" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E148" s="12"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="36"/>
-      <c r="B149" s="36"/>
+      <c r="B149" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="C149" s="36"/>
       <c r="D149" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E149" s="12"/>
     </row>
-    <row r="150" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
-      <c r="D150" s="14" t="s">
-        <v>204</v>
+      <c r="D150" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="E150" s="12"/>
     </row>
@@ -4302,37 +4351,37 @@
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
-      <c r="D151" s="29" t="s">
-        <v>521</v>
+      <c r="D151" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="E151" s="12"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
-      <c r="D152" s="28" t="s">
-        <v>470</v>
+      <c r="D152" s="29" t="s">
+        <v>500</v>
       </c>
       <c r="E152" s="12"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="36"/>
-      <c r="B153" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="B153" s="36"/>
       <c r="C153" s="36"/>
-      <c r="D153" s="8" t="s">
-        <v>205</v>
+      <c r="D153" s="28" t="s">
+        <v>449</v>
       </c>
       <c r="E153" s="12"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="36"/>
-      <c r="B154" s="36"/>
+      <c r="B154" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="C154" s="36"/>
       <c r="D154" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E154" s="12"/>
     </row>
@@ -4341,32 +4390,32 @@
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
       <c r="D155" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E155" s="12"/>
     </row>
-    <row r="156" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A157" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B157" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C157" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D157" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="E157" s="12"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="36"/>
-      <c r="B158" s="36"/>
-      <c r="C158" s="36"/>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="36"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A158" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>202</v>
+      </c>
       <c r="D158" s="29" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="E158" s="12"/>
     </row>
@@ -4374,8 +4423,8 @@
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
-      <c r="D159" s="28" t="s">
-        <v>473</v>
+      <c r="D159" s="29" t="s">
+        <v>451</v>
       </c>
       <c r="E159" s="12"/>
     </row>
@@ -4384,7 +4433,7 @@
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
       <c r="D160" s="28" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="E160" s="12"/>
     </row>
@@ -4393,7 +4442,7 @@
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
       <c r="D161" s="28" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="E161" s="12"/>
     </row>
@@ -4402,7 +4451,7 @@
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
       <c r="D162" s="28" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="E162" s="12"/>
     </row>
@@ -4411,7 +4460,7 @@
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
       <c r="D163" s="28" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="E163" s="12"/>
     </row>
@@ -4420,7 +4469,7 @@
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
       <c r="D164" s="28" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="E164" s="12"/>
     </row>
@@ -4429,7 +4478,7 @@
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
       <c r="D165" s="28" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="E165" s="12"/>
     </row>
@@ -4438,7 +4487,7 @@
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
       <c r="D166" s="28" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="E166" s="12"/>
     </row>
@@ -4447,7 +4496,7 @@
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
       <c r="D167" s="28" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="E167" s="12"/>
     </row>
@@ -4456,7 +4505,7 @@
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
       <c r="D168" s="28" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="E168" s="12"/>
     </row>
@@ -4465,7 +4514,7 @@
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
       <c r="D169" s="28" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
       <c r="E169" s="12"/>
     </row>
@@ -4474,7 +4523,7 @@
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
       <c r="D170" s="28" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="E170" s="12"/>
     </row>
@@ -4483,7 +4532,7 @@
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
       <c r="D171" s="28" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="E171" s="12"/>
     </row>
@@ -4492,7 +4541,7 @@
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
       <c r="D172" s="28" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="E172" s="12"/>
     </row>
@@ -4501,7 +4550,7 @@
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
       <c r="D173" s="28" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="E173" s="12"/>
     </row>
@@ -4510,7 +4559,7 @@
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
       <c r="D174" s="28" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="E174" s="12"/>
     </row>
@@ -4519,7 +4568,7 @@
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
       <c r="D175" s="28" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="E175" s="12"/>
     </row>
@@ -4528,7 +4577,7 @@
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
       <c r="D176" s="28" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="E176" s="12"/>
     </row>
@@ -4537,7 +4586,7 @@
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
       <c r="D177" s="28" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="E177" s="12"/>
     </row>
@@ -4546,7 +4595,7 @@
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
       <c r="D178" s="28" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="E178" s="12"/>
     </row>
@@ -4555,27 +4604,27 @@
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
       <c r="D179" s="28" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="E179" s="12"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="36"/>
-      <c r="B180" s="36" t="s">
-        <v>178</v>
-      </c>
+      <c r="B180" s="36"/>
       <c r="C180" s="36"/>
-      <c r="D180" s="8" t="s">
-        <v>210</v>
+      <c r="D180" s="28" t="s">
+        <v>510</v>
       </c>
       <c r="E180" s="12"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="36"/>
-      <c r="B181" s="36"/>
+      <c r="B181" s="36" t="s">
+        <v>171</v>
+      </c>
       <c r="C181" s="36"/>
       <c r="D181" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E181" s="12"/>
     </row>
@@ -4584,45 +4633,45 @@
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
       <c r="D182" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E182" s="12"/>
     </row>
-    <row r="183" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
-      <c r="D183" s="14" t="s">
-        <v>213</v>
+      <c r="D183" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="E183" s="12"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
-      <c r="D184" s="8" t="s">
-        <v>214</v>
+      <c r="D184" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="E184" s="12"/>
     </row>
-    <row r="185" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="36"/>
-      <c r="B185" s="36" t="s">
+      <c r="B185" s="36"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A186" s="36"/>
+      <c r="B186" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="36"/>
-      <c r="D185" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E185" s="12"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36"/>
       <c r="C186" s="36"/>
-      <c r="D186" s="28" t="s">
-        <v>533</v>
+      <c r="D186" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="E186" s="12"/>
     </row>
@@ -4631,7 +4680,7 @@
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
       <c r="D187" s="28" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="E187" s="12"/>
     </row>
@@ -4640,7 +4689,7 @@
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
       <c r="D188" s="28" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="E188" s="12"/>
     </row>
@@ -4649,7 +4698,7 @@
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
       <c r="D189" s="28" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="E189" s="12"/>
     </row>
@@ -4658,7 +4707,7 @@
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
       <c r="D190" s="28" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="E190" s="12"/>
     </row>
@@ -4667,7 +4716,7 @@
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
       <c r="D191" s="28" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="E191" s="12"/>
     </row>
@@ -4676,7 +4725,7 @@
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
       <c r="D192" s="28" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="E192" s="12"/>
     </row>
@@ -4685,7 +4734,7 @@
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
       <c r="D193" s="28" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="E193" s="12"/>
     </row>
@@ -4693,28 +4742,28 @@
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
-      <c r="D194" s="8" t="s">
-        <v>216</v>
+      <c r="D194" s="28" t="s">
+        <v>518</v>
       </c>
       <c r="E194" s="12"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="36"/>
-      <c r="B195" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="B195" s="36"/>
       <c r="C195" s="36"/>
-      <c r="D195" s="12" t="s">
-        <v>217</v>
+      <c r="D195" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="E195" s="12"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="36"/>
-      <c r="B196" s="36"/>
+      <c r="B196" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="C196" s="36"/>
       <c r="D196" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E196" s="12"/>
     </row>
@@ -4723,7 +4772,7 @@
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
       <c r="D197" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E197" s="12"/>
     </row>
@@ -4732,7 +4781,7 @@
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
       <c r="D198" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E198" s="12"/>
     </row>
@@ -4741,7 +4790,7 @@
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
       <c r="D199" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E199" s="12"/>
     </row>
@@ -4749,8 +4798,8 @@
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
-      <c r="D200" s="8" t="s">
-        <v>222</v>
+      <c r="D200" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="E200" s="12"/>
     </row>
@@ -4758,8 +4807,8 @@
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
-      <c r="D201" s="12" t="s">
-        <v>223</v>
+      <c r="D201" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="E201" s="12"/>
     </row>
@@ -4768,7 +4817,7 @@
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
       <c r="D202" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E202" s="12"/>
     </row>
@@ -4777,58 +4826,58 @@
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
       <c r="D203" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E203" s="12"/>
     </row>
-    <row r="204" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C205" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E205" s="12"/>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="36"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E204" s="12"/>
+    </row>
+    <row r="205" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="9"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="36"/>
+      <c r="A206" s="36" t="s">
+        <v>219</v>
+      </c>
       <c r="B206" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C206" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="C206" s="39" t="s">
+        <v>220</v>
+      </c>
       <c r="D206" s="8" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="E206" s="12"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="36"/>
-      <c r="B207" s="36" t="s">
+      <c r="B207" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C207" s="39"/>
       <c r="D207" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E207" s="12"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="36"/>
-      <c r="B208" s="36"/>
+      <c r="B208" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="C208" s="39"/>
       <c r="D208" s="8" t="s">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="E208" s="12"/>
     </row>
@@ -4837,7 +4886,7 @@
       <c r="B209" s="36"/>
       <c r="C209" s="39"/>
       <c r="D209" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E209" s="12"/>
     </row>
@@ -4846,7 +4895,7 @@
       <c r="B210" s="36"/>
       <c r="C210" s="39"/>
       <c r="D210" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E210" s="12"/>
     </row>
@@ -4855,7 +4904,7 @@
       <c r="B211" s="36"/>
       <c r="C211" s="39"/>
       <c r="D211" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E211" s="12"/>
     </row>
@@ -4864,7 +4913,7 @@
       <c r="B212" s="36"/>
       <c r="C212" s="39"/>
       <c r="D212" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E212" s="12"/>
     </row>
@@ -4873,7 +4922,7 @@
       <c r="B213" s="36"/>
       <c r="C213" s="39"/>
       <c r="D213" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E213" s="12"/>
     </row>
@@ -4882,7 +4931,7 @@
       <c r="B214" s="36"/>
       <c r="C214" s="39"/>
       <c r="D214" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E214" s="12"/>
     </row>
@@ -4891,27 +4940,27 @@
       <c r="B215" s="36"/>
       <c r="C215" s="39"/>
       <c r="D215" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E215" s="12"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="36"/>
-      <c r="B216" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="B216" s="36"/>
       <c r="C216" s="39"/>
       <c r="D216" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E216" s="12"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="36"/>
-      <c r="B217" s="36"/>
+      <c r="B217" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="C217" s="39"/>
       <c r="D217" s="8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E217" s="12"/>
     </row>
@@ -4920,7 +4969,7 @@
       <c r="B218" s="36"/>
       <c r="C218" s="39"/>
       <c r="D218" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E218" s="12"/>
     </row>
@@ -4929,7 +4978,7 @@
       <c r="B219" s="36"/>
       <c r="C219" s="39"/>
       <c r="D219" s="8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E219" s="12"/>
     </row>
@@ -4938,7 +4987,7 @@
       <c r="B220" s="36"/>
       <c r="C220" s="39"/>
       <c r="D220" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E220" s="12"/>
     </row>
@@ -4947,342 +4996,340 @@
       <c r="B221" s="36"/>
       <c r="C221" s="39"/>
       <c r="D221" s="8" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E221" s="12"/>
     </row>
-    <row r="222" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B223" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C223" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="D223" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E223" s="8" t="s">
-        <v>245</v>
-      </c>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="36"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="39"/>
+      <c r="D222" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E222" s="12"/>
+    </row>
+    <row r="223" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="9"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="39"/>
-      <c r="B224" s="36"/>
-      <c r="C224" s="45"/>
+      <c r="A224" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B224" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" s="44" t="s">
+        <v>523</v>
+      </c>
       <c r="D224" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E224" s="12" t="s">
-        <v>247</v>
+        <v>237</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="39"/>
       <c r="B225" s="36"/>
       <c r="C225" s="45"/>
-      <c r="D225" s="34" t="s">
-        <v>541</v>
+      <c r="D225" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="39"/>
-      <c r="B226" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B226" s="36"/>
       <c r="C226" s="45"/>
-      <c r="D226" s="16" t="s">
-        <v>74</v>
+      <c r="D226" s="51" t="s">
+        <v>519</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="39"/>
       <c r="B227" s="7" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C227" s="45"/>
-      <c r="D227" s="31" t="s">
-        <v>542</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>250</v>
+      <c r="D227" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E227" s="12" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="39"/>
       <c r="B228" s="7" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C228" s="45"/>
-      <c r="D228" s="16" t="s">
-        <v>251</v>
+      <c r="D228" s="31" t="s">
+        <v>520</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="39"/>
       <c r="B229" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C229" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="C229" s="45"/>
       <c r="D229" s="16" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="39"/>
-      <c r="B230" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="C230" s="39"/>
-      <c r="D230" s="39"/>
-      <c r="E230" s="12"/>
+      <c r="B230" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" s="38"/>
+      <c r="D230" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="39"/>
       <c r="B231" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C231" s="36"/>
-      <c r="D231" s="34" t="s">
-        <v>571</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C231" s="39"/>
+      <c r="D231" s="39"/>
       <c r="E231" s="12"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="39"/>
-      <c r="B232" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C232" s="35" t="s">
-        <v>545</v>
-      </c>
-      <c r="D232" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E232" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="B232" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C232" s="36"/>
+      <c r="D232" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="E232" s="12"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="39"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="16"/>
-      <c r="E233" s="12"/>
+      <c r="B233" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="39"/>
-      <c r="B234" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="C234" s="36"/>
-      <c r="D234" s="34" t="s">
-        <v>570</v>
-      </c>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="16"/>
       <c r="E234" s="12"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="39"/>
       <c r="B235" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C235" s="44" t="s">
-        <v>545</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C235" s="36"/>
       <c r="D235" s="34" t="s">
-        <v>543</v>
-      </c>
-      <c r="E235" s="18" t="s">
-        <v>260</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="E235" s="12"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="39"/>
-      <c r="B236" s="36"/>
-      <c r="C236" s="38"/>
+      <c r="B236" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" s="44" t="s">
+        <v>523</v>
+      </c>
       <c r="D236" s="34" t="s">
-        <v>544</v>
-      </c>
-      <c r="E236" s="7"/>
+        <v>521</v>
+      </c>
+      <c r="E236" s="18" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="39"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="11"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="12"/>
+      <c r="B237" s="36"/>
+      <c r="C237" s="38"/>
+      <c r="D237" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="E237" s="7"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="39"/>
-      <c r="B238" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C238" s="36"/>
-      <c r="D238" s="34" t="s">
-        <v>581</v>
-      </c>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="16"/>
       <c r="E238" s="12"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="39"/>
-      <c r="B239" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C239" s="35" t="s">
-        <v>545</v>
-      </c>
+      <c r="B239" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C239" s="36"/>
       <c r="D239" s="34" t="s">
-        <v>543</v>
-      </c>
-      <c r="E239" s="12" t="s">
-        <v>260</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="E239" s="12"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="39"/>
-      <c r="B240" s="39"/>
-      <c r="C240" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
+      <c r="B240" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D240" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="39"/>
       <c r="B241" s="39"/>
-      <c r="C241" s="39"/>
-      <c r="D241" s="30" t="s">
-        <v>569</v>
-      </c>
+      <c r="C241" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="D241" s="12"/>
       <c r="E241" s="12"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="39"/>
       <c r="B242" s="39"/>
       <c r="C242" s="39"/>
-      <c r="D242" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E242" s="18" t="s">
-        <v>263</v>
-      </c>
+      <c r="D242" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E242" s="12"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="39"/>
       <c r="B243" s="39"/>
       <c r="C243" s="39"/>
-      <c r="D243" s="49" t="s">
-        <v>550</v>
+      <c r="D243" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="E243" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="39"/>
       <c r="B244" s="39"/>
       <c r="C244" s="39"/>
-      <c r="D244" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E244" s="19" t="s">
-        <v>266</v>
+      <c r="D244" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="E244" s="18" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="39"/>
       <c r="B245" s="39"/>
       <c r="C245" s="39"/>
-      <c r="D245" s="49" t="s">
-        <v>551</v>
+      <c r="D245" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="39"/>
       <c r="B246" s="39"/>
       <c r="C246" s="39"/>
-      <c r="D246" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="E246" s="12"/>
+      <c r="D246" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="E246" s="19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="39"/>
-      <c r="B247" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="B247" s="39"/>
       <c r="C247" s="39"/>
-      <c r="D247" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E247" s="12" t="s">
-        <v>269</v>
-      </c>
+      <c r="D247" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="E247" s="12"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="39"/>
-      <c r="B248" s="39" t="s">
-        <v>6</v>
+      <c r="B248" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C248" s="39"/>
       <c r="D248" s="12" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="39"/>
-      <c r="B249" s="39"/>
+      <c r="B249" s="39" t="s">
+        <v>6</v>
+      </c>
       <c r="C249" s="39"/>
       <c r="D249" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E249" s="12"/>
+        <v>263</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="39"/>
       <c r="B250" s="39"/>
       <c r="C250" s="39"/>
       <c r="D250" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E250" s="12" t="s">
-        <v>274</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E250" s="12"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="39"/>
       <c r="B251" s="39"/>
       <c r="C251" s="39"/>
-      <c r="D251" s="30" t="s">
-        <v>552</v>
+      <c r="D251" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -5290,53 +5337,55 @@
       <c r="B252" s="39"/>
       <c r="C252" s="39"/>
       <c r="D252" s="30" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="39"/>
       <c r="B253" s="39"/>
       <c r="C253" s="39"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
+      <c r="D253" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="39"/>
       <c r="B254" s="39"/>
       <c r="C254" s="39"/>
-      <c r="D254" s="28" t="s">
-        <v>572</v>
-      </c>
+      <c r="D254" s="8"/>
       <c r="E254" s="8"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="39"/>
       <c r="B255" s="39"/>
       <c r="C255" s="39"/>
-      <c r="D255" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E255" s="8" t="s">
-        <v>278</v>
-      </c>
+      <c r="D255" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="E255" s="8"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="39"/>
       <c r="B256" s="39"/>
       <c r="C256" s="39"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
+      <c r="D256" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="39"/>
       <c r="B257" s="39"/>
       <c r="C257" s="39"/>
-      <c r="D257" s="30" t="s">
-        <v>573</v>
-      </c>
+      <c r="D257" s="12"/>
       <c r="E257" s="12"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -5344,43 +5393,41 @@
       <c r="B258" s="39"/>
       <c r="C258" s="39"/>
       <c r="D258" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="E258" s="12" t="s">
-        <v>279</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="E258" s="12"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="39"/>
       <c r="B259" s="39"/>
       <c r="C259" s="39"/>
-      <c r="D259" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E259" s="12"/>
+      <c r="D259" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="39"/>
-      <c r="B260" s="39" t="s">
-        <v>6</v>
-      </c>
+      <c r="B260" s="39"/>
       <c r="C260" s="39"/>
-      <c r="D260" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="E260" s="12" t="s">
-        <v>281</v>
-      </c>
+      <c r="D260" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E260" s="12"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="39"/>
-      <c r="B261" s="39"/>
+      <c r="B261" s="39" t="s">
+        <v>6</v>
+      </c>
       <c r="C261" s="39"/>
-      <c r="D261" s="49" t="s">
-        <v>556</v>
-      </c>
-      <c r="E261" s="19" t="s">
-        <v>282</v>
+      <c r="D261" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -5388,26 +5435,28 @@
       <c r="B262" s="39"/>
       <c r="C262" s="39"/>
       <c r="D262" s="49" t="s">
-        <v>557</v>
-      </c>
-      <c r="E262" s="18" t="s">
-        <v>283</v>
+        <v>533</v>
+      </c>
+      <c r="E262" s="19" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="39"/>
       <c r="B263" s="39"/>
       <c r="C263" s="39"/>
-      <c r="D263" s="12"/>
-      <c r="E263" s="12"/>
+      <c r="D263" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="E263" s="18" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="39"/>
       <c r="B264" s="39"/>
       <c r="C264" s="39"/>
-      <c r="D264" s="30" t="s">
-        <v>574</v>
-      </c>
+      <c r="D264" s="12"/>
       <c r="E264" s="12"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -5415,149 +5464,149 @@
       <c r="B265" s="39"/>
       <c r="C265" s="39"/>
       <c r="D265" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="E265" s="12" t="s">
-        <v>284</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="E265" s="12"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="39"/>
       <c r="B266" s="39"/>
       <c r="C266" s="39"/>
       <c r="D266" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="E266" s="12"/>
+        <v>535</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="39"/>
       <c r="B267" s="39"/>
       <c r="C267" s="39"/>
       <c r="D267" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="E267" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="E267" s="12"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="39"/>
       <c r="B268" s="39"/>
       <c r="C268" s="39"/>
-      <c r="D268" s="20" t="s">
-        <v>286</v>
+      <c r="D268" s="30" t="s">
+        <v>536</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A269" s="39"/>
       <c r="B269" s="39"/>
       <c r="C269" s="39"/>
-      <c r="D269" s="12" t="s">
-        <v>288</v>
+      <c r="D269" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="39"/>
       <c r="B270" s="39"/>
       <c r="C270" s="39"/>
-      <c r="D270" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="E270" s="12"/>
+      <c r="D270" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="39"/>
       <c r="B271" s="39"/>
       <c r="C271" s="39"/>
-      <c r="D271" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E271" s="12" t="s">
-        <v>291</v>
-      </c>
+      <c r="D271" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="E271" s="12"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="39"/>
       <c r="B272" s="39"/>
       <c r="C272" s="39"/>
-      <c r="D272" s="12"/>
-      <c r="E272" s="12"/>
+      <c r="D272" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="39"/>
       <c r="B273" s="39"/>
       <c r="C273" s="39"/>
-      <c r="D273" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="E273" s="12" t="s">
-        <v>292</v>
-      </c>
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="39"/>
       <c r="B274" s="39"/>
       <c r="C274" s="39"/>
-      <c r="D274" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E274" s="8" t="s">
-        <v>294</v>
+      <c r="D274" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="39"/>
       <c r="B275" s="39"/>
       <c r="C275" s="39"/>
-      <c r="D275" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E275" s="12" t="s">
-        <v>296</v>
+      <c r="D275" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="39"/>
       <c r="B276" s="39"/>
       <c r="C276" s="39"/>
-      <c r="D276" s="30" t="s">
-        <v>561</v>
+      <c r="D276" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="39"/>
       <c r="B277" s="39"/>
       <c r="C277" s="39"/>
-      <c r="D277" s="12"/>
-      <c r="E277" s="12"/>
+      <c r="D277" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="39"/>
-      <c r="B278" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="B278" s="39"/>
       <c r="C278" s="39"/>
-      <c r="D278" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="D278" s="12"/>
       <c r="E278" s="12"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="39"/>
-      <c r="B279" s="36"/>
+      <c r="B279" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="C279" s="39"/>
       <c r="D279" s="8" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="E279" s="12"/>
     </row>
@@ -5566,7 +5615,7 @@
       <c r="B280" s="36"/>
       <c r="C280" s="39"/>
       <c r="D280" s="8" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E280" s="12"/>
     </row>
@@ -5575,7 +5624,7 @@
       <c r="B281" s="36"/>
       <c r="C281" s="39"/>
       <c r="D281" s="8" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E281" s="12"/>
     </row>
@@ -5584,7 +5633,7 @@
       <c r="B282" s="36"/>
       <c r="C282" s="39"/>
       <c r="D282" s="8" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E282" s="12"/>
     </row>
@@ -5593,43 +5642,41 @@
       <c r="B283" s="36"/>
       <c r="C283" s="39"/>
       <c r="D283" s="8" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E283" s="12"/>
     </row>
-    <row r="284" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="B285" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D285" s="12"/>
-      <c r="E285" s="12"/>
-    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="39"/>
+      <c r="B284" s="36"/>
+      <c r="C284" s="39"/>
+      <c r="D284" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E284" s="12"/>
+    </row>
+    <row r="285" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="36"/>
-      <c r="B286" s="36"/>
+      <c r="A286" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="B286" s="36" t="s">
+        <v>296</v>
+      </c>
       <c r="C286" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D286" s="8" t="s">
-        <v>306</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D286" s="12"/>
       <c r="E286" s="12"/>
     </row>
     <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
       <c r="C287" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E287" s="12"/>
     </row>
@@ -5637,351 +5684,353 @@
       <c r="A288" s="36"/>
       <c r="B288" s="36"/>
       <c r="C288" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D288" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="E288" s="30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="9"/>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
-    </row>
-    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B290" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E288" s="12"/>
+    </row>
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="36"/>
+      <c r="B289" s="36"/>
+      <c r="C289" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D289" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="E289" s="30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="9"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
+    </row>
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B291" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C290" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D290" s="12"/>
-      <c r="E290" s="12"/>
-    </row>
-    <row r="291" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="9"/>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9"/>
-    </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="B292" s="37" t="s">
+      <c r="C291" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+    </row>
+    <row r="292" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="9"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="9"/>
+    </row>
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="B293" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C292" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="D292" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="E292" s="12"/>
-    </row>
-    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="39"/>
-      <c r="B293" s="45"/>
-      <c r="C293" s="45"/>
+      <c r="C293" s="37" t="s">
+        <v>304</v>
+      </c>
       <c r="D293" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="E293" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="44.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="E293" s="12"/>
+    </row>
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="39"/>
       <c r="B294" s="45"/>
       <c r="C294" s="45"/>
-      <c r="D294" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="E294" s="33" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D294" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="44.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="39"/>
       <c r="B295" s="45"/>
       <c r="C295" s="45"/>
-      <c r="D295" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="E295" s="12" t="s">
-        <v>314</v>
+      <c r="D295" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="E295" s="33" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="39"/>
       <c r="B296" s="45"/>
       <c r="C296" s="45"/>
-      <c r="D296" s="12"/>
-      <c r="E296" s="12"/>
+      <c r="D296" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="39"/>
       <c r="B297" s="45"/>
       <c r="C297" s="45"/>
-      <c r="D297" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="E297" s="12" t="s">
-        <v>315</v>
-      </c>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="39"/>
       <c r="B298" s="45"/>
       <c r="C298" s="45"/>
-      <c r="D298" s="12"/>
-      <c r="E298" s="12"/>
+      <c r="D298" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="39"/>
       <c r="B299" s="45"/>
       <c r="C299" s="45"/>
-      <c r="D299" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="E299" s="12" t="s">
-        <v>316</v>
-      </c>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="39"/>
       <c r="B300" s="45"/>
       <c r="C300" s="45"/>
       <c r="D300" s="30" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="39"/>
       <c r="B301" s="45"/>
       <c r="C301" s="45"/>
-      <c r="D301" s="12" t="s">
-        <v>318</v>
+      <c r="D301" s="30" t="s">
+        <v>492</v>
       </c>
       <c r="E301" s="12" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="39"/>
       <c r="B302" s="45"/>
       <c r="C302" s="45"/>
-      <c r="D302" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E302" s="8" t="s">
-        <v>321</v>
+      <c r="D302" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="39"/>
       <c r="B303" s="45"/>
       <c r="C303" s="45"/>
-      <c r="D303" s="12"/>
-      <c r="E303" s="12"/>
+      <c r="D303" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="39"/>
       <c r="B304" s="45"/>
       <c r="C304" s="45"/>
-      <c r="D304" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="E304" s="12" t="s">
-        <v>322</v>
-      </c>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="39"/>
       <c r="B305" s="45"/>
       <c r="C305" s="45"/>
-      <c r="D305" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="E305" s="8" t="s">
-        <v>323</v>
+      <c r="D305" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="E305" s="12" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="39"/>
       <c r="B306" s="45"/>
       <c r="C306" s="45"/>
-      <c r="D306" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E306" s="12" t="s">
-        <v>325</v>
+      <c r="D306" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="39"/>
       <c r="B307" s="45"/>
       <c r="C307" s="45"/>
-      <c r="D307" s="12"/>
-      <c r="E307" s="12"/>
+      <c r="D307" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E307" s="12" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="39"/>
       <c r="B308" s="45"/>
       <c r="C308" s="45"/>
-      <c r="D308" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="E308" s="12" t="s">
-        <v>326</v>
-      </c>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="39"/>
       <c r="B309" s="45"/>
       <c r="C309" s="45"/>
-      <c r="D309" s="12"/>
-      <c r="E309" s="12"/>
+      <c r="D309" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="E309" s="12" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="39"/>
       <c r="B310" s="45"/>
       <c r="C310" s="45"/>
-      <c r="D310" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E310" s="8" t="s">
-        <v>328</v>
-      </c>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="39"/>
       <c r="B311" s="45"/>
       <c r="C311" s="45"/>
-      <c r="D311" s="12"/>
-      <c r="E311" s="12"/>
+      <c r="D311" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="39"/>
       <c r="B312" s="45"/>
       <c r="C312" s="45"/>
-      <c r="D312" s="30" t="s">
-        <v>578</v>
-      </c>
+      <c r="D312" s="12"/>
       <c r="E312" s="12"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="39"/>
       <c r="B313" s="45"/>
       <c r="C313" s="45"/>
-      <c r="D313" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="E313" s="21" t="s">
-        <v>329</v>
-      </c>
+      <c r="D313" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="E313" s="12"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="39"/>
       <c r="B314" s="45"/>
       <c r="C314" s="45"/>
-      <c r="D314" s="21" t="s">
-        <v>330</v>
+      <c r="D314" s="32" t="s">
+        <v>488</v>
       </c>
       <c r="E314" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="F314" s="22" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="39"/>
       <c r="B315" s="45"/>
       <c r="C315" s="45"/>
-      <c r="D315" s="12"/>
-      <c r="E315" s="12"/>
+      <c r="D315" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E315" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="F315" s="22" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="39"/>
       <c r="B316" s="45"/>
       <c r="C316" s="45"/>
-      <c r="D316" s="28" t="s">
-        <v>575</v>
-      </c>
+      <c r="D316" s="12"/>
       <c r="E316" s="12"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="39"/>
       <c r="B317" s="45"/>
       <c r="C317" s="45"/>
-      <c r="D317" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E317" s="8" t="s">
-        <v>334</v>
-      </c>
+      <c r="D317" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="E317" s="12"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="39"/>
       <c r="B318" s="45"/>
       <c r="C318" s="45"/>
       <c r="D318" s="8" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="39"/>
       <c r="B319" s="45"/>
       <c r="C319" s="45"/>
-      <c r="D319" s="8"/>
-      <c r="E319" s="12"/>
+      <c r="D319" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="39"/>
       <c r="B320" s="45"/>
       <c r="C320" s="45"/>
-      <c r="D320" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="E320" s="23"/>
+      <c r="D320" s="8"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="39"/>
       <c r="B321" s="45"/>
       <c r="C321" s="45"/>
       <c r="D321" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="E321" s="17" t="s">
-        <v>337</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="E321" s="23"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="39"/>
       <c r="B322" s="45"/>
       <c r="C322" s="45"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="12"/>
+      <c r="D322" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="E322" s="17" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="39"/>
       <c r="B323" s="45"/>
       <c r="C323" s="45"/>
-      <c r="D323" s="28" t="s">
-        <v>580</v>
-      </c>
+      <c r="D323" s="8"/>
       <c r="E323" s="12"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -5989,7 +6038,7 @@
       <c r="B324" s="45"/>
       <c r="C324" s="45"/>
       <c r="D324" s="28" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="E324" s="12"/>
     </row>
@@ -5997,43 +6046,41 @@
       <c r="A325" s="39"/>
       <c r="B325" s="45"/>
       <c r="C325" s="45"/>
-      <c r="D325" s="12"/>
+      <c r="D325" s="28" t="s">
+        <v>486</v>
+      </c>
       <c r="E325" s="12"/>
     </row>
-    <row r="326" spans="1:6" ht="42.45" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="39"/>
       <c r="B326" s="45"/>
       <c r="C326" s="45"/>
-      <c r="D326" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="E326" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="F326" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
+    </row>
+    <row r="327" spans="1:6" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A327" s="39"/>
       <c r="B327" s="45"/>
       <c r="C327" s="45"/>
-      <c r="D327" s="12" t="s">
-        <v>340</v>
+      <c r="D327" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="E327" s="14" t="s">
-        <v>341</v>
+        <v>330</v>
+      </c>
+      <c r="F327" s="25" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="39"/>
       <c r="B328" s="45"/>
       <c r="C328" s="45"/>
-      <c r="D328" s="14" t="s">
-        <v>342</v>
+      <c r="D328" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="E328" s="14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -6041,72 +6088,72 @@
       <c r="B329" s="45"/>
       <c r="C329" s="45"/>
       <c r="D329" s="14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E329" s="14" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="39"/>
       <c r="B330" s="45"/>
       <c r="C330" s="45"/>
-      <c r="D330" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="E330" s="24" t="s">
-        <v>347</v>
+      <c r="D330" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E330" s="14" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="39"/>
       <c r="B331" s="45"/>
       <c r="C331" s="45"/>
-      <c r="D331" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="E331" s="8" t="s">
-        <v>348</v>
+      <c r="D331" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E331" s="24" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="39"/>
       <c r="B332" s="45"/>
       <c r="C332" s="45"/>
-      <c r="D332" s="12"/>
-      <c r="E332" s="12"/>
+      <c r="D332" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="E332" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="39"/>
       <c r="B333" s="45"/>
       <c r="C333" s="45"/>
-      <c r="D333" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="E333" s="14" t="s">
-        <v>350</v>
-      </c>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="39"/>
       <c r="B334" s="45"/>
       <c r="C334" s="45"/>
-      <c r="D334" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="E334" s="8" t="s">
-        <v>351</v>
+      <c r="D334" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E334" s="14" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="39"/>
       <c r="B335" s="45"/>
       <c r="C335" s="45"/>
-      <c r="D335" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E335" s="14" t="s">
-        <v>353</v>
+      <c r="D335" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -6114,32 +6161,32 @@
       <c r="B336" s="45"/>
       <c r="C336" s="45"/>
       <c r="D336" s="12" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E336" s="14" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="39"/>
       <c r="B337" s="45"/>
       <c r="C337" s="45"/>
-      <c r="D337" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="E337" s="8" t="s">
-        <v>351</v>
+      <c r="D337" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E337" s="14" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="39"/>
       <c r="B338" s="45"/>
       <c r="C338" s="45"/>
-      <c r="D338" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E338" s="12" t="s">
-        <v>357</v>
+      <c r="D338" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -6147,108 +6194,108 @@
       <c r="B339" s="45"/>
       <c r="C339" s="45"/>
       <c r="D339" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E339" s="14" t="s">
-        <v>359</v>
+        <v>348</v>
+      </c>
+      <c r="E339" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="39"/>
       <c r="B340" s="45"/>
       <c r="C340" s="45"/>
-      <c r="D340" s="30" t="s">
-        <v>502</v>
+      <c r="D340" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="39"/>
       <c r="B341" s="45"/>
       <c r="C341" s="45"/>
-      <c r="D341" s="12"/>
-      <c r="E341" s="12"/>
+      <c r="D341" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="E341" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="39"/>
       <c r="B342" s="45"/>
       <c r="C342" s="45"/>
-      <c r="D342" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E342" s="12" t="s">
-        <v>362</v>
-      </c>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="39"/>
       <c r="B343" s="45"/>
       <c r="C343" s="45"/>
-      <c r="D343" s="12"/>
-      <c r="E343" s="12"/>
+      <c r="D343" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E343" s="12" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="39"/>
       <c r="B344" s="45"/>
       <c r="C344" s="45"/>
-      <c r="D344" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="E344" s="8" t="s">
-        <v>363</v>
-      </c>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="39"/>
-      <c r="B345" s="38"/>
+      <c r="B345" s="45"/>
       <c r="C345" s="45"/>
-      <c r="D345" s="12"/>
-      <c r="E345" s="12"/>
+      <c r="D345" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="39"/>
-      <c r="B346" s="41" t="s">
-        <v>6</v>
-      </c>
+      <c r="B346" s="38"/>
       <c r="C346" s="45"/>
-      <c r="D346" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E346" s="8" t="s">
-        <v>365</v>
-      </c>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="39"/>
-      <c r="B347" s="42"/>
+      <c r="B347" s="41" t="s">
+        <v>6</v>
+      </c>
       <c r="C347" s="45"/>
-      <c r="D347" s="8"/>
-      <c r="E347" s="8"/>
+      <c r="D347" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="39"/>
-      <c r="B348" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="B348" s="42"/>
       <c r="C348" s="45"/>
-      <c r="D348" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="E348" s="8" t="s">
-        <v>367</v>
-      </c>
+      <c r="D348" s="8"/>
+      <c r="E348" s="8"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="39"/>
-      <c r="B349" s="36"/>
+      <c r="B349" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="C349" s="45"/>
       <c r="D349" s="8" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E349" s="8" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -6256,7 +6303,10 @@
       <c r="B350" s="36"/>
       <c r="C350" s="45"/>
       <c r="D350" s="8" t="s">
-        <v>370</v>
+        <v>360</v>
+      </c>
+      <c r="E350" s="8" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -6264,10 +6314,7 @@
       <c r="B351" s="36"/>
       <c r="C351" s="45"/>
       <c r="D351" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E351" s="8" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -6275,16 +6322,18 @@
       <c r="B352" s="36"/>
       <c r="C352" s="45"/>
       <c r="D352" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E352" s="12"/>
+        <v>363</v>
+      </c>
+      <c r="E352" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="39"/>
       <c r="B353" s="36"/>
       <c r="C353" s="45"/>
       <c r="D353" s="8" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E353" s="12"/>
     </row>
@@ -6293,7 +6342,7 @@
       <c r="B354" s="36"/>
       <c r="C354" s="45"/>
       <c r="D354" s="8" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="E354" s="12"/>
     </row>
@@ -6302,7 +6351,7 @@
       <c r="B355" s="36"/>
       <c r="C355" s="45"/>
       <c r="D355" s="8" t="s">
-        <v>375</v>
+        <v>297</v>
       </c>
       <c r="E355" s="12"/>
     </row>
@@ -6311,84 +6360,84 @@
       <c r="B356" s="36"/>
       <c r="C356" s="45"/>
       <c r="D356" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E356" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="E356" s="12"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="39"/>
       <c r="B357" s="36"/>
       <c r="C357" s="45"/>
-      <c r="D357" s="29" t="s">
-        <v>498</v>
+      <c r="D357" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="E357" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="39"/>
       <c r="B358" s="36"/>
       <c r="C358" s="45"/>
       <c r="D358" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="E358" s="8"/>
-    </row>
-    <row r="359" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="39"/>
       <c r="B359" s="36"/>
       <c r="C359" s="45"/>
       <c r="D359" s="29" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="E359" s="8"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="39"/>
       <c r="B360" s="36"/>
       <c r="C360" s="45"/>
-      <c r="D360" s="8"/>
+      <c r="D360" s="29" t="s">
+        <v>479</v>
+      </c>
       <c r="E360" s="8"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="39"/>
       <c r="B361" s="36"/>
       <c r="C361" s="45"/>
-      <c r="D361" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E361" s="8" t="s">
-        <v>380</v>
-      </c>
+      <c r="D361" s="8"/>
+      <c r="E361" s="8"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="39"/>
       <c r="B362" s="36"/>
       <c r="C362" s="45"/>
       <c r="D362" s="8" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E362" s="8" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="39"/>
       <c r="B363" s="36"/>
       <c r="C363" s="45"/>
-      <c r="D363" s="8"/>
-      <c r="E363" s="12"/>
+      <c r="D363" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="39"/>
       <c r="B364" s="36"/>
       <c r="C364" s="45"/>
-      <c r="D364" s="8" t="s">
-        <v>307</v>
-      </c>
+      <c r="D364" s="8"/>
       <c r="E364" s="12"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -6396,21 +6445,19 @@
       <c r="B365" s="36"/>
       <c r="C365" s="45"/>
       <c r="D365" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E365" s="8" t="s">
-        <v>384</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E365" s="12"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="39"/>
       <c r="B366" s="36"/>
       <c r="C366" s="45"/>
       <c r="D366" s="8" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E366" s="8" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -6418,37 +6465,37 @@
       <c r="B367" s="36"/>
       <c r="C367" s="45"/>
       <c r="D367" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E367" s="12"/>
+        <v>377</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="39"/>
       <c r="B368" s="36"/>
       <c r="C368" s="45"/>
-      <c r="D368" s="8"/>
-      <c r="E368" s="8"/>
+      <c r="D368" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E368" s="12"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="39"/>
       <c r="B369" s="36"/>
       <c r="C369" s="45"/>
-      <c r="D369" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E369" s="8" t="s">
-        <v>280</v>
-      </c>
+      <c r="D369" s="8"/>
+      <c r="E369" s="8"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="39"/>
       <c r="B370" s="36"/>
       <c r="C370" s="45"/>
       <c r="D370" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E370" s="12" t="s">
-        <v>390</v>
+        <v>380</v>
+      </c>
+      <c r="E370" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -6456,26 +6503,28 @@
       <c r="B371" s="36"/>
       <c r="C371" s="45"/>
       <c r="D371" s="8" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E371" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="39"/>
       <c r="B372" s="36"/>
       <c r="C372" s="45"/>
-      <c r="D372" s="8"/>
-      <c r="E372" s="12"/>
+      <c r="D372" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E372" s="12" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="39"/>
       <c r="B373" s="36"/>
       <c r="C373" s="45"/>
-      <c r="D373" s="8" t="s">
-        <v>308</v>
-      </c>
+      <c r="D373" s="8"/>
       <c r="E373" s="12"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -6483,7 +6532,7 @@
       <c r="B374" s="36"/>
       <c r="C374" s="45"/>
       <c r="D374" s="8" t="s">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="E374" s="12"/>
     </row>
@@ -6492,240 +6541,240 @@
       <c r="B375" s="36"/>
       <c r="C375" s="45"/>
       <c r="D375" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E375" s="8" t="s">
-        <v>395</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="E375" s="12"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="39"/>
       <c r="B376" s="36"/>
       <c r="C376" s="45"/>
       <c r="D376" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E376" s="12"/>
+        <v>386</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="39"/>
       <c r="B377" s="36"/>
-      <c r="C377" s="38"/>
+      <c r="C377" s="45"/>
       <c r="D377" s="8" t="s">
-        <v>396</v>
+        <v>176</v>
       </c>
       <c r="E377" s="12"/>
     </row>
-    <row r="378" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="15"/>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" s="22" t="s">
-        <v>397</v>
-      </c>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="39"/>
+      <c r="B378" s="36"/>
+      <c r="C378" s="38"/>
+      <c r="D378" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E378" s="12"/>
+    </row>
+    <row r="379" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="15"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="B380" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C380" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="D380" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E380" s="8" t="s">
-        <v>399</v>
+      <c r="A380" s="22" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" s="36"/>
+      <c r="A381" s="36" t="s">
+        <v>360</v>
+      </c>
       <c r="B381" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C381" s="36"/>
+        <v>169</v>
+      </c>
+      <c r="C381" s="36" t="s">
+        <v>360</v>
+      </c>
       <c r="D381" s="8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E381" s="8" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="36"/>
-      <c r="B382" s="40" t="s">
-        <v>6</v>
+      <c r="B382" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C382" s="36"/>
       <c r="D382" s="8" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E382" s="8" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="36"/>
-      <c r="B383" s="42"/>
+      <c r="B383" s="40" t="s">
+        <v>6</v>
+      </c>
       <c r="C383" s="36"/>
-      <c r="D383" s="28" t="s">
-        <v>497</v>
+      <c r="D383" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="E383" s="8" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="36"/>
-      <c r="B384" s="7"/>
-      <c r="C384" s="7"/>
-      <c r="D384" s="8"/>
-      <c r="E384" s="8"/>
+      <c r="B384" s="42"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E384" s="8" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="36"/>
-      <c r="B385" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C385" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="D385" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="E385" s="8" t="s">
-        <v>406</v>
-      </c>
+      <c r="B385" s="7"/>
+      <c r="C385" s="7"/>
+      <c r="D385" s="8"/>
+      <c r="E385" s="8"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="36"/>
-      <c r="B386" s="41"/>
-      <c r="C386" s="36"/>
-      <c r="D386" s="8" t="s">
-        <v>407</v>
+      <c r="B386" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="D386" s="28" t="s">
+        <v>475</v>
       </c>
       <c r="E386" s="8" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="36"/>
-      <c r="B387" s="42"/>
+      <c r="B387" s="41"/>
       <c r="C387" s="36"/>
       <c r="D387" s="8" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E387" s="8" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="36"/>
-      <c r="B388" s="7"/>
-      <c r="C388" s="7"/>
-      <c r="D388" s="8"/>
-      <c r="E388" s="8"/>
+      <c r="B388" s="42"/>
+      <c r="C388" s="36"/>
+      <c r="D388" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E388" s="8" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="36"/>
-      <c r="B389" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="B389" s="7"/>
       <c r="C389" s="7"/>
-      <c r="D389" s="8" t="s">
+      <c r="D389" s="8"/>
+      <c r="E389" s="8"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="36"/>
+      <c r="B390" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C390" s="7"/>
+      <c r="D390" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="22"/>
+      <c r="D391" s="22"/>
+      <c r="E391" s="22"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D392" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="E392" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E389" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" s="22"/>
-      <c r="D390" s="22"/>
-      <c r="E390" s="22"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="B391" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C391" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D391" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="E391" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" s="41"/>
-      <c r="B392" s="12"/>
-      <c r="C392" s="12"/>
-      <c r="D392" s="12"/>
-      <c r="E392" s="12"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="41"/>
-      <c r="B393" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="C393" s="37"/>
-      <c r="D393" s="8" t="s">
-        <v>415</v>
-      </c>
+      <c r="B393" s="12"/>
+      <c r="C393" s="12"/>
+      <c r="D393" s="12"/>
       <c r="E393" s="12"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394" s="42"/>
-      <c r="B394" s="42"/>
-      <c r="C394" s="38"/>
+      <c r="A394" s="41"/>
+      <c r="B394" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="C394" s="37"/>
       <c r="D394" s="8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E394" s="12"/>
     </row>
-    <row r="395" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="15"/>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A396" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="B396" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C396" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="D396" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E396" s="12"/>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="42"/>
+      <c r="B395" s="42"/>
+      <c r="C395" s="38"/>
+      <c r="D395" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E395" s="12"/>
+    </row>
+    <row r="396" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="15"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A397" s="36"/>
-      <c r="B397" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C397" s="36"/>
+      <c r="A397" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C397" s="36" t="s">
+        <v>409</v>
+      </c>
       <c r="D397" s="8" t="s">
-        <v>418</v>
+        <v>184</v>
       </c>
       <c r="E397" s="12"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="36"/>
-      <c r="B398" s="36"/>
+      <c r="B398" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="C398" s="36"/>
-      <c r="D398" s="28" t="s">
-        <v>494</v>
+      <c r="D398" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="E398" s="12"/>
     </row>
@@ -6733,8 +6782,8 @@
       <c r="A399" s="36"/>
       <c r="B399" s="36"/>
       <c r="C399" s="36"/>
-      <c r="D399" s="8" t="s">
-        <v>419</v>
+      <c r="D399" s="28" t="s">
+        <v>473</v>
       </c>
       <c r="E399" s="12"/>
     </row>
@@ -6742,8 +6791,8 @@
       <c r="A400" s="36"/>
       <c r="B400" s="36"/>
       <c r="C400" s="36"/>
-      <c r="D400" s="28" t="s">
-        <v>493</v>
+      <c r="D400" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="E400" s="12"/>
     </row>
@@ -6752,96 +6801,96 @@
       <c r="B401" s="36"/>
       <c r="C401" s="36"/>
       <c r="D401" s="28" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="E401" s="12"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="36"/>
-      <c r="B402" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="B402" s="36"/>
       <c r="C402" s="36"/>
-      <c r="D402" s="12"/>
+      <c r="D402" s="28" t="s">
+        <v>471</v>
+      </c>
       <c r="E402" s="12"/>
     </row>
-    <row r="403" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="10"/>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A404" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="B404" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C404" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="D404" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="E404" s="12"/>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="36"/>
+      <c r="B403" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C403" s="36"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="12"/>
+    </row>
+    <row r="404" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="10"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405" s="36"/>
-      <c r="B405" s="36"/>
-      <c r="C405" s="36"/>
+      <c r="A405" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B405" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C405" s="36" t="s">
+        <v>413</v>
+      </c>
       <c r="D405" s="28" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="E405" s="12"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="36"/>
-      <c r="B406" s="36" t="s">
-        <v>178</v>
-      </c>
+      <c r="B406" s="36"/>
       <c r="C406" s="36"/>
-      <c r="D406" s="8" t="s">
-        <v>422</v>
+      <c r="D406" s="28" t="s">
+        <v>469</v>
       </c>
       <c r="E406" s="12"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="36"/>
-      <c r="B407" s="36"/>
+      <c r="B407" s="36" t="s">
+        <v>171</v>
+      </c>
       <c r="C407" s="36"/>
       <c r="D407" s="8" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E407" s="12"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="36"/>
-      <c r="B408" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="B408" s="36"/>
       <c r="C408" s="36"/>
       <c r="D408" s="8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E408" s="12"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="36"/>
-      <c r="B409" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C409" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="D409" s="28" t="s">
-        <v>489</v>
+      <c r="B409" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C409" s="36"/>
+      <c r="D409" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="E409" s="12"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="36"/>
-      <c r="B410" s="36"/>
-      <c r="C410" s="36"/>
-      <c r="D410" s="8" t="s">
-        <v>425</v>
+      <c r="B410" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="D410" s="28" t="s">
+        <v>468</v>
       </c>
       <c r="E410" s="12"/>
     </row>
@@ -6850,7 +6899,7 @@
       <c r="B411" s="36"/>
       <c r="C411" s="36"/>
       <c r="D411" s="8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E411" s="12"/>
     </row>
@@ -6858,46 +6907,46 @@
       <c r="A412" s="36"/>
       <c r="B412" s="36"/>
       <c r="C412" s="36"/>
-      <c r="D412" s="28" t="s">
-        <v>488</v>
+      <c r="D412" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="E412" s="12"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="36"/>
-      <c r="B413" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="B413" s="36"/>
       <c r="C413" s="36"/>
-      <c r="D413" s="8" t="s">
-        <v>427</v>
+      <c r="D413" s="28" t="s">
+        <v>467</v>
       </c>
       <c r="E413" s="12"/>
     </row>
-    <row r="414" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="10"/>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="B415" s="36" t="s">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="36"/>
+      <c r="B414" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C414" s="36"/>
+      <c r="D414" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E414" s="12"/>
+    </row>
+    <row r="415" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="10"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B416" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C415" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="D415" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="E415" s="12"/>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" s="36"/>
-      <c r="B416" s="36"/>
-      <c r="C416" s="39"/>
+      <c r="C416" s="39" t="s">
+        <v>420</v>
+      </c>
       <c r="D416" s="28" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="E416" s="12"/>
     </row>
@@ -6906,7 +6955,7 @@
       <c r="B417" s="36"/>
       <c r="C417" s="39"/>
       <c r="D417" s="28" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="E417" s="12"/>
     </row>
@@ -6915,7 +6964,7 @@
       <c r="B418" s="36"/>
       <c r="C418" s="39"/>
       <c r="D418" s="28" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="E418" s="12"/>
     </row>
@@ -6923,8 +6972,8 @@
       <c r="A419" s="36"/>
       <c r="B419" s="36"/>
       <c r="C419" s="39"/>
-      <c r="D419" s="8" t="s">
-        <v>429</v>
+      <c r="D419" s="28" t="s">
+        <v>463</v>
       </c>
       <c r="E419" s="12"/>
     </row>
@@ -6933,156 +6982,154 @@
       <c r="B420" s="36"/>
       <c r="C420" s="39"/>
       <c r="D420" s="8" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="E420" s="12"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="36"/>
-      <c r="B421" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="B421" s="36"/>
       <c r="C421" s="39"/>
-      <c r="D421" s="12"/>
+      <c r="D421" s="8" t="s">
+        <v>353</v>
+      </c>
       <c r="E421" s="12"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="36"/>
-      <c r="B422" s="36"/>
+      <c r="B422" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="C422" s="39"/>
-      <c r="D422" s="8" t="s">
-        <v>430</v>
-      </c>
+      <c r="D422" s="12"/>
       <c r="E422" s="12"/>
     </row>
-    <row r="423" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="10"/>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A424" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="B424" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="C424" s="36"/>
-      <c r="D424" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E424" s="12"/>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="36"/>
+      <c r="B423" s="36"/>
+      <c r="C423" s="39"/>
+      <c r="D423" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E423" s="12"/>
+    </row>
+    <row r="424" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="10"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" s="36"/>
-      <c r="B425" s="36"/>
+      <c r="A425" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="B425" s="36" t="s">
+        <v>406</v>
+      </c>
       <c r="C425" s="36"/>
       <c r="D425" s="8" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="E425" s="12"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="36"/>
-      <c r="B426" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C426" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D426" s="28" t="s">
-        <v>565</v>
+      <c r="B426" s="36"/>
+      <c r="C426" s="36"/>
+      <c r="D426" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="E426" s="12"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="36"/>
       <c r="B427" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C427" s="7"/>
-      <c r="D427" s="8" t="s">
-        <v>432</v>
+        <v>169</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D427" s="28" t="s">
+        <v>542</v>
       </c>
       <c r="E427" s="12"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="36"/>
       <c r="B428" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C428" s="7"/>
+      <c r="D428" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E428" s="12"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="36"/>
+      <c r="B429" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C428" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D428" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E428" s="12"/>
-    </row>
-    <row r="429" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="10"/>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A430" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="B430" s="12"/>
-      <c r="C430" s="12"/>
-      <c r="D430" s="12"/>
-      <c r="E430" s="12"/>
+      <c r="C429" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D429" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E429" s="12"/>
+    </row>
+    <row r="430" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="10"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A431" s="41"/>
-      <c r="B431" s="50" t="s">
-        <v>566</v>
-      </c>
-      <c r="C431" s="47"/>
-      <c r="D431" s="47"/>
-      <c r="E431" s="47"/>
+      <c r="A431" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B431" s="12"/>
+      <c r="C431" s="12"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A432" s="42"/>
-      <c r="B432" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="C432" s="48"/>
-      <c r="D432" s="48"/>
-      <c r="E432" s="48"/>
-    </row>
-    <row r="433" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="15"/>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A434" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="B434" s="12"/>
-      <c r="C434" s="12"/>
-      <c r="D434" s="12"/>
-      <c r="E434" s="12"/>
+      <c r="A432" s="41"/>
+      <c r="B432" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="C432" s="47"/>
+      <c r="D432" s="47"/>
+      <c r="E432" s="47"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="42"/>
+      <c r="B433" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="C433" s="48"/>
+      <c r="D433" s="48"/>
+      <c r="E433" s="48"/>
+    </row>
+    <row r="434" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="15"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A435" s="41"/>
-      <c r="B435" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C435" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="D435" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E435" s="8" t="s">
-        <v>440</v>
-      </c>
+      <c r="A435" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B435" s="12"/>
+      <c r="C435" s="12"/>
+      <c r="D435" s="12"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="41"/>
-      <c r="B436" s="41"/>
-      <c r="C436" s="41"/>
+      <c r="B436" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" s="40" t="s">
+        <v>430</v>
+      </c>
       <c r="D436" s="8" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E436" s="8" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -7090,10 +7137,10 @@
       <c r="B437" s="41"/>
       <c r="C437" s="41"/>
       <c r="D437" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E437" s="14" t="s">
-        <v>444</v>
+        <v>433</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -7101,170 +7148,181 @@
       <c r="B438" s="41"/>
       <c r="C438" s="41"/>
       <c r="D438" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E438" s="8" t="s">
-        <v>446</v>
+        <v>435</v>
+      </c>
+      <c r="E438" s="14" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A439" s="42"/>
-      <c r="B439" s="42"/>
-      <c r="C439" s="42"/>
-      <c r="D439" s="28" t="s">
-        <v>483</v>
+      <c r="A439" s="41"/>
+      <c r="B439" s="41"/>
+      <c r="C439" s="41"/>
+      <c r="D439" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="E439" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A441" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B441" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C441" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="D441" s="12"/>
-      <c r="E441" s="12"/>
-    </row>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="42"/>
+      <c r="B440" s="42"/>
+      <c r="C440" s="42"/>
+      <c r="D440" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="E440" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C442" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D442" s="11"/>
-      <c r="E442" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="C442" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D442" s="12"/>
+      <c r="E442" s="12"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D443" s="11"/>
+      <c r="E443" s="11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="117">
-    <mergeCell ref="A95:A109"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A133:A140"/>
-    <mergeCell ref="A142:A155"/>
-    <mergeCell ref="A157:A203"/>
-    <mergeCell ref="A205:A221"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A223:A283"/>
-    <mergeCell ref="A285:A288"/>
-    <mergeCell ref="A292:A377"/>
-    <mergeCell ref="A380:A389"/>
-    <mergeCell ref="A391:A394"/>
-    <mergeCell ref="A396:A402"/>
-    <mergeCell ref="A404:A413"/>
-    <mergeCell ref="A415:A422"/>
-    <mergeCell ref="A424:A428"/>
-    <mergeCell ref="A430:A432"/>
-    <mergeCell ref="A434:A439"/>
-    <mergeCell ref="B3:B30"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B157:B179"/>
-    <mergeCell ref="B180:B184"/>
-    <mergeCell ref="B185:B194"/>
-    <mergeCell ref="B195:B203"/>
-    <mergeCell ref="B207:B215"/>
-    <mergeCell ref="B216:B221"/>
-    <mergeCell ref="B223:B225"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B240:B246"/>
-    <mergeCell ref="B248:B259"/>
-    <mergeCell ref="B260:B277"/>
-    <mergeCell ref="B278:B283"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="B292:B345"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B348:B377"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="B385:B387"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="B397:B401"/>
-    <mergeCell ref="B404:B405"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="B409:B412"/>
-    <mergeCell ref="B415:B420"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="B435:B439"/>
-    <mergeCell ref="C3:C31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C50"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C66:C72"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="C95:C108"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="C133:C140"/>
-    <mergeCell ref="C142:C155"/>
-    <mergeCell ref="C157:C203"/>
-    <mergeCell ref="C205:C221"/>
-    <mergeCell ref="C223:C229"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="C240:C283"/>
-    <mergeCell ref="C292:C377"/>
-    <mergeCell ref="C380:C383"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="C396:C402"/>
-    <mergeCell ref="C404:C408"/>
-    <mergeCell ref="C409:C413"/>
-    <mergeCell ref="C415:C422"/>
-    <mergeCell ref="C424:C425"/>
-    <mergeCell ref="C435:C439"/>
-    <mergeCell ref="B431:E431"/>
+    <mergeCell ref="C3:C32"/>
+    <mergeCell ref="B3:B31"/>
+    <mergeCell ref="A96:A110"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A124:A129"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A134:A141"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A158:A204"/>
+    <mergeCell ref="A206:A222"/>
+    <mergeCell ref="A3:A32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:A51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A224:A284"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="A293:A378"/>
+    <mergeCell ref="A381:A390"/>
+    <mergeCell ref="A392:A395"/>
+    <mergeCell ref="A397:A403"/>
+    <mergeCell ref="A405:A414"/>
+    <mergeCell ref="A416:A423"/>
+    <mergeCell ref="A425:A429"/>
+    <mergeCell ref="A431:A433"/>
+    <mergeCell ref="A435:A440"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B158:B180"/>
+    <mergeCell ref="B181:B185"/>
+    <mergeCell ref="B186:B195"/>
+    <mergeCell ref="B196:B204"/>
+    <mergeCell ref="B208:B216"/>
+    <mergeCell ref="B217:B222"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B249:B260"/>
+    <mergeCell ref="B261:B278"/>
+    <mergeCell ref="B279:B284"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="B293:B346"/>
+    <mergeCell ref="B347:B348"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B349:B378"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="B386:B388"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="B398:B402"/>
+    <mergeCell ref="B405:B406"/>
+    <mergeCell ref="B407:B408"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="B416:B421"/>
+    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="B425:B426"/>
+    <mergeCell ref="B436:B440"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C37:C51"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="C75:C81"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C96:C109"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C134:C141"/>
+    <mergeCell ref="C143:C156"/>
+    <mergeCell ref="C158:C204"/>
+    <mergeCell ref="C206:C222"/>
+    <mergeCell ref="C224:C230"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="C241:C284"/>
+    <mergeCell ref="C293:C378"/>
+    <mergeCell ref="C381:C384"/>
+    <mergeCell ref="C386:C388"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="C397:C403"/>
+    <mergeCell ref="C405:C409"/>
+    <mergeCell ref="C410:C414"/>
+    <mergeCell ref="C416:C423"/>
+    <mergeCell ref="C425:C426"/>
+    <mergeCell ref="C436:C440"/>
     <mergeCell ref="B432:E432"/>
+    <mergeCell ref="B433:E433"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/命令树-G.xlsx
+++ b/命令树-G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\2025S_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB754FA9-B9F7-4784-B35E-572BCDF1FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA9479B-06F5-4A6A-8CA8-A74343FD2749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="589">
   <si>
     <t>描述</t>
   </si>
@@ -153,9 +153,6 @@
     <t>clear</t>
   </si>
   <si>
-    <t>[&lt;intf name&gt;] count</t>
-  </si>
-  <si>
     <t>清除端口计数</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>inner-intf</t>
   </si>
   <si>
-    <t>show</t>
-  </si>
-  <si>
     <t>[slot &lt;id&gt;]</t>
   </si>
   <si>
@@ -637,9 +631,6 @@
   </si>
   <si>
     <t>规则</t>
-  </si>
-  <si>
-    <t>rule</t>
   </si>
   <si>
     <t>all</t>
@@ -1934,6 +1925,30 @@
   </si>
   <si>
     <t>&lt;intf name&gt;... rx &lt;enable|disable&gt; tx &lt;enable|disable&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过指定的动作语句, </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>## clear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>## show</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind/unbind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>## rule</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t># show</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2097,7 +2112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2111,9 +2126,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2206,6 +2218,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2213,9 +2240,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2227,17 +2251,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2245,14 +2260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2270,6 +2291,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2761,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B443" sqref="B443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -2792,911 +2816,914 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>563</v>
-      </c>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="26" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="53"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="53"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="53"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="26" t="s">
-        <v>580</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="26" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="53"/>
+      <c r="B32" s="60" t="s">
+        <v>584</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="D34" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-      <c r="B38" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-      <c r="B39" s="11" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="8" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-      <c r="B40" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="8" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="8" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E43" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="8" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="8" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E45" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="8" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="8" t="s">
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="8" t="s">
+      <c r="E50" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
-      <c r="B50" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="8" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="36" t="s">
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="14" t="s">
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="14" t="s">
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="40"/>
+      <c r="B58" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
-      <c r="B58" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="39" t="s">
+      <c r="E61" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
-      <c r="B62" s="12" t="s">
-        <v>50</v>
+      <c r="B62" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C62" s="39"/>
-      <c r="D62" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>82</v>
+      <c r="D62" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="39"/>
+      <c r="D63" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="39"/>
-      <c r="D64" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>86</v>
+      <c r="D64" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="39"/>
-      <c r="B65" s="12" t="s">
-        <v>44</v>
+      <c r="B65" s="29" t="s">
+        <v>585</v>
       </c>
       <c r="C65" s="39"/>
-      <c r="D65" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>87</v>
+      <c r="D65" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
-      <c r="B68" s="11" t="s">
-        <v>50</v>
+      <c r="B68" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C68" s="39"/>
-      <c r="D68" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>91</v>
+      <c r="D68" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
-      <c r="B69" s="37" t="s">
-        <v>83</v>
+      <c r="B69" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="C69" s="39"/>
-      <c r="D69" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>92</v>
+      <c r="D69" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
-      <c r="B70" s="38"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="39"/>
-      <c r="D70" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>94</v>
+      <c r="D70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
-      <c r="B71" s="13"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="39"/>
-      <c r="D71" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>95</v>
+      <c r="D71" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="39"/>
-      <c r="D72" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>97</v>
+      <c r="D72" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
-      <c r="B73" s="38"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="39"/>
-      <c r="D73" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>99</v>
+      <c r="D73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B75" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>102</v>
+      <c r="C75" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
-      <c r="D76" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>104</v>
+      <c r="D76" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
-      <c r="D77" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>102</v>
+      <c r="D77" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
-      <c r="D78" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="12"/>
+      <c r="D78" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="39"/>
-      <c r="B79" s="12"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="39"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
-      <c r="B80" s="39" t="s">
-        <v>44</v>
+      <c r="B80" s="49" t="s">
+        <v>585</v>
       </c>
       <c r="C80" s="39"/>
-      <c r="D80" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E80" s="12"/>
+      <c r="D80" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
-      <c r="D81" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>108</v>
+      <c r="D81" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="12"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="39"/>
-      <c r="B84" s="38"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="39"/>
-      <c r="D84" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>113</v>
+      <c r="D84" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
-      <c r="B85" s="11" t="s">
-        <v>50</v>
+      <c r="B85" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C85" s="39"/>
-      <c r="D85" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E85" s="12"/>
+      <c r="D85" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
       <c r="B86" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" s="39"/>
-      <c r="D86" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="12"/>
+      <c r="D86" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -3705,1598 +3732,1598 @@
         <v>6</v>
       </c>
       <c r="C88" s="39"/>
-      <c r="D88" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E88" s="12"/>
+      <c r="D88" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
-      <c r="D89" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>117</v>
+      <c r="D89" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="39"/>
-      <c r="B90" s="11" t="s">
-        <v>44</v>
+      <c r="B90" s="34" t="s">
+        <v>585</v>
       </c>
       <c r="C90" s="39"/>
-      <c r="D90" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E90" s="12"/>
+      <c r="D90" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>47</v>
+        <v>116</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="E92" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="39"/>
-      <c r="B93" s="11" t="s">
-        <v>50</v>
+      <c r="B93" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C93" s="39"/>
-      <c r="D93" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E93" s="12"/>
+      <c r="D93" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="39"/>
-      <c r="B94" s="11" t="s">
-        <v>83</v>
+      <c r="B94" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C94" s="39"/>
-      <c r="D94" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="E94" s="12"/>
+      <c r="D94" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="D96" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C96" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="39"/>
-      <c r="B97" s="11" t="s">
-        <v>83</v>
+      <c r="B97" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C97" s="39"/>
-      <c r="D97" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>125</v>
+      <c r="D97" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="39"/>
-      <c r="B98" s="36" t="s">
-        <v>52</v>
+      <c r="B98" s="51" t="s">
+        <v>586</v>
       </c>
       <c r="C98" s="39"/>
-      <c r="D98" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>127</v>
+      <c r="D98" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="39"/>
-      <c r="B99" s="36"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="39"/>
-      <c r="D99" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" s="8"/>
+      <c r="D99" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="39"/>
-      <c r="B100" s="36"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="39"/>
-      <c r="D100" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="8"/>
+      <c r="D100" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="39"/>
-      <c r="B101" s="36"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="39"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="39"/>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="39"/>
-      <c r="D102" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>131</v>
+      <c r="D102" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="39"/>
-      <c r="B103" s="36"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="39"/>
-      <c r="D103" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>133</v>
+      <c r="D103" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="39"/>
-      <c r="B104" s="36"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="39"/>
-      <c r="D104" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="12"/>
+      <c r="D104" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="39"/>
-      <c r="B105" s="36"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="39"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="39"/>
-      <c r="B106" s="39" t="s">
-        <v>44</v>
+      <c r="B106" s="49" t="s">
+        <v>585</v>
       </c>
       <c r="C106" s="39"/>
-      <c r="D106" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>135</v>
+      <c r="D106" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
-      <c r="D107" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>136</v>
+      <c r="D107" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
-      <c r="D108" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>138</v>
+      <c r="D108" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="39"/>
       <c r="B109" s="39"/>
       <c r="C109" s="39"/>
-      <c r="D109" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>140</v>
+      <c r="D109" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="39"/>
-      <c r="B110" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C110" s="7" t="s">
+      <c r="B110" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B112" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C112" s="36" t="s">
+      <c r="E112" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D112" s="8" t="s">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="40"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E113" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="8" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="40"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="36"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="8" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="40"/>
+      <c r="B115" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="D115" s="7"/>
+      <c r="E115" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C115" s="7" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8" t="s">
+      <c r="D116" s="7"/>
+      <c r="E116" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="7" t="s">
+    <row r="117" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8" t="s">
+      <c r="B118" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="40" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="15"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="36" t="s">
+      <c r="D118" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B118" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C118" s="36" t="s">
+      <c r="E118" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D118" s="8" t="s">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="40"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E119" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="8" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="40"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E120" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="8" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="40"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E121" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="8" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="40"/>
+      <c r="B122" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="D122" s="7"/>
+      <c r="E122" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="36"/>
-      <c r="B122" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C122" s="7" t="s">
+    <row r="123" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8" t="s">
+      <c r="B124" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="15"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="36" t="s">
+      <c r="C124" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="E124" s="11"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
+      <c r="B125" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C124" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D124" s="8" t="s">
+      <c r="C125" s="40"/>
+      <c r="D125" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E124" s="12"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="36"/>
-      <c r="B125" s="7" t="s">
+      <c r="E125" s="11"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="40"/>
+      <c r="B126" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="40"/>
+      <c r="D126" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C125" s="36"/>
-      <c r="D125" s="8" t="s">
+      <c r="E126" s="11"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="40"/>
+      <c r="B127" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="C127" s="40"/>
+      <c r="D127" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E125" s="12"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="36"/>
-      <c r="B126" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="36"/>
-      <c r="D126" s="8" t="s">
+      <c r="E127" s="11"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="40"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E126" s="12"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="36"/>
-      <c r="B127" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C127" s="36"/>
-      <c r="D127" s="8" t="s">
+      <c r="E128" s="11"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="40"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E127" s="12"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="36"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E128" s="12"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="36"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E129" s="12"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="E131" s="11"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="45"/>
+      <c r="B132" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D131" s="8" t="s">
+      <c r="C132" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E131" s="12"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="42"/>
-      <c r="B132" s="7" t="s">
+      <c r="E132" s="11"/>
+    </row>
+    <row r="133" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="14"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D132" s="8" t="s">
+      <c r="B134" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E132" s="12"/>
-    </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="15"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="36" t="s">
+      <c r="E134" s="11"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B134" s="36" t="s">
+      <c r="E135" s="11"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="40"/>
+      <c r="B136" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C134" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D134" s="8" t="s">
+      <c r="C136" s="40"/>
+      <c r="D136" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E134" s="12"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="36"/>
-      <c r="B135" s="36"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="8" t="s">
+      <c r="E136" s="11"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="40"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E135" s="12"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="36"/>
-      <c r="B136" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C136" s="36"/>
-      <c r="D136" s="12" t="s">
+      <c r="E137" s="11"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="40"/>
+      <c r="B138" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="C138" s="40"/>
+      <c r="D138" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E136" s="12"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="36"/>
-      <c r="B137" s="36"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="8" t="s">
+      <c r="E138" s="11"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="40"/>
+      <c r="B139" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="40"/>
+      <c r="D139" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E139" s="11"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="40"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E137" s="12"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="36"/>
-      <c r="B138" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C138" s="36"/>
-      <c r="D138" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E138" s="12"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="36"/>
-      <c r="B139" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" s="36"/>
-      <c r="D139" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E139" s="12"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="36"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E140" s="12"/>
+      <c r="E140" s="11"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="36"/>
-      <c r="B141" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C141" s="40"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
     </row>
     <row r="142" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="36" t="s">
+      <c r="A143" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B143" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E143" s="11"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="40"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B143" s="36" t="s">
+      <c r="E144" s="11"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="40"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E145" s="11"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="40"/>
+      <c r="B146" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C146" s="40"/>
+      <c r="D146" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E146" s="11"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="40"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D143" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E143" s="12"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E144" s="12"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="36"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="8" t="s">
+      <c r="E147" s="11"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="40"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E145" s="12"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="36"/>
-      <c r="B146" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C146" s="36"/>
-      <c r="D146" s="8" t="s">
+      <c r="E148" s="11"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="40"/>
+      <c r="B149" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="40"/>
+      <c r="D149" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E146" s="12"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="36"/>
-      <c r="B147" s="36"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E147" s="12"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="36"/>
-      <c r="B148" s="36"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="8" t="s">
+      <c r="E149" s="11"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="40"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E148" s="12"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="36"/>
-      <c r="B149" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="36"/>
-      <c r="D149" s="8" t="s">
+      <c r="E150" s="11"/>
+    </row>
+    <row r="151" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A151" s="40"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E149" s="12"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="36"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="8" t="s">
+      <c r="E151" s="11"/>
+    </row>
+    <row r="152" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+      <c r="A152" s="40"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="E152" s="11"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="40"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="E153" s="11"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="40"/>
+      <c r="B154" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="C154" s="40"/>
+      <c r="D154" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E150" s="12"/>
-    </row>
-    <row r="151" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A151" s="36"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="14" t="s">
+      <c r="E154" s="11"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="40"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E151" s="12"/>
-    </row>
-    <row r="152" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
-      <c r="A152" s="36"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="E152" s="12"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="36"/>
-      <c r="B153" s="36"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="E153" s="12"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="36"/>
-      <c r="B154" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C154" s="36"/>
-      <c r="D154" s="8" t="s">
+      <c r="E155" s="11"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="40"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E154" s="12"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="36"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E155" s="12"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="36"/>
-      <c r="B156" s="36"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E156" s="12"/>
+      <c r="E156" s="11"/>
     </row>
     <row r="157" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="158" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A158" s="36" t="s">
+      <c r="A158" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B158" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C158" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="E158" s="11"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="40"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="E159" s="11"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="40"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="E160" s="11"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="40"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="E161" s="11"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="40"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="E162" s="11"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="40"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="E163" s="11"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="40"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="E164" s="11"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="40"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="E165" s="11"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="40"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="E166" s="11"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="40"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="E167" s="11"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="40"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="E168" s="11"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="40"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="E169" s="11"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="40"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="E170" s="11"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="40"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="E171" s="11"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="40"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="E172" s="11"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="40"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="E173" s="11"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="40"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="E174" s="11"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="40"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="E175" s="11"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="40"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="E176" s="11"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="40"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="E177" s="11"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="40"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="E178" s="11"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="40"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="E179" s="11"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="40"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="E180" s="11"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="40"/>
+      <c r="B181" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C181" s="40"/>
+      <c r="D181" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" s="11"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="40"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B158" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C158" s="36" t="s">
+      <c r="E182" s="11"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="40"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D158" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="E158" s="12"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="36"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="E159" s="12"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="36"/>
-      <c r="B160" s="36"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="E160" s="12"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="36"/>
-      <c r="B161" s="36"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="E161" s="12"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="36"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="E162" s="12"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="36"/>
-      <c r="B163" s="36"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="E163" s="12"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="36"/>
-      <c r="B164" s="36"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="E164" s="12"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="36"/>
-      <c r="B165" s="36"/>
-      <c r="C165" s="36"/>
-      <c r="D165" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="E165" s="12"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="36"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="36"/>
-      <c r="D166" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="E166" s="12"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="36"/>
-      <c r="B167" s="36"/>
-      <c r="C167" s="36"/>
-      <c r="D167" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="E167" s="12"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="36"/>
-      <c r="B168" s="36"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="E168" s="12"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="36"/>
-      <c r="B169" s="36"/>
-      <c r="C169" s="36"/>
-      <c r="D169" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="E169" s="12"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="36"/>
-      <c r="B170" s="36"/>
-      <c r="C170" s="36"/>
-      <c r="D170" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="E170" s="12"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="36"/>
-      <c r="B171" s="36"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="E171" s="12"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="36"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="E172" s="12"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="36"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="E173" s="12"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="36"/>
-      <c r="B174" s="36"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="E174" s="12"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="E175" s="12"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="36"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="E176" s="12"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="36"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="36"/>
-      <c r="D177" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="E177" s="12"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="36"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="36"/>
-      <c r="D178" s="28" t="s">
+      <c r="E183" s="11"/>
+    </row>
+    <row r="184" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A184" s="40"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E184" s="11"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="40"/>
+      <c r="B185" s="40"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E185" s="11"/>
+    </row>
+    <row r="186" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+      <c r="A186" s="40"/>
+      <c r="B186" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="40"/>
+      <c r="D186" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E186" s="11"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="40"/>
+      <c r="B187" s="40"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="E178" s="12"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="36"/>
-      <c r="B179" s="36"/>
-      <c r="C179" s="36"/>
-      <c r="D179" s="28" t="s">
+      <c r="E187" s="11"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="40"/>
+      <c r="B188" s="40"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="E179" s="12"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="28" t="s">
+      <c r="E188" s="11"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="40"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="E180" s="12"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="36"/>
-      <c r="B181" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C181" s="36"/>
-      <c r="D181" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E181" s="12"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
-      <c r="C182" s="36"/>
-      <c r="D182" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E182" s="12"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="36"/>
-      <c r="D183" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E183" s="12"/>
-    </row>
-    <row r="184" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A184" s="36"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="36"/>
-      <c r="D184" s="14" t="s">
+      <c r="E189" s="11"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="40"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="E190" s="11"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="40"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E191" s="11"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="40"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="E192" s="11"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="40"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="E193" s="11"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="40"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="E194" s="11"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="40"/>
+      <c r="B195" s="40"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E184" s="12"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="36"/>
-      <c r="B185" s="36"/>
-      <c r="C185" s="36"/>
-      <c r="D185" s="8" t="s">
+      <c r="E195" s="11"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="40"/>
+      <c r="B196" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="C196" s="40"/>
+      <c r="D196" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E185" s="12"/>
-    </row>
-    <row r="186" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" s="36"/>
-      <c r="D186" s="14" t="s">
+      <c r="E196" s="11"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="40"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E186" s="12"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="36"/>
-      <c r="B187" s="36"/>
-      <c r="C187" s="36"/>
-      <c r="D187" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="E187" s="12"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="36"/>
-      <c r="B188" s="36"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E188" s="12"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="36"/>
-      <c r="B189" s="36"/>
-      <c r="C189" s="36"/>
-      <c r="D189" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="E189" s="12"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="36"/>
-      <c r="B190" s="36"/>
-      <c r="C190" s="36"/>
-      <c r="D190" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="E190" s="12"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="36"/>
-      <c r="B191" s="36"/>
-      <c r="C191" s="36"/>
-      <c r="D191" s="28" t="s">
-        <v>515</v>
-      </c>
-      <c r="E191" s="12"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="36"/>
-      <c r="B192" s="36"/>
-      <c r="C192" s="36"/>
-      <c r="D192" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="E192" s="12"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="36"/>
-      <c r="B193" s="36"/>
-      <c r="C193" s="36"/>
-      <c r="D193" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="E193" s="12"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="36"/>
-      <c r="B194" s="36"/>
-      <c r="C194" s="36"/>
-      <c r="D194" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="E194" s="12"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="36"/>
-      <c r="B195" s="36"/>
-      <c r="C195" s="36"/>
-      <c r="D195" s="8" t="s">
+      <c r="E197" s="11"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="40"/>
+      <c r="B198" s="40"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E195" s="12"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="36"/>
-      <c r="B196" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C196" s="36"/>
-      <c r="D196" s="12" t="s">
+      <c r="E198" s="11"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="40"/>
+      <c r="B199" s="40"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E196" s="12"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="36"/>
-      <c r="B197" s="36"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="12" t="s">
+      <c r="E199" s="11"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="40"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E197" s="12"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="36"/>
-      <c r="B198" s="36"/>
-      <c r="C198" s="36"/>
-      <c r="D198" s="12" t="s">
+      <c r="E200" s="11"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="40"/>
+      <c r="B201" s="40"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E198" s="12"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="36"/>
-      <c r="B199" s="36"/>
-      <c r="C199" s="36"/>
-      <c r="D199" s="12" t="s">
+      <c r="E201" s="11"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="40"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E199" s="12"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="36"/>
-      <c r="B200" s="36"/>
-      <c r="C200" s="36"/>
-      <c r="D200" s="12" t="s">
+      <c r="E202" s="11"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="40"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E200" s="12"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="36"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="36"/>
-      <c r="D201" s="8" t="s">
+      <c r="E203" s="11"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="40"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E201" s="12"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="36"/>
-      <c r="B202" s="36"/>
-      <c r="C202" s="36"/>
-      <c r="D202" s="12" t="s">
+      <c r="E204" s="11"/>
+    </row>
+    <row r="205" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E202" s="12"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="36"/>
-      <c r="B203" s="36"/>
-      <c r="C203" s="36"/>
-      <c r="D203" s="12" t="s">
+      <c r="B206" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="E203" s="12"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="36"/>
-      <c r="B204" s="36"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="12" t="s">
+      <c r="D206" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E204" s="12"/>
-    </row>
-    <row r="205" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="36" t="s">
+      <c r="E206" s="11"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="40"/>
+      <c r="B207" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C207" s="39"/>
+      <c r="D207" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E207" s="11"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="40"/>
+      <c r="B208" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="C208" s="39"/>
+      <c r="D208" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E208" s="11"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="40"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="39"/>
+      <c r="D209" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B206" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C206" s="39" t="s">
+      <c r="E209" s="11"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="40"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="39"/>
+      <c r="D210" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D206" s="8" t="s">
+      <c r="E210" s="11"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="40"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="39"/>
+      <c r="D211" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E206" s="12"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="36"/>
-      <c r="B207" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C207" s="39"/>
-      <c r="D207" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E207" s="12"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="36"/>
-      <c r="B208" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C208" s="39"/>
-      <c r="D208" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E208" s="12"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="36"/>
-      <c r="B209" s="36"/>
-      <c r="C209" s="39"/>
-      <c r="D209" s="8" t="s">
+      <c r="E211" s="11"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="40"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="39"/>
+      <c r="D212" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E209" s="12"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="36"/>
-      <c r="B210" s="36"/>
-      <c r="C210" s="39"/>
-      <c r="D210" s="8" t="s">
+      <c r="E212" s="11"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="40"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="39"/>
+      <c r="D213" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E210" s="12"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="36"/>
-      <c r="B211" s="36"/>
-      <c r="C211" s="39"/>
-      <c r="D211" s="8" t="s">
+      <c r="E213" s="11"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="40"/>
+      <c r="B214" s="40"/>
+      <c r="C214" s="39"/>
+      <c r="D214" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E211" s="12"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="36"/>
-      <c r="B212" s="36"/>
-      <c r="C212" s="39"/>
-      <c r="D212" s="8" t="s">
+      <c r="E214" s="11"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="40"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="39"/>
+      <c r="D215" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E212" s="12"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="36"/>
-      <c r="B213" s="36"/>
-      <c r="C213" s="39"/>
-      <c r="D213" s="8" t="s">
+      <c r="E215" s="11"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="40"/>
+      <c r="B216" s="40"/>
+      <c r="C216" s="39"/>
+      <c r="D216" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E213" s="12"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="36"/>
-      <c r="B214" s="36"/>
-      <c r="C214" s="39"/>
-      <c r="D214" s="8" t="s">
+      <c r="E216" s="11"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="40"/>
+      <c r="B217" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="C217" s="39"/>
+      <c r="D217" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E214" s="12"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="36"/>
-      <c r="B215" s="36"/>
-      <c r="C215" s="39"/>
-      <c r="D215" s="8" t="s">
+      <c r="E217" s="11"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="40"/>
+      <c r="B218" s="40"/>
+      <c r="C218" s="39"/>
+      <c r="D218" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E215" s="12"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="36"/>
-      <c r="B216" s="36"/>
-      <c r="C216" s="39"/>
-      <c r="D216" s="8" t="s">
+      <c r="E218" s="11"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="40"/>
+      <c r="B219" s="40"/>
+      <c r="C219" s="39"/>
+      <c r="D219" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E216" s="12"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="36"/>
-      <c r="B217" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C217" s="39"/>
-      <c r="D217" s="8" t="s">
+      <c r="E219" s="11"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="40"/>
+      <c r="B220" s="40"/>
+      <c r="C220" s="39"/>
+      <c r="D220" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E217" s="12"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="36"/>
-      <c r="B218" s="36"/>
-      <c r="C218" s="39"/>
-      <c r="D218" s="8" t="s">
+      <c r="E220" s="11"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="40"/>
+      <c r="B221" s="40"/>
+      <c r="C221" s="39"/>
+      <c r="D221" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E218" s="12"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="36"/>
-      <c r="B219" s="36"/>
-      <c r="C219" s="39"/>
-      <c r="D219" s="8" t="s">
+      <c r="E221" s="11"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="40"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="39"/>
+      <c r="D222" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E219" s="12"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="36"/>
-      <c r="B220" s="36"/>
-      <c r="C220" s="39"/>
-      <c r="D220" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E220" s="12"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="36"/>
-      <c r="B221" s="36"/>
-      <c r="C221" s="39"/>
-      <c r="D221" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E221" s="12"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="36"/>
-      <c r="B222" s="36"/>
-      <c r="C222" s="39"/>
-      <c r="D222" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E222" s="12"/>
+      <c r="E222" s="11"/>
     </row>
     <row r="223" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="9"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B224" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C224" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="D224" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="B224" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C224" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="39"/>
-      <c r="B225" s="36"/>
-      <c r="C225" s="45"/>
-      <c r="D225" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="E225" s="12" t="s">
-        <v>240</v>
+      <c r="B225" s="40"/>
+      <c r="C225" s="50"/>
+      <c r="D225" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="39"/>
-      <c r="B226" s="36"/>
-      <c r="C226" s="45"/>
-      <c r="D226" s="51" t="s">
-        <v>519</v>
-      </c>
-      <c r="E226" s="12" t="s">
-        <v>241</v>
+      <c r="B226" s="40"/>
+      <c r="C226" s="50"/>
+      <c r="D226" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="39"/>
-      <c r="B227" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C227" s="45"/>
-      <c r="D227" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E227" s="12" t="s">
-        <v>242</v>
+      <c r="B227" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C227" s="50"/>
+      <c r="D227" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="39"/>
-      <c r="B228" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C228" s="45"/>
-      <c r="D228" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="E228" s="8" t="s">
-        <v>243</v>
+      <c r="B228" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C228" s="50"/>
+      <c r="D228" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="39"/>
-      <c r="B229" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C229" s="45"/>
-      <c r="D229" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E229" s="8" t="s">
-        <v>245</v>
+      <c r="B229" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C229" s="50"/>
+      <c r="D229" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="39"/>
-      <c r="B230" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C230" s="38"/>
-      <c r="D230" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>247</v>
+      <c r="B230" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C230" s="42"/>
+      <c r="D230" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="39"/>
-      <c r="B231" s="36" t="s">
-        <v>248</v>
+      <c r="B231" s="40" t="s">
+        <v>245</v>
       </c>
       <c r="C231" s="39"/>
       <c r="D231" s="39"/>
-      <c r="E231" s="12"/>
+      <c r="E231" s="11"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="39"/>
-      <c r="B232" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C232" s="36"/>
-      <c r="D232" s="34" t="s">
-        <v>548</v>
-      </c>
-      <c r="E232" s="12"/>
+      <c r="B232" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C232" s="40"/>
+      <c r="D232" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E232" s="11"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="39"/>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C233" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>251</v>
+      <c r="C233" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="D233" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="39"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="16"/>
-      <c r="E234" s="12"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="11"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="39"/>
-      <c r="B235" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="C235" s="36"/>
-      <c r="D235" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="E235" s="12"/>
+      <c r="B235" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C235" s="40"/>
+      <c r="D235" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="E235" s="11"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="39"/>
-      <c r="B236" s="36" t="s">
+      <c r="B236" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C236" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="D236" s="34" t="s">
-        <v>521</v>
-      </c>
-      <c r="E236" s="18" t="s">
-        <v>253</v>
+      <c r="C236" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="D236" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="E236" s="17" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="39"/>
-      <c r="B237" s="36"/>
-      <c r="C237" s="38"/>
-      <c r="D237" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="E237" s="7"/>
+      <c r="B237" s="40"/>
+      <c r="C237" s="42"/>
+      <c r="D237" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="E237" s="6"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="39"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="16"/>
-      <c r="E238" s="12"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="11"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="39"/>
-      <c r="B239" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C239" s="36"/>
-      <c r="D239" s="34" t="s">
-        <v>558</v>
-      </c>
-      <c r="E239" s="12"/>
+      <c r="B239" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C239" s="40"/>
+      <c r="D239" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="E239" s="11"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="39"/>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C240" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="D240" s="34" t="s">
-        <v>521</v>
-      </c>
-      <c r="E240" s="12" t="s">
-        <v>253</v>
+      <c r="C240" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="D240" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="39"/>
       <c r="B241" s="39"/>
-      <c r="C241" s="46" t="s">
-        <v>523</v>
-      </c>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
+      <c r="C241" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="39"/>
       <c r="B242" s="39"/>
       <c r="C242" s="39"/>
-      <c r="D242" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="E242" s="12"/>
+      <c r="D242" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E242" s="11"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="39"/>
       <c r="B243" s="39"/>
       <c r="C243" s="39"/>
-      <c r="D243" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E243" s="18" t="s">
-        <v>256</v>
+      <c r="D243" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E243" s="17" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="39"/>
       <c r="B244" s="39"/>
       <c r="C244" s="39"/>
-      <c r="D244" s="49" t="s">
-        <v>528</v>
-      </c>
-      <c r="E244" s="18" t="s">
-        <v>257</v>
+      <c r="D244" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="E244" s="17" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="39"/>
       <c r="B245" s="39"/>
       <c r="C245" s="39"/>
-      <c r="D245" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E245" s="19" t="s">
-        <v>259</v>
+      <c r="D245" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E245" s="18" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="39"/>
       <c r="B246" s="39"/>
       <c r="C246" s="39"/>
-      <c r="D246" s="49" t="s">
-        <v>529</v>
-      </c>
-      <c r="E246" s="19" t="s">
-        <v>260</v>
+      <c r="D246" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="E246" s="18" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="39"/>
       <c r="B247" s="39"/>
       <c r="C247" s="39"/>
-      <c r="D247" s="30" t="s">
-        <v>545</v>
-      </c>
-      <c r="E247" s="12"/>
+      <c r="D247" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="E247" s="11"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="39"/>
-      <c r="B248" s="11" t="s">
-        <v>52</v>
+      <c r="B248" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C248" s="39"/>
-      <c r="D248" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E248" s="12" t="s">
-        <v>262</v>
+      <c r="D248" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -5305,117 +5332,117 @@
         <v>6</v>
       </c>
       <c r="C249" s="39"/>
-      <c r="D249" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E249" s="12" t="s">
-        <v>264</v>
+      <c r="D249" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="39"/>
       <c r="B250" s="39"/>
       <c r="C250" s="39"/>
-      <c r="D250" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E250" s="12"/>
+      <c r="D250" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E250" s="11"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="39"/>
       <c r="B251" s="39"/>
       <c r="C251" s="39"/>
-      <c r="D251" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="E251" s="12" t="s">
-        <v>267</v>
+      <c r="D251" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="39"/>
       <c r="B252" s="39"/>
       <c r="C252" s="39"/>
-      <c r="D252" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="E252" s="12" t="s">
-        <v>268</v>
+      <c r="D252" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="39"/>
       <c r="B253" s="39"/>
       <c r="C253" s="39"/>
-      <c r="D253" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="E253" s="12" t="s">
-        <v>269</v>
+      <c r="D253" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="39"/>
       <c r="B254" s="39"/>
       <c r="C254" s="39"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="39"/>
       <c r="B255" s="39"/>
       <c r="C255" s="39"/>
-      <c r="D255" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="E255" s="8"/>
+      <c r="D255" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="E255" s="7"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="39"/>
       <c r="B256" s="39"/>
       <c r="C256" s="39"/>
-      <c r="D256" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E256" s="8" t="s">
-        <v>271</v>
+      <c r="D256" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E256" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="39"/>
       <c r="B257" s="39"/>
       <c r="C257" s="39"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="12"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="39"/>
       <c r="B258" s="39"/>
       <c r="C258" s="39"/>
-      <c r="D258" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="E258" s="12"/>
+      <c r="D258" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="E258" s="11"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="39"/>
       <c r="B259" s="39"/>
       <c r="C259" s="39"/>
-      <c r="D259" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="E259" s="12" t="s">
-        <v>272</v>
+      <c r="D259" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="39"/>
       <c r="B260" s="39"/>
       <c r="C260" s="39"/>
-      <c r="D260" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E260" s="12"/>
+      <c r="D260" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E260" s="11"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="39"/>
@@ -5423,1785 +5450,1785 @@
         <v>6</v>
       </c>
       <c r="C261" s="39"/>
-      <c r="D261" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="E261" s="12" t="s">
-        <v>274</v>
+      <c r="D261" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="39"/>
       <c r="B262" s="39"/>
       <c r="C262" s="39"/>
-      <c r="D262" s="49" t="s">
-        <v>533</v>
-      </c>
-      <c r="E262" s="19" t="s">
-        <v>275</v>
+      <c r="D262" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="E262" s="18" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="39"/>
       <c r="B263" s="39"/>
       <c r="C263" s="39"/>
-      <c r="D263" s="49" t="s">
-        <v>534</v>
-      </c>
-      <c r="E263" s="18" t="s">
-        <v>276</v>
+      <c r="D263" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="E263" s="17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="39"/>
       <c r="B264" s="39"/>
       <c r="C264" s="39"/>
-      <c r="D264" s="12"/>
-      <c r="E264" s="12"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="39"/>
       <c r="B265" s="39"/>
       <c r="C265" s="39"/>
-      <c r="D265" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="E265" s="12"/>
+      <c r="D265" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="E265" s="11"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="39"/>
       <c r="B266" s="39"/>
       <c r="C266" s="39"/>
-      <c r="D266" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="E266" s="12" t="s">
-        <v>277</v>
+      <c r="D266" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="39"/>
       <c r="B267" s="39"/>
       <c r="C267" s="39"/>
-      <c r="D267" s="30" t="s">
-        <v>552</v>
-      </c>
-      <c r="E267" s="12"/>
+      <c r="D267" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="E267" s="11"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="39"/>
       <c r="B268" s="39"/>
       <c r="C268" s="39"/>
-      <c r="D268" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="E268" s="12" t="s">
-        <v>278</v>
+      <c r="D268" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A269" s="39"/>
       <c r="B269" s="39"/>
       <c r="C269" s="39"/>
-      <c r="D269" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E269" s="12" t="s">
-        <v>280</v>
+      <c r="D269" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="39"/>
       <c r="B270" s="39"/>
       <c r="C270" s="39"/>
-      <c r="D270" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E270" s="12" t="s">
-        <v>282</v>
+      <c r="D270" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="39"/>
       <c r="B271" s="39"/>
       <c r="C271" s="39"/>
-      <c r="D271" s="30" t="s">
-        <v>553</v>
-      </c>
-      <c r="E271" s="12"/>
+      <c r="D271" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="E271" s="11"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="39"/>
       <c r="B272" s="39"/>
       <c r="C272" s="39"/>
-      <c r="D272" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="E272" s="12" t="s">
-        <v>283</v>
+      <c r="D272" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="39"/>
       <c r="B273" s="39"/>
       <c r="C273" s="39"/>
-      <c r="D273" s="12"/>
-      <c r="E273" s="12"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="39"/>
       <c r="B274" s="39"/>
       <c r="C274" s="39"/>
-      <c r="D274" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="E274" s="12" t="s">
-        <v>284</v>
+      <c r="D274" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="39"/>
       <c r="B275" s="39"/>
       <c r="C275" s="39"/>
-      <c r="D275" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E275" s="8" t="s">
-        <v>286</v>
+      <c r="D275" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="39"/>
       <c r="B276" s="39"/>
       <c r="C276" s="39"/>
-      <c r="D276" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E276" s="12" t="s">
-        <v>288</v>
+      <c r="D276" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="39"/>
       <c r="B277" s="39"/>
       <c r="C277" s="39"/>
-      <c r="D277" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="E277" s="12" t="s">
-        <v>289</v>
+      <c r="D277" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="39"/>
       <c r="B278" s="39"/>
       <c r="C278" s="39"/>
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="39"/>
-      <c r="B279" s="36" t="s">
-        <v>44</v>
+      <c r="B279" s="51" t="s">
+        <v>585</v>
       </c>
       <c r="C279" s="39"/>
-      <c r="D279" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E279" s="12"/>
+      <c r="D279" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E279" s="11"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="39"/>
-      <c r="B280" s="36"/>
+      <c r="B280" s="40"/>
       <c r="C280" s="39"/>
-      <c r="D280" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E280" s="12"/>
+      <c r="D280" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E280" s="11"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="39"/>
-      <c r="B281" s="36"/>
+      <c r="B281" s="40"/>
       <c r="C281" s="39"/>
-      <c r="D281" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E281" s="12"/>
+      <c r="D281" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E281" s="11"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="39"/>
-      <c r="B282" s="36"/>
+      <c r="B282" s="40"/>
       <c r="C282" s="39"/>
-      <c r="D282" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E282" s="12"/>
+      <c r="D282" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E282" s="11"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="39"/>
-      <c r="B283" s="36"/>
+      <c r="B283" s="40"/>
       <c r="C283" s="39"/>
-      <c r="D283" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E283" s="12"/>
+      <c r="D283" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E283" s="11"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="39"/>
-      <c r="B284" s="36"/>
+      <c r="B284" s="40"/>
       <c r="C284" s="39"/>
-      <c r="D284" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E284" s="12"/>
+      <c r="D284" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E284" s="11"/>
     </row>
     <row r="285" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="36" t="s">
+      <c r="A286" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="B286" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
+    </row>
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="40"/>
+      <c r="B287" s="40"/>
+      <c r="C287" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D287" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B286" s="36" t="s">
+      <c r="E287" s="11"/>
+    </row>
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="40"/>
+      <c r="B288" s="40"/>
+      <c r="C288" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C286" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D286" s="12"/>
-      <c r="E286" s="12"/>
-    </row>
-    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="36"/>
-      <c r="B287" s="36"/>
-      <c r="C287" s="7" t="s">
+      <c r="D288" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E288" s="11"/>
+    </row>
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="40"/>
+      <c r="B289" s="40"/>
+      <c r="C289" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D287" s="8" t="s">
+      <c r="D289" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E289" s="29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="8"/>
+    </row>
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E287" s="12"/>
-    </row>
-    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="36"/>
-      <c r="B288" s="36"/>
-      <c r="C288" s="7" t="s">
+      <c r="B291" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D288" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E288" s="12"/>
-    </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="36"/>
-      <c r="B289" s="36"/>
-      <c r="C289" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D289" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="E289" s="30" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="9"/>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
-    </row>
-    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D291" s="12"/>
-      <c r="E291" s="12"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
     </row>
     <row r="292" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="9"/>
-      <c r="B292" s="9"/>
-      <c r="C292" s="9"/>
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
     </row>
     <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="B293" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C293" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="D293" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="E293" s="12"/>
+      <c r="C293" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="D293" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="E293" s="11"/>
     </row>
     <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="39"/>
-      <c r="B294" s="45"/>
-      <c r="C294" s="45"/>
-      <c r="D294" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="E294" s="12" t="s">
-        <v>305</v>
+      <c r="B294" s="50"/>
+      <c r="C294" s="50"/>
+      <c r="D294" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="44.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="39"/>
-      <c r="B295" s="45"/>
-      <c r="C295" s="45"/>
-      <c r="D295" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="E295" s="33" t="s">
-        <v>496</v>
+      <c r="B295" s="50"/>
+      <c r="C295" s="50"/>
+      <c r="D295" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="E295" s="32" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="39"/>
-      <c r="B296" s="45"/>
-      <c r="C296" s="45"/>
-      <c r="D296" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="E296" s="12" t="s">
-        <v>306</v>
+      <c r="B296" s="50"/>
+      <c r="C296" s="50"/>
+      <c r="D296" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="39"/>
-      <c r="B297" s="45"/>
-      <c r="C297" s="45"/>
-      <c r="D297" s="12"/>
-      <c r="E297" s="12"/>
+      <c r="B297" s="50"/>
+      <c r="C297" s="50"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="39"/>
-      <c r="B298" s="45"/>
-      <c r="C298" s="45"/>
-      <c r="D298" s="30" t="s">
-        <v>493</v>
-      </c>
-      <c r="E298" s="12" t="s">
-        <v>307</v>
+      <c r="B298" s="50"/>
+      <c r="C298" s="50"/>
+      <c r="D298" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="39"/>
-      <c r="B299" s="45"/>
-      <c r="C299" s="45"/>
-      <c r="D299" s="12"/>
-      <c r="E299" s="12"/>
+      <c r="B299" s="50"/>
+      <c r="C299" s="50"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="39"/>
-      <c r="B300" s="45"/>
-      <c r="C300" s="45"/>
-      <c r="D300" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E300" s="12" t="s">
-        <v>308</v>
+      <c r="B300" s="50"/>
+      <c r="C300" s="50"/>
+      <c r="D300" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="39"/>
-      <c r="B301" s="45"/>
-      <c r="C301" s="45"/>
-      <c r="D301" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="E301" s="12" t="s">
-        <v>309</v>
+      <c r="B301" s="50"/>
+      <c r="C301" s="50"/>
+      <c r="D301" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="E301" s="11" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="39"/>
-      <c r="B302" s="45"/>
-      <c r="C302" s="45"/>
-      <c r="D302" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="E302" s="12" t="s">
-        <v>311</v>
+      <c r="B302" s="50"/>
+      <c r="C302" s="50"/>
+      <c r="D302" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="39"/>
-      <c r="B303" s="45"/>
-      <c r="C303" s="45"/>
-      <c r="D303" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E303" s="8" t="s">
-        <v>313</v>
+      <c r="B303" s="50"/>
+      <c r="C303" s="50"/>
+      <c r="D303" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E303" s="7" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="39"/>
-      <c r="B304" s="45"/>
-      <c r="C304" s="45"/>
-      <c r="D304" s="12"/>
-      <c r="E304" s="12"/>
+      <c r="B304" s="50"/>
+      <c r="C304" s="50"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="39"/>
-      <c r="B305" s="45"/>
-      <c r="C305" s="45"/>
-      <c r="D305" s="30" t="s">
-        <v>491</v>
-      </c>
-      <c r="E305" s="12" t="s">
-        <v>314</v>
+      <c r="B305" s="50"/>
+      <c r="C305" s="50"/>
+      <c r="D305" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="39"/>
-      <c r="B306" s="45"/>
-      <c r="C306" s="45"/>
-      <c r="D306" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="E306" s="8" t="s">
-        <v>315</v>
+      <c r="B306" s="50"/>
+      <c r="C306" s="50"/>
+      <c r="D306" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="39"/>
-      <c r="B307" s="45"/>
-      <c r="C307" s="45"/>
-      <c r="D307" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E307" s="12" t="s">
-        <v>317</v>
+      <c r="B307" s="50"/>
+      <c r="C307" s="50"/>
+      <c r="D307" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="39"/>
-      <c r="B308" s="45"/>
-      <c r="C308" s="45"/>
-      <c r="D308" s="12"/>
-      <c r="E308" s="12"/>
+      <c r="B308" s="50"/>
+      <c r="C308" s="50"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="39"/>
-      <c r="B309" s="45"/>
-      <c r="C309" s="45"/>
-      <c r="D309" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="E309" s="12" t="s">
-        <v>318</v>
+      <c r="B309" s="50"/>
+      <c r="C309" s="50"/>
+      <c r="D309" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="E309" s="11" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="39"/>
-      <c r="B310" s="45"/>
-      <c r="C310" s="45"/>
-      <c r="D310" s="12"/>
-      <c r="E310" s="12"/>
+      <c r="B310" s="50"/>
+      <c r="C310" s="50"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="39"/>
-      <c r="B311" s="45"/>
-      <c r="C311" s="45"/>
-      <c r="D311" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E311" s="8" t="s">
-        <v>320</v>
+      <c r="B311" s="50"/>
+      <c r="C311" s="50"/>
+      <c r="D311" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E311" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="39"/>
-      <c r="B312" s="45"/>
-      <c r="C312" s="45"/>
-      <c r="D312" s="12"/>
-      <c r="E312" s="12"/>
+      <c r="B312" s="50"/>
+      <c r="C312" s="50"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="39"/>
-      <c r="B313" s="45"/>
-      <c r="C313" s="45"/>
-      <c r="D313" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="E313" s="12"/>
+      <c r="B313" s="50"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E313" s="11"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="39"/>
-      <c r="B314" s="45"/>
-      <c r="C314" s="45"/>
-      <c r="D314" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="E314" s="21" t="s">
-        <v>321</v>
+      <c r="B314" s="50"/>
+      <c r="C314" s="50"/>
+      <c r="D314" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="E314" s="20" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="39"/>
-      <c r="B315" s="45"/>
-      <c r="C315" s="45"/>
-      <c r="D315" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E315" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="F315" s="22" t="s">
-        <v>324</v>
+      <c r="B315" s="50"/>
+      <c r="C315" s="50"/>
+      <c r="D315" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E315" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="F315" s="21" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="39"/>
-      <c r="B316" s="45"/>
-      <c r="C316" s="45"/>
-      <c r="D316" s="12"/>
-      <c r="E316" s="12"/>
+      <c r="B316" s="50"/>
+      <c r="C316" s="50"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="39"/>
-      <c r="B317" s="45"/>
-      <c r="C317" s="45"/>
-      <c r="D317" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="E317" s="12"/>
+      <c r="B317" s="50"/>
+      <c r="C317" s="50"/>
+      <c r="D317" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="E317" s="11"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="39"/>
-      <c r="B318" s="45"/>
-      <c r="C318" s="45"/>
-      <c r="D318" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E318" s="8" t="s">
-        <v>326</v>
+      <c r="B318" s="50"/>
+      <c r="C318" s="50"/>
+      <c r="D318" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="39"/>
-      <c r="B319" s="45"/>
-      <c r="C319" s="45"/>
-      <c r="D319" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E319" s="8" t="s">
-        <v>328</v>
+      <c r="B319" s="50"/>
+      <c r="C319" s="50"/>
+      <c r="D319" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E319" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="39"/>
-      <c r="B320" s="45"/>
-      <c r="C320" s="45"/>
-      <c r="D320" s="8"/>
-      <c r="E320" s="12"/>
+      <c r="B320" s="50"/>
+      <c r="C320" s="50"/>
+      <c r="D320" s="7"/>
+      <c r="E320" s="11"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="39"/>
-      <c r="B321" s="45"/>
-      <c r="C321" s="45"/>
-      <c r="D321" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="E321" s="23"/>
+      <c r="B321" s="50"/>
+      <c r="C321" s="50"/>
+      <c r="D321" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="E321" s="22"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="39"/>
-      <c r="B322" s="45"/>
-      <c r="C322" s="45"/>
-      <c r="D322" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E322" s="17" t="s">
-        <v>329</v>
+      <c r="B322" s="50"/>
+      <c r="C322" s="50"/>
+      <c r="D322" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="E322" s="16" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="39"/>
-      <c r="B323" s="45"/>
-      <c r="C323" s="45"/>
-      <c r="D323" s="8"/>
-      <c r="E323" s="12"/>
+      <c r="B323" s="50"/>
+      <c r="C323" s="50"/>
+      <c r="D323" s="7"/>
+      <c r="E323" s="11"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="39"/>
-      <c r="B324" s="45"/>
-      <c r="C324" s="45"/>
-      <c r="D324" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="E324" s="12"/>
+      <c r="B324" s="50"/>
+      <c r="C324" s="50"/>
+      <c r="D324" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="E324" s="11"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="39"/>
-      <c r="B325" s="45"/>
-      <c r="C325" s="45"/>
-      <c r="D325" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="E325" s="12"/>
+      <c r="B325" s="50"/>
+      <c r="C325" s="50"/>
+      <c r="D325" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E325" s="11"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="39"/>
-      <c r="B326" s="45"/>
-      <c r="C326" s="45"/>
-      <c r="D326" s="12"/>
-      <c r="E326" s="12"/>
+      <c r="B326" s="50"/>
+      <c r="C326" s="50"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
     </row>
     <row r="327" spans="1:6" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A327" s="39"/>
-      <c r="B327" s="45"/>
-      <c r="C327" s="45"/>
-      <c r="D327" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="E327" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F327" s="25" t="s">
-        <v>331</v>
+      <c r="B327" s="50"/>
+      <c r="C327" s="50"/>
+      <c r="D327" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="E327" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F327" s="24" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="39"/>
-      <c r="B328" s="45"/>
-      <c r="C328" s="45"/>
-      <c r="D328" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E328" s="14" t="s">
-        <v>333</v>
+      <c r="B328" s="50"/>
+      <c r="C328" s="50"/>
+      <c r="D328" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E328" s="13" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="39"/>
-      <c r="B329" s="45"/>
-      <c r="C329" s="45"/>
-      <c r="D329" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="E329" s="14" t="s">
-        <v>335</v>
+      <c r="B329" s="50"/>
+      <c r="C329" s="50"/>
+      <c r="D329" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E329" s="13" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="39"/>
-      <c r="B330" s="45"/>
-      <c r="C330" s="45"/>
-      <c r="D330" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="E330" s="14" t="s">
-        <v>337</v>
+      <c r="B330" s="50"/>
+      <c r="C330" s="50"/>
+      <c r="D330" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E330" s="13" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="39"/>
-      <c r="B331" s="45"/>
-      <c r="C331" s="45"/>
-      <c r="D331" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="E331" s="24" t="s">
-        <v>339</v>
+      <c r="B331" s="50"/>
+      <c r="C331" s="50"/>
+      <c r="D331" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E331" s="23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="39"/>
-      <c r="B332" s="45"/>
-      <c r="C332" s="45"/>
-      <c r="D332" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="E332" s="8" t="s">
-        <v>340</v>
+      <c r="B332" s="50"/>
+      <c r="C332" s="50"/>
+      <c r="D332" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="E332" s="7" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="39"/>
-      <c r="B333" s="45"/>
-      <c r="C333" s="45"/>
-      <c r="D333" s="12"/>
-      <c r="E333" s="12"/>
+      <c r="B333" s="50"/>
+      <c r="C333" s="50"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="39"/>
-      <c r="B334" s="45"/>
-      <c r="C334" s="45"/>
-      <c r="D334" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E334" s="14" t="s">
-        <v>342</v>
+      <c r="B334" s="50"/>
+      <c r="C334" s="50"/>
+      <c r="D334" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E334" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="39"/>
-      <c r="B335" s="45"/>
-      <c r="C335" s="45"/>
-      <c r="D335" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="E335" s="8" t="s">
-        <v>343</v>
+      <c r="B335" s="50"/>
+      <c r="C335" s="50"/>
+      <c r="D335" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="E335" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="39"/>
-      <c r="B336" s="45"/>
-      <c r="C336" s="45"/>
-      <c r="D336" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="E336" s="14" t="s">
-        <v>345</v>
+      <c r="B336" s="50"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E336" s="13" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="39"/>
-      <c r="B337" s="45"/>
-      <c r="C337" s="45"/>
-      <c r="D337" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="E337" s="14" t="s">
-        <v>347</v>
+      <c r="B337" s="50"/>
+      <c r="C337" s="50"/>
+      <c r="D337" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E337" s="13" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="39"/>
-      <c r="B338" s="45"/>
-      <c r="C338" s="45"/>
-      <c r="D338" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="E338" s="8" t="s">
-        <v>343</v>
+      <c r="B338" s="50"/>
+      <c r="C338" s="50"/>
+      <c r="D338" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="E338" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="39"/>
-      <c r="B339" s="45"/>
-      <c r="C339" s="45"/>
-      <c r="D339" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="E339" s="12" t="s">
-        <v>349</v>
+      <c r="B339" s="50"/>
+      <c r="C339" s="50"/>
+      <c r="D339" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="39"/>
-      <c r="B340" s="45"/>
-      <c r="C340" s="45"/>
-      <c r="D340" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="E340" s="14" t="s">
-        <v>351</v>
+      <c r="B340" s="50"/>
+      <c r="C340" s="50"/>
+      <c r="D340" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E340" s="13" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="39"/>
-      <c r="B341" s="45"/>
-      <c r="C341" s="45"/>
-      <c r="D341" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="E341" s="14" t="s">
-        <v>352</v>
+      <c r="B341" s="50"/>
+      <c r="C341" s="50"/>
+      <c r="D341" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="E341" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="39"/>
-      <c r="B342" s="45"/>
-      <c r="C342" s="45"/>
-      <c r="D342" s="12"/>
-      <c r="E342" s="12"/>
+      <c r="B342" s="50"/>
+      <c r="C342" s="50"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="39"/>
-      <c r="B343" s="45"/>
-      <c r="C343" s="45"/>
-      <c r="D343" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="E343" s="12" t="s">
-        <v>354</v>
+      <c r="B343" s="50"/>
+      <c r="C343" s="50"/>
+      <c r="D343" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="39"/>
-      <c r="B344" s="45"/>
-      <c r="C344" s="45"/>
-      <c r="D344" s="12"/>
-      <c r="E344" s="12"/>
+      <c r="B344" s="50"/>
+      <c r="C344" s="50"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="39"/>
-      <c r="B345" s="45"/>
-      <c r="C345" s="45"/>
-      <c r="D345" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="E345" s="8" t="s">
-        <v>355</v>
+      <c r="B345" s="50"/>
+      <c r="C345" s="50"/>
+      <c r="D345" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="E345" s="7" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="39"/>
-      <c r="B346" s="38"/>
-      <c r="C346" s="45"/>
-      <c r="D346" s="12"/>
-      <c r="E346" s="12"/>
+      <c r="B346" s="42"/>
+      <c r="C346" s="50"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="11"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="39"/>
-      <c r="B347" s="41" t="s">
+      <c r="B347" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C347" s="45"/>
-      <c r="D347" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E347" s="8" t="s">
-        <v>357</v>
+      <c r="C347" s="50"/>
+      <c r="D347" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E347" s="7" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="39"/>
-      <c r="B348" s="42"/>
-      <c r="C348" s="45"/>
-      <c r="D348" s="8"/>
-      <c r="E348" s="8"/>
+      <c r="B348" s="45"/>
+      <c r="C348" s="50"/>
+      <c r="D348" s="7"/>
+      <c r="E348" s="7"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="39"/>
-      <c r="B349" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C349" s="45"/>
-      <c r="D349" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E349" s="8" t="s">
-        <v>359</v>
+      <c r="B349" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="C349" s="50"/>
+      <c r="D349" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E349" s="7" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="39"/>
-      <c r="B350" s="36"/>
-      <c r="C350" s="45"/>
-      <c r="D350" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="E350" s="8" t="s">
-        <v>361</v>
+      <c r="B350" s="40"/>
+      <c r="C350" s="50"/>
+      <c r="D350" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E350" s="7" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="39"/>
-      <c r="B351" s="36"/>
-      <c r="C351" s="45"/>
-      <c r="D351" s="8" t="s">
-        <v>362</v>
+      <c r="B351" s="40"/>
+      <c r="C351" s="50"/>
+      <c r="D351" s="7" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="39"/>
-      <c r="B352" s="36"/>
-      <c r="C352" s="45"/>
-      <c r="D352" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E352" s="8" t="s">
-        <v>364</v>
+      <c r="B352" s="40"/>
+      <c r="C352" s="50"/>
+      <c r="D352" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E352" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="39"/>
-      <c r="B353" s="36"/>
-      <c r="C353" s="45"/>
-      <c r="D353" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E353" s="12"/>
+      <c r="B353" s="40"/>
+      <c r="C353" s="50"/>
+      <c r="D353" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E353" s="11"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="39"/>
-      <c r="B354" s="36"/>
-      <c r="C354" s="45"/>
-      <c r="D354" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="E354" s="12"/>
+      <c r="B354" s="40"/>
+      <c r="C354" s="50"/>
+      <c r="D354" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E354" s="11"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="39"/>
-      <c r="B355" s="36"/>
-      <c r="C355" s="45"/>
-      <c r="D355" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E355" s="12"/>
+      <c r="B355" s="40"/>
+      <c r="C355" s="50"/>
+      <c r="D355" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E355" s="11"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="39"/>
-      <c r="B356" s="36"/>
-      <c r="C356" s="45"/>
-      <c r="D356" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E356" s="12"/>
+      <c r="B356" s="40"/>
+      <c r="C356" s="50"/>
+      <c r="D356" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E356" s="11"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="39"/>
-      <c r="B357" s="36"/>
-      <c r="C357" s="45"/>
-      <c r="D357" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E357" s="8" t="s">
-        <v>369</v>
+      <c r="B357" s="40"/>
+      <c r="C357" s="50"/>
+      <c r="D357" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E357" s="7" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="39"/>
-      <c r="B358" s="36"/>
-      <c r="C358" s="45"/>
-      <c r="D358" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="E358" s="8" t="s">
-        <v>370</v>
+      <c r="B358" s="40"/>
+      <c r="C358" s="50"/>
+      <c r="D358" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="E358" s="7" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="39"/>
-      <c r="B359" s="36"/>
-      <c r="C359" s="45"/>
-      <c r="D359" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="E359" s="8"/>
+      <c r="B359" s="40"/>
+      <c r="C359" s="50"/>
+      <c r="D359" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="E359" s="7"/>
     </row>
     <row r="360" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="39"/>
-      <c r="B360" s="36"/>
-      <c r="C360" s="45"/>
-      <c r="D360" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="E360" s="8"/>
+      <c r="B360" s="40"/>
+      <c r="C360" s="50"/>
+      <c r="D360" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E360" s="7"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="39"/>
-      <c r="B361" s="36"/>
-      <c r="C361" s="45"/>
-      <c r="D361" s="8"/>
-      <c r="E361" s="8"/>
+      <c r="B361" s="40"/>
+      <c r="C361" s="50"/>
+      <c r="D361" s="7"/>
+      <c r="E361" s="7"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="39"/>
-      <c r="B362" s="36"/>
-      <c r="C362" s="45"/>
-      <c r="D362" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E362" s="8" t="s">
-        <v>372</v>
+      <c r="B362" s="40"/>
+      <c r="C362" s="50"/>
+      <c r="D362" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E362" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="39"/>
-      <c r="B363" s="36"/>
-      <c r="C363" s="45"/>
-      <c r="D363" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E363" s="8" t="s">
-        <v>374</v>
+      <c r="B363" s="40"/>
+      <c r="C363" s="50"/>
+      <c r="D363" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E363" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="39"/>
-      <c r="B364" s="36"/>
-      <c r="C364" s="45"/>
-      <c r="D364" s="8"/>
-      <c r="E364" s="12"/>
+      <c r="B364" s="40"/>
+      <c r="C364" s="50"/>
+      <c r="D364" s="7"/>
+      <c r="E364" s="11"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="39"/>
-      <c r="B365" s="36"/>
-      <c r="C365" s="45"/>
-      <c r="D365" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E365" s="12"/>
+      <c r="B365" s="40"/>
+      <c r="C365" s="50"/>
+      <c r="D365" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E365" s="11"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="39"/>
-      <c r="B366" s="36"/>
-      <c r="C366" s="45"/>
-      <c r="D366" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E366" s="8" t="s">
-        <v>376</v>
+      <c r="B366" s="40"/>
+      <c r="C366" s="50"/>
+      <c r="D366" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E366" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="39"/>
-      <c r="B367" s="36"/>
-      <c r="C367" s="45"/>
-      <c r="D367" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E367" s="8" t="s">
-        <v>378</v>
+      <c r="B367" s="40"/>
+      <c r="C367" s="50"/>
+      <c r="D367" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E367" s="7" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="39"/>
-      <c r="B368" s="36"/>
-      <c r="C368" s="45"/>
-      <c r="D368" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E368" s="12"/>
+      <c r="B368" s="40"/>
+      <c r="C368" s="50"/>
+      <c r="D368" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E368" s="11"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="39"/>
-      <c r="B369" s="36"/>
-      <c r="C369" s="45"/>
-      <c r="D369" s="8"/>
-      <c r="E369" s="8"/>
+      <c r="B369" s="40"/>
+      <c r="C369" s="50"/>
+      <c r="D369" s="7"/>
+      <c r="E369" s="7"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="39"/>
-      <c r="B370" s="36"/>
-      <c r="C370" s="45"/>
-      <c r="D370" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E370" s="8" t="s">
-        <v>273</v>
+      <c r="B370" s="40"/>
+      <c r="C370" s="50"/>
+      <c r="D370" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E370" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="39"/>
-      <c r="B371" s="36"/>
-      <c r="C371" s="45"/>
-      <c r="D371" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E371" s="12" t="s">
-        <v>382</v>
+      <c r="B371" s="40"/>
+      <c r="C371" s="50"/>
+      <c r="D371" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="39"/>
-      <c r="B372" s="36"/>
-      <c r="C372" s="45"/>
-      <c r="D372" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E372" s="12" t="s">
-        <v>384</v>
+      <c r="B372" s="40"/>
+      <c r="C372" s="50"/>
+      <c r="D372" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="39"/>
-      <c r="B373" s="36"/>
-      <c r="C373" s="45"/>
-      <c r="D373" s="8"/>
-      <c r="E373" s="12"/>
+      <c r="B373" s="40"/>
+      <c r="C373" s="50"/>
+      <c r="D373" s="7"/>
+      <c r="E373" s="11"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="39"/>
-      <c r="B374" s="36"/>
-      <c r="C374" s="45"/>
-      <c r="D374" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E374" s="12"/>
+      <c r="B374" s="40"/>
+      <c r="C374" s="50"/>
+      <c r="D374" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E374" s="11"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="39"/>
-      <c r="B375" s="36"/>
-      <c r="C375" s="45"/>
-      <c r="D375" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E375" s="12"/>
+      <c r="B375" s="40"/>
+      <c r="C375" s="50"/>
+      <c r="D375" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E375" s="11"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="39"/>
-      <c r="B376" s="36"/>
-      <c r="C376" s="45"/>
-      <c r="D376" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E376" s="8" t="s">
-        <v>387</v>
+      <c r="B376" s="40"/>
+      <c r="C376" s="50"/>
+      <c r="D376" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E376" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="39"/>
-      <c r="B377" s="36"/>
-      <c r="C377" s="45"/>
-      <c r="D377" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E377" s="12"/>
+      <c r="B377" s="40"/>
+      <c r="C377" s="50"/>
+      <c r="D377" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E377" s="11"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="39"/>
-      <c r="B378" s="36"/>
-      <c r="C378" s="38"/>
-      <c r="D378" s="8" t="s">
+      <c r="B378" s="40"/>
+      <c r="C378" s="42"/>
+      <c r="D378" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E378" s="11"/>
+    </row>
+    <row r="379" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="14"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C381" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D381" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E381" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E378" s="12"/>
-    </row>
-    <row r="379" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="15"/>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" s="22" t="s">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="40"/>
+      <c r="B382" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C382" s="40"/>
+      <c r="D382" s="7" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="B381" s="7" t="s">
+      <c r="E382" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="40"/>
+      <c r="B383" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" s="40"/>
+      <c r="D383" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E383" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="40"/>
+      <c r="B384" s="45"/>
+      <c r="C384" s="40"/>
+      <c r="D384" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="E384" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="40"/>
+      <c r="B385" s="6"/>
+      <c r="C385" s="6"/>
+      <c r="D385" s="7"/>
+      <c r="E385" s="7"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="40"/>
+      <c r="B386" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="D386" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="E386" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="40"/>
+      <c r="B387" s="44"/>
+      <c r="C387" s="40"/>
+      <c r="D387" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E387" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="40"/>
+      <c r="B388" s="45"/>
+      <c r="C388" s="40"/>
+      <c r="D388" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E388" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="40"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="7"/>
+      <c r="E389" s="7"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="40"/>
+      <c r="B390" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C390" s="6"/>
+      <c r="D390" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E390" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="21"/>
+      <c r="D391" s="21"/>
+      <c r="E391" s="21"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D392" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E392" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="44"/>
+      <c r="B393" s="11"/>
+      <c r="C393" s="11"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="11"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="44"/>
+      <c r="B394" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C394" s="41"/>
+      <c r="D394" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E394" s="11"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="45"/>
+      <c r="B395" s="45"/>
+      <c r="C395" s="42"/>
+      <c r="D395" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E395" s="11"/>
+    </row>
+    <row r="396" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="14"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C397" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="D397" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E397" s="11"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="40"/>
+      <c r="B398" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" s="40"/>
+      <c r="D398" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E398" s="11"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="40"/>
+      <c r="B399" s="40"/>
+      <c r="C399" s="40"/>
+      <c r="D399" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="E399" s="11"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="40"/>
+      <c r="B400" s="40"/>
+      <c r="C400" s="40"/>
+      <c r="D400" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E400" s="11"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="40"/>
+      <c r="B401" s="40"/>
+      <c r="C401" s="40"/>
+      <c r="D401" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="E401" s="11"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="40"/>
+      <c r="B402" s="40"/>
+      <c r="C402" s="40"/>
+      <c r="D402" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="E402" s="11"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="40"/>
+      <c r="B403" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C403" s="40"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="11"/>
+    </row>
+    <row r="404" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="9"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B405" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C405" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="D405" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="E405" s="11"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="40"/>
+      <c r="B406" s="40"/>
+      <c r="C406" s="40"/>
+      <c r="D406" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="E406" s="11"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="40"/>
+      <c r="B407" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C381" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="D381" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="E381" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A382" s="36"/>
-      <c r="B382" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C382" s="36"/>
-      <c r="D382" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E382" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" s="36"/>
-      <c r="B383" s="40" t="s">
+      <c r="C407" s="40"/>
+      <c r="D407" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E407" s="11"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="40"/>
+      <c r="B408" s="40"/>
+      <c r="C408" s="40"/>
+      <c r="D408" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E408" s="11"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="40"/>
+      <c r="B409" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C409" s="40"/>
+      <c r="D409" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E409" s="11"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="40"/>
+      <c r="B410" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C383" s="36"/>
-      <c r="D383" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E383" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" s="36"/>
-      <c r="B384" s="42"/>
-      <c r="C384" s="36"/>
-      <c r="D384" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="E384" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385" s="36"/>
-      <c r="B385" s="7"/>
-      <c r="C385" s="7"/>
-      <c r="D385" s="8"/>
-      <c r="E385" s="8"/>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386" s="36"/>
-      <c r="B386" s="40" t="s">
+      <c r="C410" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="D410" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E410" s="11"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="40"/>
+      <c r="B411" s="40"/>
+      <c r="C411" s="40"/>
+      <c r="D411" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E411" s="11"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="40"/>
+      <c r="B412" s="40"/>
+      <c r="C412" s="40"/>
+      <c r="D412" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E412" s="11"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="40"/>
+      <c r="B413" s="40"/>
+      <c r="C413" s="40"/>
+      <c r="D413" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="E413" s="11"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="40"/>
+      <c r="B414" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C414" s="40"/>
+      <c r="D414" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E414" s="11"/>
+    </row>
+    <row r="415" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="9"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="B416" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C386" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="D386" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="E386" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387" s="36"/>
-      <c r="B387" s="41"/>
-      <c r="C387" s="36"/>
-      <c r="D387" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E387" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388" s="36"/>
-      <c r="B388" s="42"/>
-      <c r="C388" s="36"/>
-      <c r="D388" s="8" t="s">
+      <c r="C416" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="D416" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="E416" s="11"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="40"/>
+      <c r="B417" s="40"/>
+      <c r="C417" s="39"/>
+      <c r="D417" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="E417" s="11"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="40"/>
+      <c r="B418" s="40"/>
+      <c r="C418" s="39"/>
+      <c r="D418" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="E418" s="11"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="40"/>
+      <c r="B419" s="40"/>
+      <c r="C419" s="39"/>
+      <c r="D419" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="E419" s="11"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="40"/>
+      <c r="B420" s="40"/>
+      <c r="C420" s="39"/>
+      <c r="D420" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E420" s="11"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="40"/>
+      <c r="B421" s="40"/>
+      <c r="C421" s="39"/>
+      <c r="D421" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E421" s="11"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="40"/>
+      <c r="B422" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="C422" s="39"/>
+      <c r="D422" s="11"/>
+      <c r="E422" s="11"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="40"/>
+      <c r="B423" s="40"/>
+      <c r="C423" s="39"/>
+      <c r="D423" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E423" s="11"/>
+    </row>
+    <row r="424" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="9"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="E388" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A389" s="36"/>
-      <c r="B389" s="7"/>
-      <c r="C389" s="7"/>
-      <c r="D389" s="8"/>
-      <c r="E389" s="8"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" s="36"/>
-      <c r="B390" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C390" s="7"/>
-      <c r="D390" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E390" s="8" t="s">
+      <c r="B425" s="40" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" s="22"/>
-      <c r="D391" s="22"/>
-      <c r="E391" s="22"/>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="B392" s="7" t="s">
+      <c r="C425" s="40"/>
+      <c r="D425" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E425" s="11"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="40"/>
+      <c r="B426" s="40"/>
+      <c r="C426" s="40"/>
+      <c r="D426" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E426" s="11"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="40"/>
+      <c r="B427" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D427" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="E427" s="11"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="40"/>
+      <c r="B428" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C428" s="6"/>
+      <c r="D428" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E428" s="11"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="40"/>
+      <c r="B429" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C392" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D392" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="E392" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393" s="41"/>
-      <c r="B393" s="12"/>
-      <c r="C393" s="12"/>
-      <c r="D393" s="12"/>
-      <c r="E393" s="12"/>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394" s="41"/>
-      <c r="B394" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="C394" s="37"/>
-      <c r="D394" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E394" s="12"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A395" s="42"/>
-      <c r="B395" s="42"/>
-      <c r="C395" s="38"/>
-      <c r="D395" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E395" s="12"/>
-    </row>
-    <row r="396" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="15"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A397" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="B397" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C397" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="D397" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E397" s="12"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A398" s="36"/>
-      <c r="B398" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C398" s="36"/>
-      <c r="D398" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E398" s="12"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A399" s="36"/>
-      <c r="B399" s="36"/>
-      <c r="C399" s="36"/>
-      <c r="D399" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="E399" s="12"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400" s="36"/>
-      <c r="B400" s="36"/>
-      <c r="C400" s="36"/>
-      <c r="D400" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E400" s="12"/>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A401" s="36"/>
-      <c r="B401" s="36"/>
-      <c r="C401" s="36"/>
-      <c r="D401" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="E401" s="12"/>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A402" s="36"/>
-      <c r="B402" s="36"/>
-      <c r="C402" s="36"/>
-      <c r="D402" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="E402" s="12"/>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A403" s="36"/>
-      <c r="B403" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C403" s="36"/>
-      <c r="D403" s="12"/>
-      <c r="E403" s="12"/>
-    </row>
-    <row r="404" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="10"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="B405" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C405" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="D405" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="E405" s="12"/>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406" s="36"/>
-      <c r="B406" s="36"/>
-      <c r="C406" s="36"/>
-      <c r="D406" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="E406" s="12"/>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A407" s="36"/>
-      <c r="B407" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C407" s="36"/>
-      <c r="D407" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E407" s="12"/>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A408" s="36"/>
-      <c r="B408" s="36"/>
-      <c r="C408" s="36"/>
-      <c r="D408" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E408" s="12"/>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A409" s="36"/>
-      <c r="B409" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C409" s="36"/>
-      <c r="D409" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E409" s="12"/>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A410" s="36"/>
-      <c r="B410" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C410" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="D410" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="E410" s="12"/>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A411" s="36"/>
-      <c r="B411" s="36"/>
-      <c r="C411" s="36"/>
-      <c r="D411" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E411" s="12"/>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412" s="36"/>
-      <c r="B412" s="36"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E412" s="12"/>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413" s="36"/>
-      <c r="B413" s="36"/>
-      <c r="C413" s="36"/>
-      <c r="D413" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="E413" s="12"/>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A414" s="36"/>
-      <c r="B414" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C414" s="36"/>
-      <c r="D414" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="E414" s="12"/>
-    </row>
-    <row r="415" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="10"/>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="B416" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C416" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="D416" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="E416" s="12"/>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A417" s="36"/>
-      <c r="B417" s="36"/>
-      <c r="C417" s="39"/>
-      <c r="D417" s="28" t="s">
-        <v>465</v>
-      </c>
-      <c r="E417" s="12"/>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A418" s="36"/>
-      <c r="B418" s="36"/>
-      <c r="C418" s="39"/>
-      <c r="D418" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="E418" s="12"/>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A419" s="36"/>
-      <c r="B419" s="36"/>
-      <c r="C419" s="39"/>
-      <c r="D419" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="E419" s="12"/>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A420" s="36"/>
-      <c r="B420" s="36"/>
-      <c r="C420" s="39"/>
-      <c r="D420" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="E420" s="12"/>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A421" s="36"/>
-      <c r="B421" s="36"/>
-      <c r="C421" s="39"/>
-      <c r="D421" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E421" s="12"/>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A422" s="36"/>
-      <c r="B422" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C422" s="39"/>
-      <c r="D422" s="12"/>
-      <c r="E422" s="12"/>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A423" s="36"/>
-      <c r="B423" s="36"/>
-      <c r="C423" s="39"/>
-      <c r="D423" s="8" t="s">
+      <c r="C429" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E423" s="12"/>
-    </row>
-    <row r="424" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="10"/>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="B425" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="C425" s="36"/>
-      <c r="D425" s="8" t="s">
+      <c r="D429" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="E425" s="12"/>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A426" s="36"/>
-      <c r="B426" s="36"/>
-      <c r="C426" s="36"/>
-      <c r="D426" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E426" s="12"/>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A427" s="36"/>
-      <c r="B427" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C427" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D427" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="E427" s="12"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A428" s="36"/>
-      <c r="B428" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C428" s="7"/>
-      <c r="D428" s="8" t="s">
+      <c r="E429" s="11"/>
+    </row>
+    <row r="430" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="9"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="43" t="s">
         <v>424</v>
       </c>
-      <c r="E428" s="12"/>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A429" s="36"/>
-      <c r="B429" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C429" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D429" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E429" s="12"/>
-    </row>
-    <row r="430" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="10"/>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A431" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="B431" s="12"/>
-      <c r="C431" s="12"/>
-      <c r="D431" s="12"/>
-      <c r="E431" s="12"/>
+      <c r="B431" s="11"/>
+      <c r="C431" s="11"/>
+      <c r="D431" s="11"/>
+      <c r="E431" s="11"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A432" s="41"/>
-      <c r="B432" s="50" t="s">
-        <v>543</v>
+      <c r="A432" s="44"/>
+      <c r="B432" s="46" t="s">
+        <v>540</v>
       </c>
       <c r="C432" s="47"/>
       <c r="D432" s="47"/>
       <c r="E432" s="47"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A433" s="42"/>
+      <c r="A433" s="45"/>
       <c r="B433" s="47" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C433" s="48"/>
       <c r="D433" s="48"/>
       <c r="E433" s="48"/>
     </row>
     <row r="434" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="15"/>
+      <c r="A434" s="14"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A435" s="40" t="s">
+      <c r="A435" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B435" s="11"/>
+      <c r="C435" s="11"/>
+      <c r="D435" s="11"/>
+      <c r="E435" s="11"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="44"/>
+      <c r="B436" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="D436" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E436" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B435" s="12"/>
-      <c r="C435" s="12"/>
-      <c r="D435" s="12"/>
-      <c r="E435" s="12"/>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A436" s="41"/>
-      <c r="B436" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C436" s="40" t="s">
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="44"/>
+      <c r="B437" s="44"/>
+      <c r="C437" s="44"/>
+      <c r="D437" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D436" s="8" t="s">
+      <c r="E437" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="E436" s="8" t="s">
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="44"/>
+      <c r="B438" s="44"/>
+      <c r="C438" s="44"/>
+      <c r="D438" s="7" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A437" s="41"/>
-      <c r="B437" s="41"/>
-      <c r="C437" s="41"/>
-      <c r="D437" s="8" t="s">
+      <c r="E438" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="E437" s="8" t="s">
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="44"/>
+      <c r="B439" s="44"/>
+      <c r="C439" s="44"/>
+      <c r="D439" s="7" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A438" s="41"/>
-      <c r="B438" s="41"/>
-      <c r="C438" s="41"/>
-      <c r="D438" s="8" t="s">
+      <c r="E439" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="E438" s="14" t="s">
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="45"/>
+      <c r="B440" s="45"/>
+      <c r="C440" s="45"/>
+      <c r="D440" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="E440" s="7" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A439" s="41"/>
-      <c r="B439" s="41"/>
-      <c r="C439" s="41"/>
-      <c r="D439" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E439" s="8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A440" s="42"/>
-      <c r="B440" s="42"/>
-      <c r="C440" s="42"/>
-      <c r="D440" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="E440" s="8" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A442" s="7" t="s">
+      <c r="A442" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B442" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C442" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D442" s="11"/>
+      <c r="E442" s="11"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B443" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="C443" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B442" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C442" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D442" s="12"/>
-      <c r="E442" s="12"/>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A443" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B443" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C443" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D443" s="11"/>
-      <c r="E443" s="11"/>
+      <c r="D443" s="10"/>
+      <c r="E443" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -7215,6 +7242,21 @@
     <mergeCell ref="A131:A132"/>
     <mergeCell ref="A134:A141"/>
     <mergeCell ref="A143:A156"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C134:C141"/>
+    <mergeCell ref="C143:C156"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C37:C51"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="C75:C81"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="C92:C94"/>
     <mergeCell ref="A158:A204"/>
     <mergeCell ref="A206:A222"/>
     <mergeCell ref="A3:A32"/>
@@ -7259,8 +7301,7 @@
     <mergeCell ref="B139:B140"/>
     <mergeCell ref="B143:B145"/>
     <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B239:C239"/>
     <mergeCell ref="B158:B180"/>
     <mergeCell ref="B181:B185"/>
     <mergeCell ref="B186:B195"/>
@@ -7269,50 +7310,23 @@
     <mergeCell ref="B217:B222"/>
     <mergeCell ref="B224:B226"/>
     <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="C158:C204"/>
+    <mergeCell ref="C206:C222"/>
+    <mergeCell ref="C224:C230"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B398:B402"/>
+    <mergeCell ref="B405:B406"/>
     <mergeCell ref="B249:B260"/>
     <mergeCell ref="B261:B278"/>
     <mergeCell ref="B279:B284"/>
     <mergeCell ref="B286:B289"/>
     <mergeCell ref="B293:B346"/>
     <mergeCell ref="B347:B348"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B349:B378"/>
-    <mergeCell ref="B383:B384"/>
-    <mergeCell ref="B386:B388"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="B398:B402"/>
-    <mergeCell ref="B405:B406"/>
-    <mergeCell ref="B407:B408"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="B416:B421"/>
-    <mergeCell ref="B422:B423"/>
-    <mergeCell ref="B425:B426"/>
-    <mergeCell ref="B436:B440"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C37:C51"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="C75:C81"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B241:B247"/>
     <mergeCell ref="C96:C109"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C134:C141"/>
-    <mergeCell ref="C143:C156"/>
-    <mergeCell ref="C158:C204"/>
-    <mergeCell ref="C206:C222"/>
-    <mergeCell ref="C224:C230"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="C241:C284"/>
-    <mergeCell ref="C293:C378"/>
-    <mergeCell ref="C381:C384"/>
     <mergeCell ref="C386:C388"/>
     <mergeCell ref="C394:C395"/>
     <mergeCell ref="C397:C403"/>
@@ -7323,6 +7337,19 @@
     <mergeCell ref="C436:C440"/>
     <mergeCell ref="B432:E432"/>
     <mergeCell ref="B433:E433"/>
+    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="B425:B426"/>
+    <mergeCell ref="B436:B440"/>
+    <mergeCell ref="B407:B408"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="B416:B421"/>
+    <mergeCell ref="C241:C284"/>
+    <mergeCell ref="C293:C378"/>
+    <mergeCell ref="C381:C384"/>
+    <mergeCell ref="B349:B378"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="B386:B388"/>
+    <mergeCell ref="B394:B395"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
